--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z282"/>
+  <dimension ref="A1:Z283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39553-2024</t>
+          <t>A 8924-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45551</v>
+        <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,8 +779,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>11.5</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -789,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -804,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -813,133 +818,128 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Åkergroda
+Vanlig groda
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39553-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45551</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Ärtsångare
 Grönsiska</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 8924-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44614</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Vanlig groda
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,14 +1115,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25432-2021</t>
+          <t>A 2637-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44342</v>
+        <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1162,215 +1162,215 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 2637-2022 artfynd.xlsx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 2637-2022 karta.png", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 2637-2022 karta knärot.png", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 2637-2022 FSC-klagomål.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 2637-2022 FSC-klagomål mail.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 2637-2022 tillsynsbegäran.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 2637-2022 tillsynsbegäran mail.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 37767-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Sotlav</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 25432-2021</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Åkerrödtoppa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 63405-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>46012</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Gropticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 2637-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44580</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 2637-2022 artfynd.xlsx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 2637-2022 karta.png", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 2637-2022 karta knärot.png", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 2637-2022 FSC-klagomål.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 2637-2022 FSC-klagomål mail.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 2637-2022 tillsynsbegäran.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 2637-2022 tillsynsbegäran mail.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44342</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,14 +1459,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 37767-2023</t>
+          <t>A 63405-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45159</v>
+        <v>46012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>21.1</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1513,31 +1513,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
         <v>45625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45733.47122685185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 40982-2021</t>
+          <t>A 25063-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44421</v>
+        <v>44341.61608796296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2060,14 +2060,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 47181-2021</t>
+          <t>A 25066-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44447.30079861111</v>
+        <v>44341.62946759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2117,14 +2117,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 25063-2021</t>
+          <t>A 47181-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44341.61608796296</v>
+        <v>44447.30079861111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2174,14 +2174,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25066-2021</t>
+          <t>A 40982-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44341.62946759259</v>
+        <v>44421</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,14 +2288,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 49026-2021</t>
+          <t>A 14274-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44453</v>
+        <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2345,14 +2345,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34168-2021</t>
+          <t>A 49026-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44379.49144675926</v>
+        <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2402,14 +2402,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 14274-2021</t>
+          <t>A 34168-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44278</v>
+        <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2459,14 +2459,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 51196-2021</t>
+          <t>A 46431-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44460</v>
+        <v>44846</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2516,14 +2516,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46431-2022</t>
+          <t>A 51196-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44846</v>
+        <v>44460</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44746.57121527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,14 +2972,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33513-2021</t>
+          <t>A 44072-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44377</v>
+        <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44072-2021</t>
+          <t>A 33513-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44434</v>
+        <v>44377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,14 +4055,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45062-2021</t>
+          <t>A 55624-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44439.35600694444</v>
+        <v>44883</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55624-2022</t>
+          <t>A 45062-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44883</v>
+        <v>44439.35600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44746.47565972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4697,14 +4697,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36573-2025</t>
+          <t>A 8299-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45869</v>
+        <v>44243</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4754,14 +4754,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 15147-2025</t>
+          <t>A 49365-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45744.45267361111</v>
+        <v>44454.59979166667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>9.4</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4811,14 +4811,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 36581-2025</t>
+          <t>A 11805-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45869</v>
+        <v>44265</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4868,14 +4868,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12215-2025</t>
+          <t>A 34659-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45729.5352662037</v>
+        <v>44382.57646990741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4925,14 +4925,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8299-2021</t>
+          <t>A 16342-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44243</v>
+        <v>45751.37185185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,8 +4944,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4982,14 +4987,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 49365-2021</t>
+          <t>A 56517-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44454.59979166667</v>
+        <v>45625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5002,7 +5007,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5039,14 +5044,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45101-2021</t>
+          <t>A 56531-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44439.40950231482</v>
+        <v>45625</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5064,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5096,14 +5101,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56479-2024</t>
+          <t>A 16511-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45624</v>
+        <v>44293</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5116,7 +5121,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5153,14 +5158,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 37219-2025</t>
+          <t>A 5823-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45875</v>
+        <v>45335.55476851852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5173,7 +5178,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5210,14 +5215,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 31833-2024</t>
+          <t>A 35149-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45509.64240740741</v>
+        <v>44797</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5230,7 +5235,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5267,14 +5272,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 37218-2025</t>
+          <t>A 64350-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45875</v>
+        <v>45280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5287,7 +5292,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5324,14 +5329,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11805-2021</t>
+          <t>A 13049-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44265</v>
+        <v>45002</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5344,7 +5349,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5381,14 +5386,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 16511-2021</t>
+          <t>A 58832-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44293</v>
+        <v>45247</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5401,7 +5406,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5438,14 +5443,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 37920-2025</t>
+          <t>A 29203-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45881.57488425926</v>
+        <v>45097</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5458,7 +5463,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5495,14 +5500,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29809-2025</t>
+          <t>A 15335-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45825.75673611111</v>
+        <v>44284</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5515,7 +5520,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5552,14 +5557,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20542-2024</t>
+          <t>A 36894-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45436</v>
+        <v>45538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5572,7 +5577,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5609,14 +5614,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59864-2024</t>
+          <t>A 2633-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45639</v>
+        <v>44580</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5629,7 +5634,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5666,14 +5671,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 37925-2025</t>
+          <t>A 11809-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45881.57799768518</v>
+        <v>45727.89780092592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5686,7 +5691,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5723,14 +5728,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 16342-2025</t>
+          <t>A 59193-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45751.37185185185</v>
+        <v>45636</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,13 +5747,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5785,14 +5785,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 23665-2021</t>
+          <t>A 4982-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44334</v>
+        <v>45689</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5842,14 +5842,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39753-2025</t>
+          <t>A 57287-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45891.41855324074</v>
+        <v>45629.58438657408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5899,14 +5899,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 39144-2024</t>
+          <t>A 28097-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45548.6153587963</v>
+        <v>44746.47129629629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5956,14 +5956,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 50456-2022</t>
+          <t>A 5951-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44861</v>
+        <v>45695</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6013,14 +6013,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 23019-2025</t>
+          <t>A 43105-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45790</v>
+        <v>45567</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6070,14 +6070,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3334-2025</t>
+          <t>A 59204-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45679.71046296296</v>
+        <v>44897</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6127,14 +6127,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40535-2025</t>
+          <t>A 49922-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45896</v>
+        <v>45597.57326388889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6184,14 +6184,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 56711-2022</t>
+          <t>A 25374-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44893.84237268518</v>
+        <v>45800.63570601852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6203,8 +6203,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6241,14 +6246,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40648-2025</t>
+          <t>A 61289-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45896</v>
+        <v>45260</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6261,7 +6266,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6298,14 +6303,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34659-2021</t>
+          <t>A 60091-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44382.57646990741</v>
+        <v>45258.44322916667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6318,7 +6323,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6355,14 +6360,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14267-2024</t>
+          <t>A 26441-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45393.57178240741</v>
+        <v>44738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6374,13 +6379,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6417,14 +6417,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 14309-2024</t>
+          <t>A 25601-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45393.66581018519</v>
+        <v>45803.54850694445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6438,11 +6438,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6479,14 +6479,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 35149-2022</t>
+          <t>A 63206-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44797</v>
+        <v>45273</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6536,14 +6536,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 3313-2024</t>
+          <t>A 16910-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45317.4846412037</v>
+        <v>45411</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.3</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6593,14 +6593,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 53823-2022</t>
+          <t>A 39753-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44880</v>
+        <v>45891.41855324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6650,14 +6650,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 6374-2023</t>
+          <t>A 27374-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44965.62028935185</v>
+        <v>45812</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6707,14 +6707,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 20662-2025</t>
+          <t>A 27379-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45776</v>
+        <v>45812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>10.3</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6764,14 +6764,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43775-2025</t>
+          <t>A 23019-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45912.50739583333</v>
+        <v>45790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6821,14 +6821,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 44363-2025</t>
+          <t>A 40535-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45915</v>
+        <v>45896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6878,14 +6878,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29176-2025</t>
+          <t>A 37492-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45821</v>
+        <v>44398</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6935,14 +6935,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49922-2024</t>
+          <t>A 42769-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45597.57326388889</v>
+        <v>44832</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6992,14 +6992,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44718-2025</t>
+          <t>A 40648-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45917</v>
+        <v>45896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7049,14 +7049,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44720-2025</t>
+          <t>A 488-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45917</v>
+        <v>45664.45827546297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7106,14 +7106,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59373-2023</t>
+          <t>A 49920-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45253.74621527778</v>
+        <v>45597.57233796296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7163,14 +7163,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 2314-2026</t>
+          <t>A 29167-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46034</v>
+        <v>45821</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7220,14 +7220,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 2315-2026</t>
+          <t>A 28886-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46034</v>
+        <v>45820.62944444444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7277,14 +7277,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46122-2025</t>
+          <t>A 29177-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45924.58452546296</v>
+        <v>45821</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7334,14 +7334,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 2470-2026</t>
+          <t>A 28933-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46037.36991898148</v>
+        <v>45820.68407407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7391,14 +7391,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39887-2022</t>
+          <t>A 28934-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44819.64585648148</v>
+        <v>45820.68806712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7448,14 +7448,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 53360-2022</t>
+          <t>A 28932-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44879.38193287037</v>
+        <v>45820.68037037037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7505,14 +7505,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47189-2025</t>
+          <t>A 4290-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45930</v>
+        <v>44953.60280092592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7562,14 +7562,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47451-2025</t>
+          <t>A 59373-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45930</v>
+        <v>45253.74621527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7619,14 +7619,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47365-2025</t>
+          <t>A 35429-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45930</v>
+        <v>45146.62659722222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7676,14 +7676,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47358-2025</t>
+          <t>A 30001-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45930</v>
+        <v>45826.52243055555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7695,8 +7695,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7733,14 +7738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61356-2025</t>
+          <t>A 29813-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46000</v>
+        <v>45825.78273148148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7753,7 +7758,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7790,14 +7795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61358-2025</t>
+          <t>A 20662-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46000</v>
+        <v>45776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7810,7 +7815,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.4</v>
+        <v>10.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7847,14 +7852,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61803-2025</t>
+          <t>A 43775-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46002</v>
+        <v>45912.50739583333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7904,14 +7909,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 36894-2024</t>
+          <t>A 29815-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45538</v>
+        <v>45825.81784722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7924,7 +7929,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7961,14 +7966,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 47516-2025</t>
+          <t>A 44363-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45931.26936342593</v>
+        <v>45915</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7980,13 +7985,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8023,14 +8023,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 64350-2023</t>
+          <t>A 44718-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45280</v>
+        <v>45917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8080,14 +8080,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48324-2025</t>
+          <t>A 44720-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45933.62864583333</v>
+        <v>45917</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8137,14 +8137,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61802-2025</t>
+          <t>A 46122-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46002</v>
+        <v>45924.58452546296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8194,14 +8194,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 61807-2025</t>
+          <t>A 63039-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46002</v>
+        <v>45272</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8251,14 +8251,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 63039-2023</t>
+          <t>A 59965-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45272</v>
+        <v>45257.74469907407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8308,14 +8308,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47360-2025</t>
+          <t>A 64722-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45930</v>
+        <v>45281</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8365,14 +8365,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 488-2025</t>
+          <t>A 46480-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45664.45827546297</v>
+        <v>44847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>9.699999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8422,14 +8422,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61818-2025</t>
+          <t>A 49893-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46003.32189814815</v>
+        <v>44864</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8479,14 +8479,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 5823-2024</t>
+          <t>A 47365-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45335.55476851852</v>
+        <v>45930</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8536,14 +8536,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50035-2025</t>
+          <t>A 47189-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45943.3944675926</v>
+        <v>45930</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8593,14 +8593,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 50736-2025</t>
+          <t>A 3313-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45946.36873842592</v>
+        <v>45317.4846412037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8650,14 +8650,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 8926-2022</t>
+          <t>A 47358-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44614</v>
+        <v>45930</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8667,11 +8667,6 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -8712,14 +8707,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16710-2025</t>
+          <t>A 47451-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45754</v>
+        <v>45930</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8727,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8769,14 +8764,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 51076-2025</t>
+          <t>A 47516-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45947.46234953704</v>
+        <v>45931.26936342593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,8 +8783,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8826,14 +8826,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 51176-2025</t>
+          <t>A 10416-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45947</v>
+        <v>45365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8883,14 +8883,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58832-2023</t>
+          <t>A 47360-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45247</v>
+        <v>45930</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8940,14 +8940,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51179-2025</t>
+          <t>A 48324-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45947</v>
+        <v>45933.62864583333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8997,14 +8997,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51141-2025</t>
+          <t>A 6360-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45947.56348379629</v>
+        <v>44965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9054,14 +9054,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51065-2025</t>
+          <t>A 6374-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45947.45203703704</v>
+        <v>44965.62028935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9111,14 +9111,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 49118-2024</t>
+          <t>A 8001-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45594.66445601852</v>
+        <v>45707.52650462963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,8 +9130,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9168,14 +9173,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 20545-2024</t>
+          <t>A 50587-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45436</v>
+        <v>44861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9193,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9225,14 +9230,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 49920-2024</t>
+          <t>A 39887-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45597.57233796296</v>
+        <v>44819.64585648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9250,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9282,14 +9287,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 41256-2024</t>
+          <t>A 58878-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45559</v>
+        <v>45252.47113425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9307,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9339,14 +9344,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 63556-2025</t>
+          <t>A 50035-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46013.61539351852</v>
+        <v>45943.3944675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9364,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9396,14 +9401,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 63406-2025</t>
+          <t>A 59191-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46012</v>
+        <v>45251</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9421,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9453,14 +9458,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 63407-2025</t>
+          <t>A 59231-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46012</v>
+        <v>45253</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9478,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9510,14 +9515,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 43564-2024</t>
+          <t>A 650-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45569</v>
+        <v>45299</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9535,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9567,14 +9572,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 22634-2024</t>
+          <t>A 45056-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45447.67667824074</v>
+        <v>44439.34355324074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9592,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9624,14 +9629,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 40505-2023</t>
+          <t>A 3645-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45170.40601851852</v>
+        <v>45321</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9649,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9681,14 +9686,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 16910-2024</t>
+          <t>A 51141-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45411</v>
+        <v>45947.56348379629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9706,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9738,14 +9743,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 64725-2023</t>
+          <t>A 44643-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45281</v>
+        <v>44437.70806712963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9763,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9795,14 +9800,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 63206-2023</t>
+          <t>A 51179-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45273</v>
+        <v>45947</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9820,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9852,14 +9857,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 32564-2023</t>
+          <t>A 51076-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45111</v>
+        <v>45947.46234953704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9877,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9909,14 +9914,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9486-2023</t>
+          <t>A 51176-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44977</v>
+        <v>45947</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9934,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9966,14 +9971,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 43097-2024</t>
+          <t>A 51065-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45567.54149305556</v>
+        <v>45947.45203703704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9991,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10023,14 +10028,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 35435-2023</t>
+          <t>A 50736-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45146.63164351852</v>
+        <v>45946.36873842592</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10080,14 +10085,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 57289-2024</t>
+          <t>A 11805-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45629.58579861111</v>
+        <v>45727.88486111111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10100,7 +10105,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10137,14 +10142,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 39311-2023</t>
+          <t>A 11820-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45162</v>
+        <v>45728.32152777778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10162,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10194,14 +10199,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 31989-2022</t>
+          <t>A 45059-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44778.30577546296</v>
+        <v>44439.34944444444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10219,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10251,14 +10256,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 59193-2024</t>
+          <t>A 44644-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45636</v>
+        <v>44437.71910879629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10276,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10308,14 +10313,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 56526-2024</t>
+          <t>A 10419-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45625</v>
+        <v>45365</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10333,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>7.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10365,14 +10370,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 3336-2025</t>
+          <t>A 17388-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45679.71759259259</v>
+        <v>45035</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10390,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10422,14 +10427,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 17388-2023</t>
+          <t>A 9486-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45035</v>
+        <v>44977</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10447,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10479,14 +10484,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 35429-2023</t>
+          <t>A 32564-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45146.62659722222</v>
+        <v>45111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10504,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10536,14 +10541,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 11809-2025</t>
+          <t>A 12476-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45727.89780092592</v>
+        <v>44999.64097222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10561,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10593,14 +10598,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 35186-2024</t>
+          <t>A 36581-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45530.45280092592</v>
+        <v>45869</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10618,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10650,14 +10655,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 57287-2024</t>
+          <t>A 36573-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45629.58438657408</v>
+        <v>45869</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10675,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10707,14 +10712,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35433-2023</t>
+          <t>A 14267-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45146.62883101852</v>
+        <v>45393.57178240741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10726,8 +10731,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10764,14 +10774,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 23166-2023</t>
+          <t>A 45101-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45075</v>
+        <v>44439.40950231482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10794,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>8.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10821,14 +10831,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 44707-2021</t>
+          <t>A 56479-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44438.36449074074</v>
+        <v>45624</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10851,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10878,14 +10888,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 14821-2024</t>
+          <t>A 12215-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45398.18991898148</v>
+        <v>45729.5352662037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10908,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10935,14 +10945,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 56517-2024</t>
+          <t>A 8792-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45625</v>
+        <v>44978.59072916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10965,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10992,14 +11002,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 56531-2024</t>
+          <t>A 57289-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45625</v>
+        <v>45629.58579861111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11022,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11049,14 +11059,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 6233-2024</t>
+          <t>A 15147-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45337</v>
+        <v>45744.45267361111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11079,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.9</v>
+        <v>9.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11106,14 +11116,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56512-2024</t>
+          <t>A 31989-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45625</v>
+        <v>44778.30577546296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11136,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11163,14 +11173,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 2633-2022</t>
+          <t>A 37219-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44580</v>
+        <v>45875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11183,7 +11193,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11220,14 +11230,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 37492-2021</t>
+          <t>A 37218-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44398</v>
+        <v>45875</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11240,7 +11250,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11277,14 +11287,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 1196-2025</t>
+          <t>A 37920-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45666</v>
+        <v>45881.57488425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11297,7 +11307,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>9.1</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11334,14 +11344,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 40508-2023</t>
+          <t>A 3334-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45170.40796296296</v>
+        <v>45679.71046296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11354,7 +11364,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11391,14 +11401,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6232-2024</t>
+          <t>A 37925-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45337</v>
+        <v>45881.57799768518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11411,7 +11421,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11448,14 +11458,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 37700-2021</t>
+          <t>A 39311-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44400</v>
+        <v>45162</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11468,7 +11478,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11505,14 +11515,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 8001-2025</t>
+          <t>A 59864-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45707.52650462963</v>
+        <v>45639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11524,13 +11534,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11567,14 +11572,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 7323-2025</t>
+          <t>A 16709-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45702</v>
+        <v>45754.47859953704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11592,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11624,14 +11629,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 18685-2025</t>
+          <t>A 32624-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45763.61067129629</v>
+        <v>45111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11649,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11681,14 +11686,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 18722-2025</t>
+          <t>A 29809-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45763.66126157407</v>
+        <v>45825.75673611111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11706,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11738,14 +11743,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59231-2023</t>
+          <t>A 8926-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45253</v>
+        <v>44614</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11757,8 +11762,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11795,14 +11805,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 16709-2025</t>
+          <t>A 7323-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45754.47859953704</v>
+        <v>45702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11825,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11852,14 +11862,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59191-2023</t>
+          <t>A 8794-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45251</v>
+        <v>44978.59206018518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11882,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11909,14 +11919,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 28097-2022</t>
+          <t>A 44396-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44746.47129629629</v>
+        <v>45573</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11939,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11966,14 +11976,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 9243-2025</t>
+          <t>A 7640-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45714.56596064815</v>
+        <v>45705.77997685185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11996,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12023,14 +12033,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 49893-2022</t>
+          <t>A 6232-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44864</v>
+        <v>45337</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12053,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12080,14 +12090,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 1218-2024</t>
+          <t>A 29176-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45302</v>
+        <v>45821</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12110,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12137,14 +12147,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 26441-2022</t>
+          <t>A 2470-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44738</v>
+        <v>46037.36991898148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12167,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12194,14 +12204,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 11827-2025</t>
+          <t>A 2314-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45728.33512731481</v>
+        <v>46034</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12224,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12251,14 +12261,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 650-2024</t>
+          <t>A 1196-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45299</v>
+        <v>45666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12281,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9</v>
+        <v>9.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12308,14 +12318,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 50587-2022</t>
+          <t>A 7596-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44861</v>
+        <v>45705.65067129629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12338,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12365,14 +12375,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 16444-2025</t>
+          <t>A 2315-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45751.50175925926</v>
+        <v>46034</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12384,13 +12394,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12427,14 +12432,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 35366-2024</t>
+          <t>A 23665-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45531</v>
+        <v>44334</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12452,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>14</v>
+        <v>2.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12484,14 +12489,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 455-2024</t>
+          <t>A 14821-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45296</v>
+        <v>45398.18991898148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12509,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12541,14 +12546,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 46480-2022</t>
+          <t>A 59200-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44847</v>
+        <v>45636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12566,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12598,14 +12603,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 22925-2024</t>
+          <t>A 61356-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45448</v>
+        <v>46000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12623,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12655,14 +12660,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 4290-2023</t>
+          <t>A 61358-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44953.60280092592</v>
+        <v>46000</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12680,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12712,14 +12717,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 8792-2023</t>
+          <t>A 10732-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44978.59072916667</v>
+        <v>45369</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12737,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12769,14 +12774,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 37197-2023</t>
+          <t>A 61818-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45155.66857638889</v>
+        <v>46003.32189814815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12794,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12826,14 +12831,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7640-2025</t>
+          <t>A 14354-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45705.77997685185</v>
+        <v>45741.36516203704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12845,8 +12850,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12883,14 +12893,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 9481-2023</t>
+          <t>A 61802-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44977</v>
+        <v>46002</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12913,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12940,14 +12950,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 9483-2023</t>
+          <t>A 61807-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44977</v>
+        <v>46002</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12970,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12997,14 +13007,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 28200-2022</t>
+          <t>A 61803-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44746</v>
+        <v>46002</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13027,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13054,14 +13064,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 32548-2024</t>
+          <t>A 6233-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45513</v>
+        <v>45337</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13084,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>10.2</v>
+        <v>1.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13111,14 +13121,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 55163-2023</t>
+          <t>A 1218-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45237</v>
+        <v>45302</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13141,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13168,14 +13178,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 4982-2025</t>
+          <t>A 23166-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45689</v>
+        <v>45075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13198,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13225,14 +13235,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 8794-2023</t>
+          <t>A 39144-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44978.59206018518</v>
+        <v>45548.6153587963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13255,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13282,14 +13292,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 18772-2025</t>
+          <t>A 63556-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45763</v>
+        <v>46013.61539351852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13312,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13339,14 +13349,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 12476-2023</t>
+          <t>A 63406-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44999.64097222222</v>
+        <v>46012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13369,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13396,14 +13406,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 44396-2024</t>
+          <t>A 63407-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45573</v>
+        <v>46012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13426,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13453,14 +13463,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 64722-2023</t>
+          <t>A 41256-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45281</v>
+        <v>45559</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13483,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13510,14 +13520,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 12889-2023</t>
+          <t>A 56711-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45001</v>
+        <v>44893.84237268518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13540,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13567,14 +13577,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 32624-2023</t>
+          <t>A 7396-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45111</v>
+        <v>46059.37376157408</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13597,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13624,14 +13634,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 10416-2024</t>
+          <t>A 56526-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45365</v>
+        <v>45625</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13654,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13681,14 +13691,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 10419-2024</t>
+          <t>A 3336-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45365</v>
+        <v>45679.71759259259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13701,7 +13711,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>7.7</v>
+        <v>0.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13738,14 +13748,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 35426-2023</t>
+          <t>A 31833-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45146.62553240741</v>
+        <v>45509.64240740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13768,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13795,14 +13805,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 25554-2023</t>
+          <t>A 37700-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45082</v>
+        <v>44400</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13825,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13852,14 +13862,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 59965-2023</t>
+          <t>A 16444-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45257.74469907407</v>
+        <v>45751.50175925926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13871,8 +13881,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13909,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 15335-2021</t>
+          <t>A 18685-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44284</v>
+        <v>45763.61067129629</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13966,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 58878-2023</t>
+          <t>A 18722-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45252.47113425926</v>
+        <v>45763.66126157407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14023,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 10732-2024</t>
+          <t>A 53823-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45369</v>
+        <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14080,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 27260-2024</t>
+          <t>A 455-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45471</v>
+        <v>45296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14137,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 42769-2022</t>
+          <t>A 35186-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44832</v>
+        <v>45530.45280092592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14157,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14194,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 6360-2023</t>
+          <t>A 35366-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44965</v>
+        <v>45531</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14214,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>14</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14251,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 60091-2023</t>
+          <t>A 20542-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45258.44322916667</v>
+        <v>45436</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14271,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14308,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 61289-2023</t>
+          <t>A 14325-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45260</v>
+        <v>45393.69880787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14327,8 +14342,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14365,14 +14385,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 3645-2024</t>
+          <t>A 44707-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45321</v>
+        <v>44438.36449074074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14385,7 +14405,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14422,14 +14442,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 29203-2023</t>
+          <t>A 18772-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45097</v>
+        <v>45763</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14442,7 +14462,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14479,14 +14499,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 59200-2024</t>
+          <t>A 55163-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45636</v>
+        <v>45237</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14499,7 +14519,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14536,14 +14556,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 55145-2024</t>
+          <t>A 25554-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45621</v>
+        <v>45082</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14556,7 +14576,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14593,14 +14613,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 45002-2024</t>
+          <t>A 16710-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45575.48587962963</v>
+        <v>45754</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14613,7 +14633,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14650,14 +14670,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 7596-2025</t>
+          <t>A 9243-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45705.65067129629</v>
+        <v>45714.56596064815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14670,7 +14690,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14707,14 +14727,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 13049-2023</t>
+          <t>A 12889-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45002</v>
+        <v>45001</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14727,7 +14747,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14764,14 +14784,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 14354-2025</t>
+          <t>A 49118-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45741.36516203704</v>
+        <v>45594.66445601852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14781,11 +14801,6 @@
       <c r="E243" t="inlineStr">
         <is>
           <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G243" t="n">
@@ -14826,14 +14841,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 14325-2024</t>
+          <t>A 64725-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45393.69880787037</v>
+        <v>45281</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14845,13 +14860,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14888,14 +14898,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 10928-2025</t>
+          <t>A 50456-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45722.90581018518</v>
+        <v>44861</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14908,7 +14918,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>9.300000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14945,14 +14955,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 21159-2025</t>
+          <t>A 56512-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45779.3799074074</v>
+        <v>45625</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14965,7 +14975,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15002,14 +15012,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 22750-2025</t>
+          <t>A 9481-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45789.61164351852</v>
+        <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15022,7 +15032,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15059,14 +15069,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 8953-2025</t>
+          <t>A 9483-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45713.46289351852</v>
+        <v>44977</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15079,7 +15089,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15116,14 +15126,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 14896-2025</t>
+          <t>A 40508-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45743.47895833333</v>
+        <v>45170.40796296296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15135,13 +15145,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15178,14 +15183,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 8954-2025</t>
+          <t>A 32548-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45713.46517361111</v>
+        <v>45513</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15198,7 +15203,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.1</v>
+        <v>10.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15235,14 +15240,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 10388-2025</t>
+          <t>A 35426-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45720.59267361111</v>
+        <v>45146.62553240741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15255,7 +15260,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15292,14 +15297,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 10389-2025</t>
+          <t>A 35433-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45720.59847222222</v>
+        <v>45146.62883101852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15312,7 +15317,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15349,14 +15354,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 11818-2025</t>
+          <t>A 27260-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45728.31863425926</v>
+        <v>45471</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15369,7 +15374,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15406,14 +15411,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 10638-2025</t>
+          <t>A 55145-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45721</v>
+        <v>45621</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15426,7 +15431,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>11.8</v>
+        <v>0.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15463,14 +15468,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 10393-2025</t>
+          <t>A 43097-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45720.60332175926</v>
+        <v>45567.54149305556</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15483,7 +15488,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15520,14 +15525,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 13719-2025</t>
+          <t>A 37197-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45737.36446759259</v>
+        <v>45155.66857638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15540,7 +15545,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15577,14 +15582,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 35888-2024</t>
+          <t>A 53360-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45533.36006944445</v>
+        <v>44879.38193287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15597,7 +15602,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15634,14 +15639,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 13346-2025</t>
+          <t>A 22925-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45735.6306712963</v>
+        <v>45448</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15654,7 +15659,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15691,14 +15696,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 59204-2022</t>
+          <t>A 35435-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44897</v>
+        <v>45146.63164351852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15711,7 +15716,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15748,14 +15753,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 40530-2024</t>
+          <t>A 14309-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45555.60775462963</v>
+        <v>45393.66581018519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15767,8 +15772,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15805,14 +15815,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 5951-2025</t>
+          <t>A 40505-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45695</v>
+        <v>45170.40601851852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15825,7 +15835,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15862,14 +15872,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 24274-2025</t>
+          <t>A 11827-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45797.44193287037</v>
+        <v>45728.33512731481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15882,7 +15892,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15919,14 +15929,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 43105-2024</t>
+          <t>A 45002-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45567</v>
+        <v>45575.48587962963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15939,7 +15949,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15976,14 +15986,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 25374-2025</t>
+          <t>A 28200-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45800.63570601852</v>
+        <v>44746</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15995,13 +16005,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16038,14 +16043,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 25601-2025</t>
+          <t>A 43564-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45803.54850694445</v>
+        <v>45569</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16057,13 +16062,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16100,14 +16100,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 27374-2025</t>
+          <t>A 22634-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45812</v>
+        <v>45447.67667824074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16157,14 +16157,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 27379-2025</t>
+          <t>A 20545-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45812</v>
+        <v>45436</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16214,14 +16214,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 28933-2025</t>
+          <t>A 10928-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45820.68407407407</v>
+        <v>45722.90581018518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16271,14 +16271,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 28934-2025</t>
+          <t>A 21159-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45820.68806712963</v>
+        <v>45779.3799074074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16328,14 +16328,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 28886-2025</t>
+          <t>A 22750-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45820.62944444444</v>
+        <v>45789.61164351852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16385,14 +16385,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 28932-2025</t>
+          <t>A 10388-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45820.68037037037</v>
+        <v>45720.59267361111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16442,14 +16442,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 29167-2025</t>
+          <t>A 10389-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45821</v>
+        <v>45720.59847222222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16499,14 +16499,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 29177-2025</t>
+          <t>A 10638-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45821</v>
+        <v>45721</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.5</v>
+        <v>11.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16556,14 +16556,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 29813-2025</t>
+          <t>A 10393-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45825.78273148148</v>
+        <v>45720.60332175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16613,14 +16613,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 30001-2025</t>
+          <t>A 14896-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45826.52243055555</v>
+        <v>45743.47895833333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16675,14 +16675,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 29815-2025</t>
+          <t>A 8953-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45825.81784722222</v>
+        <v>45713.46289351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16732,14 +16732,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 44643-2021</t>
+          <t>A 8954-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44437.70806712963</v>
+        <v>45713.46517361111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16789,14 +16789,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 45056-2021</t>
+          <t>A 11818-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44439.34355324074</v>
+        <v>45728.31863425926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16846,14 +16846,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 11820-2025</t>
+          <t>A 35888-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45728.32152777778</v>
+        <v>45533.36006944445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16903,14 +16903,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 11805-2025</t>
+          <t>A 13346-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45727.88486111111</v>
+        <v>45735.6306712963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16960,14 +16960,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 44644-2021</t>
+          <t>A 24274-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44437.71910879629</v>
+        <v>45797.44193287037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17014,17 +17014,17 @@
       </c>
       <c r="R281" s="2" t="inlineStr"/>
     </row>
-    <row r="282">
+    <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 45059-2021</t>
+          <t>A 13719-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44439.34944444444</v>
+        <v>45737.36446759259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17070,6 +17070,63 @@
         <v>0</v>
       </c>
       <c r="R282" s="2" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>A 40530-2024</t>
+        </is>
+      </c>
+      <c r="B283" s="1" t="n">
+        <v>45555.60775462963</v>
+      </c>
+      <c r="C283" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45159</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44342</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45733.47122685185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44341.61608796296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44341.62946759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44447.30079861111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44421</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44846</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44460</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44746.57121527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44883</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44439.35600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44746.47565972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>44243</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44454.59979166667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>44265</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>44382.57646990741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>45751.37185185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>45625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45625</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>44293</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>45335.55476851852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>44797</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>45002</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>45247</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>45097</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>44284</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>45538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>44580</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>45727.89780092592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>45636</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>45689</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>45629.58438657408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44746.47129629629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45695</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45567</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44897</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>45597.57326388889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45800.63570601852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45260</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>45258.44322916667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>44738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>45803.54850694445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>45273</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>45411</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>45891.41855324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>45812</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>45812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>45790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>45896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44398</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44832</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>45664.45827546297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>45597.57233796296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45821</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45820.62944444444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45821</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45820.68407407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45820.68806712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45820.68037037037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44953.60280092592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45253.74621527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45146.62659722222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45826.52243055555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45825.78273148148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45912.50739583333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45825.81784722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45915</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45917</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45924.58452546296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45272</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45257.74469907407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45281</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44864</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45930</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45930</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>45317.4846412037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>45930</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>45930</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>45931.26936342593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>45365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>45930</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>45933.62864583333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44965.62028935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>45707.52650462963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44819.64585648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45252.47113425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45943.3944675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45251</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45253</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>45299</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44439.34355324074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>45321</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>45947.56348379629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44437.70806712963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45947</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>45947.46234953704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45947</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45947.45203703704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>45946.36873842592</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>45727.88486111111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>45728.32152777778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44439.34944444444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44437.71910879629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45365</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>45035</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44977</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>45111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44999.64097222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>45869</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>45869</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>45393.57178240741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>44439.40950231482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>45624</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>45729.5352662037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44978.59072916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>45629.58579861111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>45744.45267361111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44778.30577546296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>45875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>45875</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>45881.57488425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>45679.71046296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>45881.57799768518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>45162</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>45639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>45754.47859953704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>45111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45825.75673611111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44614</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44978.59206018518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45573</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>45705.77997685185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>45337</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>45821</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>46037.36991898148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>46034</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45705.65067129629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>46034</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44334</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45398.18991898148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>46000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>46000</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>45369</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>46003.32189814815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>45741.36516203704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>46002</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>46002</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>46002</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45337</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45302</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45548.6153587963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>46013.61539351852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>46012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>46012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45559</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44893.84237268518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>46059.37376157408</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45625</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45679.71759259259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>45509.64240740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44400</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45751.50175925926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45763.61067129629</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45763.66126157407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45530.45280092592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45531</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45436</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45393.69880787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44438.36449074074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45763</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45237</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45082</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45754</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45714.56596064815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45001</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45594.66445601852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45281</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44861</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45625</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44977</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45170.40796296296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45513</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>45146.62553240741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45146.62883101852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45471</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45621</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45567.54149305556</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45155.66857638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44879.38193287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45448</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45146.63164351852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45393.66581018519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>45170.40601851852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>45728.33512731481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45575.48587962963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44746</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45569</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45447.67667824074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>45436</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45722.90581018518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45779.3799074074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45789.61164351852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45720.59267361111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45720.59847222222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45721</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45720.60332175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>45743.47895833333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45713.46289351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>45713.46517361111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>45728.31863425926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>45533.36006944445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>45735.6306712963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>45797.44193287037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>45737.36446759259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45555.60775462963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45159</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44342</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45733.47122685185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44341.61608796296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44341.62946759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44447.30079861111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44421</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44846</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44460</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44746.57121527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44883</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44439.35600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44746.47565972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>44243</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44454.59979166667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>44265</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>44382.57646990741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>45751.37185185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>45625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45625</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>44293</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>45335.55476851852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>44797</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>45002</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>45247</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>45097</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>44284</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>45538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>44580</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>45727.89780092592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>45636</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>45689</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>45629.58438657408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>44746.47129629629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45695</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45567</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44897</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>45597.57326388889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45800.63570601852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45260</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>45258.44322916667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>44738</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>45803.54850694445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>45273</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>45411</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>45891.41855324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>45812</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>45812</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>45790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>45896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44398</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44832</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>45664.45827546297</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>45597.57233796296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45821</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45820.62944444444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45821</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45820.68407407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45820.68806712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45820.68037037037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44953.60280092592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45253.74621527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45146.62659722222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45826.52243055555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45825.78273148148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45912.50739583333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45825.81784722222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45915</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45917</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45924.58452546296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45272</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45257.74469907407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45281</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44864</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45930</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45930</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>45317.4846412037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>45930</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>45930</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>45931.26936342593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>45365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>45930</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>45933.62864583333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44965</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44965.62028935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>45707.52650462963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44861</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44819.64585648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45252.47113425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45943.3944675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45251</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45253</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>45299</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44439.34355324074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>45321</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>45947.56348379629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44437.70806712963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45947</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>45947.46234953704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45947</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45947.45203703704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>45946.36873842592</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>45727.88486111111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>45728.32152777778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44439.34944444444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44437.71910879629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45365</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>45035</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>44977</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>45111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44999.64097222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>45869</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>45869</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>45393.57178240741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>44439.40950231482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>45624</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>45729.5352662037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44978.59072916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>45629.58579861111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>45744.45267361111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>44778.30577546296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>45875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>45875</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>45881.57488425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>45679.71046296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>45881.57799768518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>45162</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>45639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>45754.47859953704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>45111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45825.75673611111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44614</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44978.59206018518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45573</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>45705.77997685185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>45337</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>45821</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>46037.36991898148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>46034</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45705.65067129629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>46034</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44334</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>45398.18991898148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45636</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>46000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>46000</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>45369</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>46003.32189814815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>45741.36516203704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>46002</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>46002</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>46002</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45337</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45302</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45548.6153587963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>46013.61539351852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>46012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>46012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45559</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44893.84237268518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>46059.37376157408</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45625</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45679.71759259259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>45509.64240740741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44400</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45751.50175925926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45763.61067129629</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45763.66126157407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45530.45280092592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45531</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45436</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45393.69880787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44438.36449074074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45763</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45237</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45082</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45754</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45714.56596064815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45001</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45594.66445601852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45281</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44861</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45625</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>44977</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45170.40796296296</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45513</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>45146.62553240741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45146.62883101852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45471</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45621</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45567.54149305556</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45155.66857638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44879.38193287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45448</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45146.63164351852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45393.66581018519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>45170.40601851852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>45728.33512731481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45575.48587962963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44746</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45569</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>45447.67667824074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>45436</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45722.90581018518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>45779.3799074074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>45789.61164351852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45720.59267361111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45720.59847222222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45721</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45720.60332175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>45743.47895833333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16682,7 +16682,7 @@
         <v>45713.46289351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16739,7 +16739,7 @@
         <v>45713.46517361111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>45728.31863425926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>45533.36006944445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>45735.6306712963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>45797.44193287037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>45737.36446759259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>45555.60775462963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z283"/>
+  <dimension ref="A1:Z284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 8924-2022</t>
+          <t>A 39553-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44614</v>
+        <v>45551</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,13 +779,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -794,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -809,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -818,128 +813,133 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Ärtsångare
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 8924-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44614</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Åkergroda
 Vanlig groda
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39553-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Ärtsångare
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,14 +1115,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2637-2022</t>
+          <t>A 25432-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44580</v>
+        <v>44342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1162,300 +1162,300 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Åkerrödtoppa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 25432-2021</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Åkerrödtoppa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 2637-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 2637-2022 artfynd.xlsx", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 2637-2022 karta.png", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 2637-2022 karta knärot.png", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 2637-2022 FSC-klagomål.docx", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 2637-2022 FSC-klagomål mail.docx", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 2637-2022 tillsynsbegäran.docx", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 2637-2022 tillsynsbegäran mail.docx", "A 2637-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 37767-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>21.1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Sotlav</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 25432-2021</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Åkerrödtoppa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 25432-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Åkerrödtoppa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45733.47122685185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 25063-2021</t>
+          <t>A 40982-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44341.61608796296</v>
+        <v>44421</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2060,14 +2060,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 25066-2021</t>
+          <t>A 47181-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44341.62946759259</v>
+        <v>44447.30079861111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2117,14 +2117,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 47181-2021</t>
+          <t>A 25063-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44447.30079861111</v>
+        <v>44341.61608796296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2174,14 +2174,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 40982-2021</t>
+          <t>A 25066-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44421</v>
+        <v>44341.62946759259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,14 +2288,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 14274-2021</t>
+          <t>A 49026-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44278</v>
+        <v>44453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2345,14 +2345,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 49026-2021</t>
+          <t>A 14274-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44453</v>
+        <v>44278</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44846</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44460</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,14 +2630,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11719-2021</t>
+          <t>A 14250-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44265</v>
+        <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14250-2021</t>
+          <t>A 11719-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44278</v>
+        <v>44265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,14 +2915,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 28167-2022</t>
+          <t>A 33513-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44746.57121527778</v>
+        <v>44377</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 44072-2021</t>
+          <t>A 28167-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44434</v>
+        <v>44746.57121527778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33513-2021</t>
+          <t>A 44072-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44377</v>
+        <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,14 +3200,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 44055-2021</t>
+          <t>A 48636-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44434</v>
+        <v>44855</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 48636-2022</t>
+          <t>A 44055-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44855</v>
+        <v>44434</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,14 +4055,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55624-2022</t>
+          <t>A 45062-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44883</v>
+        <v>44439.35600694444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45062-2021</t>
+          <t>A 55624-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44439.35600694444</v>
+        <v>44883</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44746.47565972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>44243</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44454.59979166667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>44265</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4868,14 +4868,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34659-2021</t>
+          <t>A 16511-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44382.57646990741</v>
+        <v>44293</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4925,14 +4925,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16342-2025</t>
+          <t>A 50456-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45751.37185185185</v>
+        <v>44861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,13 +4944,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4987,14 +4982,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56517-2024</t>
+          <t>A 56711-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45625</v>
+        <v>44893.84237268518</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5007,7 +5002,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5044,14 +5039,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56531-2024</t>
+          <t>A 34659-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45625</v>
+        <v>44382.57646990741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5064,7 +5059,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5101,14 +5096,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16511-2021</t>
+          <t>A 14267-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44293</v>
+        <v>45393.57178240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,8 +5115,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5158,14 +5158,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5823-2024</t>
+          <t>A 14309-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45335.55476851852</v>
+        <v>45393.66581018519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,8 +5177,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5215,14 +5220,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 35149-2022</t>
+          <t>A 3313-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44797</v>
+        <v>45317.4846412037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5240,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5272,14 +5277,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64350-2023</t>
+          <t>A 35149-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45280</v>
+        <v>44797</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5297,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5329,14 +5334,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13049-2023</t>
+          <t>A 53823-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45002</v>
+        <v>44880</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5354,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5386,14 +5391,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58832-2023</t>
+          <t>A 49922-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45247</v>
+        <v>45597.57326388889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5411,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5443,14 +5448,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29203-2023</t>
+          <t>A 59373-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45097</v>
+        <v>45253.74621527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5468,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5500,14 +5505,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15335-2021</t>
+          <t>A 39887-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44284</v>
+        <v>44819.64585648148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5525,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5557,14 +5562,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 36894-2024</t>
+          <t>A 53360-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45538</v>
+        <v>44879.38193287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5582,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5614,14 +5619,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2633-2022</t>
+          <t>A 36894-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44580</v>
+        <v>45538</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5639,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5671,14 +5676,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 11809-2025</t>
+          <t>A 64350-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45727.89780092592</v>
+        <v>45280</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5696,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5728,14 +5733,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 59193-2024</t>
+          <t>A 63039-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45636</v>
+        <v>45272</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5748,7 +5753,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5785,14 +5790,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4982-2025</t>
+          <t>A 488-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45689</v>
+        <v>45664.45827546297</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5805,7 +5810,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5842,14 +5847,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57287-2024</t>
+          <t>A 28933-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45629.58438657408</v>
+        <v>45820.68407407407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5862,7 +5867,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5899,14 +5904,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28097-2022</t>
+          <t>A 28934-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44746.47129629629</v>
+        <v>45820.68806712963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5919,7 +5924,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5956,14 +5961,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5951-2025</t>
+          <t>A 28886-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45695</v>
+        <v>45820.62944444444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5976,7 +5981,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6013,14 +6018,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43105-2024</t>
+          <t>A 28932-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45567</v>
+        <v>45820.68037037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6033,7 +6038,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6070,14 +6075,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 59204-2022</t>
+          <t>A 29167-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44897</v>
+        <v>45821</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6090,7 +6095,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6127,14 +6132,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 49922-2024</t>
+          <t>A 29177-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45597.57326388889</v>
+        <v>45821</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6147,7 +6152,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6184,14 +6189,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25374-2025</t>
+          <t>A 8926-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45800.63570601852</v>
+        <v>44614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6209,7 +6214,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6246,14 +6251,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61289-2023</t>
+          <t>A 16710-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45260</v>
+        <v>45754</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6266,7 +6271,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6303,14 +6308,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60091-2023</t>
+          <t>A 29813-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45258.44322916667</v>
+        <v>45825.78273148148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6323,7 +6328,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6360,14 +6365,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 26441-2022</t>
+          <t>A 30001-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44738</v>
+        <v>45826.52243055555</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,8 +6384,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6417,14 +6427,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25601-2025</t>
+          <t>A 58832-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45803.54850694445</v>
+        <v>45247</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,13 +6446,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>8.1</v>
+        <v>5.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6479,14 +6484,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 63206-2023</t>
+          <t>A 29815-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45273</v>
+        <v>45825.81784722222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6504,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6536,14 +6541,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 16910-2024</t>
+          <t>A 49118-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45411</v>
+        <v>45594.66445601852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6556,7 +6561,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6593,14 +6598,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39753-2025</t>
+          <t>A 20545-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45891.41855324074</v>
+        <v>45436</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6613,7 +6618,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6650,14 +6655,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 27374-2025</t>
+          <t>A 49920-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45812</v>
+        <v>45597.57233796296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6670,7 +6675,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6707,14 +6712,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 27379-2025</t>
+          <t>A 41256-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45812</v>
+        <v>45559</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6764,14 +6769,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 23019-2025</t>
+          <t>A 43564-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45790</v>
+        <v>45569</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6821,14 +6826,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40535-2025</t>
+          <t>A 39753-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45896</v>
+        <v>45891.41855324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6841,7 +6846,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6878,14 +6883,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37492-2021</t>
+          <t>A 23019-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44398</v>
+        <v>45790</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6898,7 +6903,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6935,14 +6940,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 42769-2022</t>
+          <t>A 40535-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44832</v>
+        <v>45896</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6955,7 +6960,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6992,14 +6997,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40648-2025</t>
+          <t>A 16910-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45896</v>
+        <v>45411</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7012,7 +7017,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7049,14 +7054,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 488-2025</t>
+          <t>A 40648-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45664.45827546297</v>
+        <v>45896</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7069,7 +7074,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>9.699999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7106,14 +7111,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 49920-2024</t>
+          <t>A 63206-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45597.57233796296</v>
+        <v>45273</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7126,7 +7131,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7163,14 +7168,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29167-2025</t>
+          <t>A 9486-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45821</v>
+        <v>44977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7183,7 +7188,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7220,14 +7225,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28886-2025</t>
+          <t>A 44643-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45820.62944444444</v>
+        <v>44437.70806712963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7240,7 +7245,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7277,14 +7282,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 29177-2025</t>
+          <t>A 45056-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45821</v>
+        <v>44439.34355324074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7334,14 +7339,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28933-2025</t>
+          <t>A 11820-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45820.68407407407</v>
+        <v>45728.32152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7354,7 +7359,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7391,14 +7396,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28934-2025</t>
+          <t>A 11805-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45820.68806712963</v>
+        <v>45727.88486111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7416,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7448,14 +7453,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 28932-2025</t>
+          <t>A 44644-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45820.68037037037</v>
+        <v>44437.71910879629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7473,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7505,14 +7510,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 4290-2023</t>
+          <t>A 43097-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44953.60280092592</v>
+        <v>45567.54149305556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7530,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7562,14 +7567,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 59373-2023</t>
+          <t>A 45059-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45253.74621527778</v>
+        <v>44439.34944444444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7582,7 +7587,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7619,14 +7624,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35429-2023</t>
+          <t>A 35435-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45146.62659722222</v>
+        <v>45146.63164351852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7639,7 +7644,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7676,14 +7681,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 30001-2025</t>
+          <t>A 57289-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45826.52243055555</v>
+        <v>45629.58579861111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7695,13 +7700,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7738,14 +7738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 29813-2025</t>
+          <t>A 39311-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45825.78273148148</v>
+        <v>45162</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7795,14 +7795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 20662-2025</t>
+          <t>A 36573-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45776</v>
+        <v>45869</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>10.3</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7852,14 +7852,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 43775-2025</t>
+          <t>A 15147-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45912.50739583333</v>
+        <v>45744.45267361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>9.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7909,14 +7909,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29815-2025</t>
+          <t>A 36581-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45825.81784722222</v>
+        <v>45869</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7966,14 +7966,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44363-2025</t>
+          <t>A 59193-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45915</v>
+        <v>45636</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8023,14 +8023,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44718-2025</t>
+          <t>A 56526-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45917</v>
+        <v>45625</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8080,14 +8080,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44720-2025</t>
+          <t>A 20662-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45917</v>
+        <v>45776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.3</v>
+        <v>10.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8137,14 +8137,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 46122-2025</t>
+          <t>A 12215-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45924.58452546296</v>
+        <v>45729.5352662037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8194,14 +8194,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 63039-2023</t>
+          <t>A 3336-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45272</v>
+        <v>45679.71759259259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8251,14 +8251,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 59965-2023</t>
+          <t>A 43775-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45257.74469907407</v>
+        <v>45912.50739583333</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8308,14 +8308,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 64722-2023</t>
+          <t>A 17388-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45281</v>
+        <v>45035</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8365,14 +8365,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 46480-2022</t>
+          <t>A 11809-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44847</v>
+        <v>45727.89780092592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8422,14 +8422,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49893-2022</t>
+          <t>A 45101-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44864</v>
+        <v>44439.40950231482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8479,14 +8479,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 47365-2025</t>
+          <t>A 56479-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45930</v>
+        <v>45624</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8536,14 +8536,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47189-2025</t>
+          <t>A 44363-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45930</v>
+        <v>45915</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8593,14 +8593,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3313-2024</t>
+          <t>A 37219-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45317.4846412037</v>
+        <v>45875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.3</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8650,14 +8650,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47358-2025</t>
+          <t>A 37218-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45930</v>
+        <v>45875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8707,14 +8707,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 47451-2025</t>
+          <t>A 57287-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45930</v>
+        <v>45629.58438657408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8764,14 +8764,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47516-2025</t>
+          <t>A 44718-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45931.26936342593</v>
+        <v>45917</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8783,13 +8783,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8826,14 +8821,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 10416-2024</t>
+          <t>A 44720-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45365</v>
+        <v>45917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8846,7 +8841,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8883,14 +8878,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47360-2025</t>
+          <t>A 37920-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45930</v>
+        <v>45881.57488425926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8903,7 +8898,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8940,14 +8935,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48324-2025</t>
+          <t>A 29809-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45933.62864583333</v>
+        <v>45825.75673611111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8955,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8997,14 +8992,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 6360-2023</t>
+          <t>A 59864-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44965</v>
+        <v>45639</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9012,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9054,14 +9049,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6374-2023</t>
+          <t>A 37925-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44965.62028935185</v>
+        <v>45881.57799768518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9069,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9111,14 +9106,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8001-2025</t>
+          <t>A 46122-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45707.52650462963</v>
+        <v>45924.58452546296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,13 +9125,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9173,14 +9163,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 50587-2022</t>
+          <t>A 44707-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44861</v>
+        <v>44438.36449074074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9183,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9230,14 +9220,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 39887-2022</t>
+          <t>A 56512-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44819.64585648148</v>
+        <v>45625</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9240,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9287,14 +9277,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58878-2023</t>
+          <t>A 37492-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45252.47113425926</v>
+        <v>44398</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9297,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9344,14 +9334,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 50035-2025</t>
+          <t>A 47189-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45943.3944675926</v>
+        <v>45930</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9364,7 +9354,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9401,14 +9391,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 59191-2023</t>
+          <t>A 6232-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45251</v>
+        <v>45337</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9421,7 +9411,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9458,14 +9448,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 59231-2023</t>
+          <t>A 37700-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45253</v>
+        <v>44400</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9478,7 +9468,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9515,14 +9505,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 650-2024</t>
+          <t>A 47451-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45299</v>
+        <v>45930</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9535,7 +9525,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9572,14 +9562,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 45056-2021</t>
+          <t>A 47365-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44439.34355324074</v>
+        <v>45930</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9592,7 +9582,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9629,14 +9619,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 3645-2024</t>
+          <t>A 47358-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45321</v>
+        <v>45930</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9649,7 +9639,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9686,14 +9676,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 51141-2025</t>
+          <t>A 47516-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45947.56348379629</v>
+        <v>45931.26936342593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9705,8 +9695,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9743,14 +9738,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 44643-2021</t>
+          <t>A 48324-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44437.70806712963</v>
+        <v>45933.62864583333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9763,7 +9758,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9800,14 +9795,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 51179-2025</t>
+          <t>A 31833-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45947</v>
+        <v>45509.64240740741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9820,7 +9815,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9857,14 +9852,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 51076-2025</t>
+          <t>A 47360-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45947.46234953704</v>
+        <v>45930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9914,14 +9909,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 51176-2025</t>
+          <t>A 20542-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45947</v>
+        <v>45436</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9934,7 +9929,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9971,14 +9966,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 51065-2025</t>
+          <t>A 50035-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45947.45203703704</v>
+        <v>45943.3944675926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9991,7 +9986,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10035,7 +10030,7 @@
         <v>45946.36873842592</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10085,14 +10080,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 11805-2025</t>
+          <t>A 16342-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45727.88486111111</v>
+        <v>45751.37185185185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10104,8 +10099,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10142,14 +10142,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 11820-2025</t>
+          <t>A 51076-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45728.32152777778</v>
+        <v>45947.46234953704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10199,14 +10199,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 45059-2021</t>
+          <t>A 51176-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44439.34944444444</v>
+        <v>45947</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10256,14 +10256,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 44644-2021</t>
+          <t>A 51179-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44437.71910879629</v>
+        <v>45947</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10313,14 +10313,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 10419-2024</t>
+          <t>A 23665-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45365</v>
+        <v>44334</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>7.7</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10370,14 +10370,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 17388-2023</t>
+          <t>A 51141-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45035</v>
+        <v>45947.56348379629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10427,14 +10427,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 9486-2023</t>
+          <t>A 51065-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44977</v>
+        <v>45947.45203703704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10484,14 +10484,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 32564-2023</t>
+          <t>A 39144-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45111</v>
+        <v>45548.6153587963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10541,14 +10541,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 12476-2023</t>
+          <t>A 3334-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44999.64097222222</v>
+        <v>45679.71046296296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10598,14 +10598,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 36581-2025</t>
+          <t>A 6374-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45869</v>
+        <v>44965.62028935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10655,14 +10655,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 36573-2025</t>
+          <t>A 5823-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45869</v>
+        <v>45335.55476851852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10712,14 +10712,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 14267-2024</t>
+          <t>A 22634-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45393.57178240741</v>
+        <v>45447.67667824074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10731,13 +10731,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10774,14 +10769,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45101-2021</t>
+          <t>A 40505-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44439.40950231482</v>
+        <v>45170.40601851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10794,7 +10789,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10831,14 +10826,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56479-2024</t>
+          <t>A 64725-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45624</v>
+        <v>45281</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10851,7 +10846,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10888,14 +10883,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 12215-2025</t>
+          <t>A 32564-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45729.5352662037</v>
+        <v>45111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10908,7 +10903,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10945,14 +10940,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 8792-2023</t>
+          <t>A 31989-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44978.59072916667</v>
+        <v>44778.30577546296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10965,7 +10960,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11002,14 +10997,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 57289-2024</t>
+          <t>A 35429-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45629.58579861111</v>
+        <v>45146.62659722222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11022,7 +11017,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11059,14 +11054,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 15147-2025</t>
+          <t>A 35186-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45744.45267361111</v>
+        <v>45530.45280092592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11079,7 +11074,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>9.4</v>
+        <v>1.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11116,14 +11111,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 31989-2022</t>
+          <t>A 35433-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44778.30577546296</v>
+        <v>45146.62883101852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11136,7 +11131,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11173,14 +11168,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 37219-2025</t>
+          <t>A 23166-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45875</v>
+        <v>45075</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11193,7 +11188,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11230,14 +11225,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 37218-2025</t>
+          <t>A 14821-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45875</v>
+        <v>45398.18991898148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11250,7 +11245,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11287,14 +11282,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 37920-2025</t>
+          <t>A 56517-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45881.57488425926</v>
+        <v>45625</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11307,7 +11302,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11344,14 +11339,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 3334-2025</t>
+          <t>A 56531-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45679.71046296296</v>
+        <v>45625</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11364,7 +11359,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11401,14 +11396,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 37925-2025</t>
+          <t>A 6233-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45881.57799768518</v>
+        <v>45337</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11421,7 +11416,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11458,14 +11453,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 39311-2023</t>
+          <t>A 2633-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45162</v>
+        <v>44580</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11478,7 +11473,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11515,14 +11510,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59864-2024</t>
+          <t>A 29176-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45639</v>
+        <v>45821</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11535,7 +11530,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11572,14 +11567,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 16709-2025</t>
+          <t>A 1196-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45754.47859953704</v>
+        <v>45666</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11592,7 +11587,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.4</v>
+        <v>9.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11629,14 +11624,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 32624-2023</t>
+          <t>A 40508-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45111</v>
+        <v>45170.40796296296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11649,7 +11644,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11686,14 +11681,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 29809-2025</t>
+          <t>A 2314-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45825.75673611111</v>
+        <v>46034</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11706,7 +11701,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11743,14 +11738,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 8926-2022</t>
+          <t>A 2315-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44614</v>
+        <v>46034</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11762,13 +11757,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11805,14 +11795,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 7323-2025</t>
+          <t>A 2470-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45702</v>
+        <v>46037.36991898148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11825,7 +11815,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11862,14 +11852,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 8794-2023</t>
+          <t>A 61356-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44978.59206018518</v>
+        <v>46000</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11882,7 +11872,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11919,14 +11909,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 44396-2024</t>
+          <t>A 61358-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45573</v>
+        <v>46000</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11939,7 +11929,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11976,14 +11966,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 7640-2025</t>
+          <t>A 8001-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45705.77997685185</v>
+        <v>45707.52650462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11995,8 +11985,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12033,14 +12028,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 6232-2024</t>
+          <t>A 7323-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45337</v>
+        <v>45702</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12053,7 +12048,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12090,14 +12085,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 29176-2025</t>
+          <t>A 61803-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45821</v>
+        <v>46002</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12110,7 +12105,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12147,14 +12142,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 2470-2026</t>
+          <t>A 61802-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46037.36991898148</v>
+        <v>46002</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12167,7 +12162,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12204,14 +12199,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 2314-2026</t>
+          <t>A 61807-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46034</v>
+        <v>46002</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12224,7 +12219,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12261,14 +12256,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 1196-2025</t>
+          <t>A 18685-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45666</v>
+        <v>45763.61067129629</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12281,7 +12276,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>9.1</v>
+        <v>3.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12318,14 +12313,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 7596-2025</t>
+          <t>A 18722-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45705.65067129629</v>
+        <v>45763.66126157407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12338,7 +12333,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12375,14 +12370,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 2315-2026</t>
+          <t>A 59231-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46034</v>
+        <v>45253</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12395,7 +12390,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12432,14 +12427,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23665-2021</t>
+          <t>A 61818-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44334</v>
+        <v>46003.32189814815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12452,7 +12447,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12489,14 +12484,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 14821-2024</t>
+          <t>A 16709-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45398.18991898148</v>
+        <v>45754.47859953704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12509,7 +12504,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12546,14 +12541,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 59200-2024</t>
+          <t>A 59191-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45636</v>
+        <v>45251</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12603,14 +12598,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 61356-2025</t>
+          <t>A 28097-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46000</v>
+        <v>44746.47129629629</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12623,7 +12618,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12660,14 +12655,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61358-2025</t>
+          <t>A 9243-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46000</v>
+        <v>45714.56596064815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12680,7 +12675,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12717,14 +12712,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 10732-2024</t>
+          <t>A 49893-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45369</v>
+        <v>44864</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12737,7 +12732,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12774,14 +12769,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61818-2025</t>
+          <t>A 1218-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46003.32189814815</v>
+        <v>45302</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12794,7 +12789,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12831,14 +12826,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 14354-2025</t>
+          <t>A 26441-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45741.36516203704</v>
+        <v>44738</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12850,13 +12845,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12893,14 +12883,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 61802-2025</t>
+          <t>A 11827-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46002</v>
+        <v>45728.33512731481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12913,7 +12903,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12950,14 +12940,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 61807-2025</t>
+          <t>A 650-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46002</v>
+        <v>45299</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12970,7 +12960,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13007,14 +12997,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61803-2025</t>
+          <t>A 63556-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46002</v>
+        <v>46013.61539351852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13027,7 +13017,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13064,14 +13054,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 6233-2024</t>
+          <t>A 50587-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45337</v>
+        <v>44861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13084,7 +13074,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13121,14 +13111,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1218-2024</t>
+          <t>A 63406-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45302</v>
+        <v>46012</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13141,7 +13131,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>7.2</v>
+        <v>2.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13178,14 +13168,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 23166-2023</t>
+          <t>A 63407-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45075</v>
+        <v>46012</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13198,7 +13188,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>8.800000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13235,14 +13225,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 39144-2024</t>
+          <t>A 16444-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45548.6153587963</v>
+        <v>45751.50175925926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13254,8 +13244,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13292,14 +13287,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 63556-2025</t>
+          <t>A 35366-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46013.61539351852</v>
+        <v>45531</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13312,7 +13307,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13349,14 +13344,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 63406-2025</t>
+          <t>A 455-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46012</v>
+        <v>45296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13369,7 +13364,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13406,14 +13401,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 63407-2025</t>
+          <t>A 46480-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46012</v>
+        <v>44847</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13426,7 +13421,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13463,14 +13458,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 41256-2024</t>
+          <t>A 7396-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45559</v>
+        <v>46059.37376157408</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13483,7 +13478,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13520,14 +13515,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 56711-2022</t>
+          <t>A 22925-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44893.84237268518</v>
+        <v>45448</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13540,7 +13535,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13577,14 +13572,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 7396-2026</t>
+          <t>A 7818-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46059.37376157408</v>
+        <v>46062.62846064815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13597,7 +13592,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13634,14 +13629,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 56526-2024</t>
+          <t>A 4290-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45625</v>
+        <v>44953.60280092592</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13654,7 +13649,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13691,14 +13686,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 3336-2025</t>
+          <t>A 8792-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45679.71759259259</v>
+        <v>44978.59072916667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13711,7 +13706,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13748,14 +13743,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 31833-2024</t>
+          <t>A 37197-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45509.64240740741</v>
+        <v>45155.66857638889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13768,7 +13763,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13805,14 +13800,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 37700-2021</t>
+          <t>A 7640-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44400</v>
+        <v>45705.77997685185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13825,7 +13820,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13862,14 +13857,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 16444-2025</t>
+          <t>A 9481-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45751.50175925926</v>
+        <v>44977</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13881,13 +13876,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13924,14 +13914,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 18685-2025</t>
+          <t>A 9483-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45763.61067129629</v>
+        <v>44977</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13944,7 +13934,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13981,14 +13971,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 18722-2025</t>
+          <t>A 28200-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45763.66126157407</v>
+        <v>44746</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14001,7 +13991,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14028,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 53823-2022</t>
+          <t>A 32548-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44880</v>
+        <v>45513</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14048,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14085,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 455-2024</t>
+          <t>A 55163-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45296</v>
+        <v>45237</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14115,7 +14105,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14142,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 35186-2024</t>
+          <t>A 4982-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45530.45280092592</v>
+        <v>45689</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14162,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14199,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 35366-2024</t>
+          <t>A 8794-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45531</v>
+        <v>44978.59206018518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14219,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>14</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14256,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 20542-2024</t>
+          <t>A 18772-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45436</v>
+        <v>45763</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14276,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14313,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 14325-2024</t>
+          <t>A 12476-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45393.69880787037</v>
+        <v>44999.64097222222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14342,13 +14332,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>7.1</v>
+        <v>3.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14385,14 +14370,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 44707-2021</t>
+          <t>A 44396-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44438.36449074074</v>
+        <v>45573</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14405,7 +14390,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14442,14 +14427,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 18772-2025</t>
+          <t>A 64722-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45763</v>
+        <v>45281</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14462,7 +14447,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14499,14 +14484,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 55163-2023</t>
+          <t>A 12889-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45237</v>
+        <v>45001</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14519,7 +14504,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14556,14 +14541,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 25554-2023</t>
+          <t>A 32624-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45082</v>
+        <v>45111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14576,7 +14561,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14613,14 +14598,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 16710-2025</t>
+          <t>A 10416-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45754</v>
+        <v>45365</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14633,7 +14618,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14670,14 +14655,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 9243-2025</t>
+          <t>A 10419-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45714.56596064815</v>
+        <v>45365</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14690,7 +14675,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14727,14 +14712,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 12889-2023</t>
+          <t>A 35426-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45001</v>
+        <v>45146.62553240741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14747,7 +14732,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>8.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14784,14 +14769,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 49118-2024</t>
+          <t>A 25554-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45594.66445601852</v>
+        <v>45082</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14804,7 +14789,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14841,14 +14826,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 64725-2023</t>
+          <t>A 59965-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45281</v>
+        <v>45257.74469907407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14861,7 +14846,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14898,14 +14883,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 50456-2022</t>
+          <t>A 15335-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44861</v>
+        <v>44284</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14955,14 +14940,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 56512-2024</t>
+          <t>A 58878-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45625</v>
+        <v>45252.47113425926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14960,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15012,14 +14997,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 9481-2023</t>
+          <t>A 10732-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44977</v>
+        <v>45369</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15017,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15069,14 +15054,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 9483-2023</t>
+          <t>A 27260-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44977</v>
+        <v>45471</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15074,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15126,14 +15111,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 40508-2023</t>
+          <t>A 42769-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45170.40796296296</v>
+        <v>44832</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15131,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15183,14 +15168,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 32548-2024</t>
+          <t>A 6360-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45513</v>
+        <v>44965</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15203,7 +15188,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>10.2</v>
+        <v>0.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15240,14 +15225,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 35426-2023</t>
+          <t>A 60091-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45146.62553240741</v>
+        <v>45258.44322916667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15260,7 +15245,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15297,14 +15282,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 35433-2023</t>
+          <t>A 61289-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45146.62883101852</v>
+        <v>45260</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15317,7 +15302,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15354,14 +15339,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 27260-2024</t>
+          <t>A 3645-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45471</v>
+        <v>45321</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15374,7 +15359,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15411,14 +15396,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 55145-2024</t>
+          <t>A 29203-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45621</v>
+        <v>45097</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15431,7 +15416,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15468,14 +15453,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 43097-2024</t>
+          <t>A 59200-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45567.54149305556</v>
+        <v>45636</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15488,7 +15473,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15525,14 +15510,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 37197-2023</t>
+          <t>A 55145-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45155.66857638889</v>
+        <v>45621</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15545,7 +15530,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15582,14 +15567,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 53360-2022</t>
+          <t>A 45002-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44879.38193287037</v>
+        <v>45575.48587962963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15602,7 +15587,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15639,14 +15624,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 22925-2024</t>
+          <t>A 7596-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45448</v>
+        <v>45705.65067129629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15659,7 +15644,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15696,14 +15681,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 35435-2023</t>
+          <t>A 13049-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45146.63164351852</v>
+        <v>45002</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15716,7 +15701,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15753,14 +15738,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 14309-2024</t>
+          <t>A 14354-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45393.66581018519</v>
+        <v>45741.36516203704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15774,11 +15759,11 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15815,14 +15800,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 40505-2023</t>
+          <t>A 14325-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45170.40601851852</v>
+        <v>45393.69880787037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15834,8 +15819,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>0.8</v>
+        <v>7.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15872,14 +15862,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 11827-2025</t>
+          <t>A 10928-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45728.33512731481</v>
+        <v>45722.90581018518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15892,7 +15882,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15929,14 +15919,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 45002-2024</t>
+          <t>A 21159-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45575.48587962963</v>
+        <v>45779.3799074074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15949,7 +15939,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15986,14 +15976,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 28200-2022</t>
+          <t>A 22750-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44746</v>
+        <v>45789.61164351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16006,7 +15996,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16043,14 +16033,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 43564-2024</t>
+          <t>A 8953-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45569</v>
+        <v>45713.46289351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16063,7 +16053,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16100,14 +16090,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 22634-2024</t>
+          <t>A 14896-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45447.67667824074</v>
+        <v>45743.47895833333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16119,8 +16109,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16157,14 +16152,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 20545-2024</t>
+          <t>A 8954-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45436</v>
+        <v>45713.46517361111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16214,14 +16209,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 10928-2025</t>
+          <t>A 10388-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45722.90581018518</v>
+        <v>45720.59267361111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16234,7 +16229,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>9.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16271,14 +16266,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 21159-2025</t>
+          <t>A 10389-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45779.3799074074</v>
+        <v>45720.59847222222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16291,7 +16286,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16328,14 +16323,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 22750-2025</t>
+          <t>A 11818-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45789.61164351852</v>
+        <v>45728.31863425926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16348,7 +16343,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16385,14 +16380,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 10388-2025</t>
+          <t>A 10638-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45720.59267361111</v>
+        <v>45721</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16405,7 +16400,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.8</v>
+        <v>11.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16442,14 +16437,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 10389-2025</t>
+          <t>A 10393-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45720.59847222222</v>
+        <v>45720.60332175926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16462,7 +16457,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16499,14 +16494,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 10638-2025</t>
+          <t>A 13719-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45721</v>
+        <v>45737.36446759259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16519,7 +16514,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>11.8</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16556,14 +16551,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 10393-2025</t>
+          <t>A 35888-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45720.60332175926</v>
+        <v>45533.36006944445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16576,7 +16571,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16613,14 +16608,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 14896-2025</t>
+          <t>A 13346-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45743.47895833333</v>
+        <v>45735.6306712963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16632,13 +16627,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16675,14 +16665,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 8953-2025</t>
+          <t>A 59204-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45713.46289351852</v>
+        <v>44897</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16695,7 +16685,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16732,14 +16722,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 8954-2025</t>
+          <t>A 40530-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45713.46517361111</v>
+        <v>45555.60775462963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16752,7 +16742,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16789,14 +16779,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 11818-2025</t>
+          <t>A 5951-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45728.31863425926</v>
+        <v>45695</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16809,7 +16799,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16846,14 +16836,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 35888-2024</t>
+          <t>A 24274-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45533.36006944445</v>
+        <v>45797.44193287037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16866,7 +16856,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16903,14 +16893,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 13346-2025</t>
+          <t>A 43105-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45735.6306712963</v>
+        <v>45567</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16923,7 +16913,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16960,14 +16950,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 24274-2025</t>
+          <t>A 25374-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45797.44193287037</v>
+        <v>45800.63570601852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16979,8 +16969,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17017,14 +17012,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 13719-2025</t>
+          <t>A 25601-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45737.36446759259</v>
+        <v>45803.54850694445</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17036,8 +17031,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17071,17 +17071,17 @@
       </c>
       <c r="R282" s="2" t="inlineStr"/>
     </row>
-    <row r="283">
+    <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 40530-2024</t>
+          <t>A 27374-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45555.60775462963</v>
+        <v>45812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17127,6 +17127,63 @@
         <v>0</v>
       </c>
       <c r="R283" s="2" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>A 27379-2025</t>
+        </is>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="C284" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39553-2024</t>
+          <t>A 8924-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45551</v>
+        <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,8 +779,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>11.5</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -789,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -804,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -813,133 +818,128 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Åkergroda
+Vanlig groda
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39553-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45551</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Ärtsångare
 Grönsiska</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 8924-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44614</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Vanlig groda
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,14 +1115,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25432-2021</t>
+          <t>A 2637-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44342</v>
+        <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1162,559 +1162,559 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 2637-2022 artfynd.xlsx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 2637-2022 karta.png", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 2637-2022 karta knärot.png", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 2637-2022 FSC-klagomål.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 2637-2022 FSC-klagomål mail.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 2637-2022 tillsynsbegäran.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 2637-2022 tillsynsbegäran mail.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 12709-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45733.47122685185</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 37767-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Sotlav</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 25432-2021</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Åkerrödtoppa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 25432-2021</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44342</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>7.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Åkerrödtoppa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 2637-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44580</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 63405-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>46012</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 2637-2022 artfynd.xlsx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 2637-2022 karta.png", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 2637-2022 karta knärot.png", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 2637-2022 FSC-klagomål.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 2637-2022 FSC-klagomål mail.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 2637-2022 tillsynsbegäran.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 2637-2022 tillsynsbegäran mail.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 37767-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45159</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Sotlav</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 63405-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>46012</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Gropticka</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 56535-2024</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45625</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>2.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Koppartaggsvamp</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 56535-2024 artfynd.xlsx", "A 56535-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 56535-2024 karta.png", "A 56535-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 56535-2024 FSC-klagomål.docx", "A 56535-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 56535-2024 FSC-klagomål mail.docx", "A 56535-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 56535-2024 tillsynsbegäran.docx", "A 56535-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 56535-2024 tillsynsbegäran mail.docx", "A 56535-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 12709-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45733.47122685185</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44421</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2060,14 +2060,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 47181-2021</t>
+          <t>A 25063-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44447.30079861111</v>
+        <v>44341.61608796296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2117,14 +2117,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 25063-2021</t>
+          <t>A 25066-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44341.61608796296</v>
+        <v>44341.62946759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2174,14 +2174,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25066-2021</t>
+          <t>A 47181-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44341.62946759259</v>
+        <v>44447.30079861111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,14 +2288,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 49026-2021</t>
+          <t>A 14274-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44453</v>
+        <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2345,14 +2345,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 14274-2021</t>
+          <t>A 49026-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44278</v>
+        <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,14 +2459,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 46431-2022</t>
+          <t>A 51196-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44846</v>
+        <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2516,14 +2516,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 51196-2021</t>
+          <t>A 46431-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44460</v>
+        <v>44846</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,14 +2630,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14250-2021</t>
+          <t>A 11719-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44278</v>
+        <v>44265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11719-2021</t>
+          <t>A 14250-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44265</v>
+        <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,14 +2915,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33513-2021</t>
+          <t>A 28167-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44377</v>
+        <v>44746.57121527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28167-2022</t>
+          <t>A 44072-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44746.57121527778</v>
+        <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44072-2021</t>
+          <t>A 33513-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44434</v>
+        <v>44377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,14 +3200,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 48636-2022</t>
+          <t>A 44055-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44855</v>
+        <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 44055-2021</t>
+          <t>A 48636-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44434</v>
+        <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44439.35600694444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44883</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44746.47565972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>44243</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44454.59979166667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>44265</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4868,14 +4868,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16511-2021</t>
+          <t>A 16342-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44293</v>
+        <v>45751.37185185185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,8 +4887,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4925,14 +4930,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50456-2022</t>
+          <t>A 23019-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44861</v>
+        <v>45790</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4945,7 +4950,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4982,14 +4987,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56711-2022</t>
+          <t>A 16511-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44893.84237268518</v>
+        <v>44293</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5002,7 +5007,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5046,7 +5051,7 @@
         <v>44382.57646990741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5096,14 +5101,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14267-2024</t>
+          <t>A 53360-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45393.57178240741</v>
+        <v>44879.38193287037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,13 +5120,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5158,14 +5158,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14309-2024</t>
+          <t>A 40535-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45393.66581018519</v>
+        <v>45896</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,13 +5177,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5220,14 +5215,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3313-2024</t>
+          <t>A 56517-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45317.4846412037</v>
+        <v>45625</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5240,7 +5235,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5277,14 +5272,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35149-2022</t>
+          <t>A 56531-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44797</v>
+        <v>45625</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5297,7 +5292,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5334,14 +5329,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53823-2022</t>
+          <t>A 5823-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44880</v>
+        <v>45335.55476851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5354,7 +5349,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5391,14 +5386,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 49922-2024</t>
+          <t>A 22925-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45597.57326388889</v>
+        <v>45448</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5411,7 +5406,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5448,14 +5443,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59373-2023</t>
+          <t>A 35435-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45253.74621527778</v>
+        <v>45146.63164351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5468,7 +5463,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5505,14 +5500,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39887-2022</t>
+          <t>A 35149-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44819.64585648148</v>
+        <v>44797</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5525,7 +5520,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5562,14 +5557,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53360-2022</t>
+          <t>A 64350-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44879.38193287037</v>
+        <v>45280</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5582,7 +5577,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5619,14 +5614,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 36894-2024</t>
+          <t>A 58832-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45538</v>
+        <v>45247</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5639,7 +5634,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5676,14 +5671,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 64350-2023</t>
+          <t>A 14309-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45280</v>
+        <v>45393.66581018519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5695,8 +5690,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5733,14 +5733,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 63039-2023</t>
+          <t>A 40505-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45272</v>
+        <v>45170.40601851852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5790,14 +5790,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 488-2025</t>
+          <t>A 40648-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45664.45827546297</v>
+        <v>45896</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>9.699999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5847,14 +5847,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 28933-2025</t>
+          <t>A 13049-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45820.68407407407</v>
+        <v>45002</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5904,14 +5904,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28934-2025</t>
+          <t>A 11827-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45820.68806712963</v>
+        <v>45728.33512731481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5961,14 +5961,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28886-2025</t>
+          <t>A 45002-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45820.62944444444</v>
+        <v>45575.48587962963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6018,14 +6018,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28932-2025</t>
+          <t>A 29203-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45820.68037037037</v>
+        <v>45097</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6075,14 +6075,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29167-2025</t>
+          <t>A 28200-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45821</v>
+        <v>44746</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6132,14 +6132,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 29177-2025</t>
+          <t>A 15335-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45821</v>
+        <v>44284</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6189,14 +6189,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8926-2022</t>
+          <t>A 36894-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44614</v>
+        <v>45538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6208,13 +6208,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6251,14 +6246,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16710-2025</t>
+          <t>A 39753-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45754</v>
+        <v>45891.41855324074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6266,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6308,14 +6303,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 29813-2025</t>
+          <t>A 43564-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45825.78273148148</v>
+        <v>45569</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6323,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6365,14 +6360,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30001-2025</t>
+          <t>A 22634-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45826.52243055555</v>
+        <v>45447.67667824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6384,13 +6379,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6427,14 +6417,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58832-2023</t>
+          <t>A 2633-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45247</v>
+        <v>44580</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6447,7 +6437,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6484,14 +6474,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 29815-2025</t>
+          <t>A 20545-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45825.81784722222</v>
+        <v>45436</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6504,7 +6494,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6541,14 +6531,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 49118-2024</t>
+          <t>A 11809-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45594.66445601852</v>
+        <v>45727.89780092592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6561,7 +6551,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6598,14 +6588,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 20545-2024</t>
+          <t>A 10928-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45436</v>
+        <v>45722.90581018518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6618,7 +6608,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6655,14 +6645,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 49920-2024</t>
+          <t>A 21159-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45597.57233796296</v>
+        <v>45779.3799074074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6675,7 +6665,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6712,14 +6702,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 41256-2024</t>
+          <t>A 4982-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45559</v>
+        <v>45689</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6732,7 +6722,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6769,14 +6759,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43564-2024</t>
+          <t>A 59193-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45569</v>
+        <v>45636</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6789,7 +6779,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6826,14 +6816,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39753-2025</t>
+          <t>A 22750-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45891.41855324074</v>
+        <v>45789.61164351852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6846,7 +6836,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6883,14 +6873,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 23019-2025</t>
+          <t>A 57287-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45790</v>
+        <v>45629.58438657408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6903,7 +6893,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6940,14 +6930,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 40535-2025</t>
+          <t>A 20662-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45896</v>
+        <v>45776</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6960,7 +6950,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.1</v>
+        <v>10.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6997,14 +6987,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 16910-2024</t>
+          <t>A 28097-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45411</v>
+        <v>44746.47129629629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7017,7 +7007,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7054,14 +7044,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40648-2025</t>
+          <t>A 10388-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45896</v>
+        <v>45720.59267361111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7074,7 +7064,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7111,14 +7101,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 63206-2023</t>
+          <t>A 10389-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45273</v>
+        <v>45720.59847222222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7131,7 +7121,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7168,14 +7158,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 9486-2023</t>
+          <t>A 10638-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44977</v>
+        <v>45721</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7188,7 +7178,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>11.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7225,14 +7215,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44643-2021</t>
+          <t>A 10393-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44437.70806712963</v>
+        <v>45720.60332175926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7245,7 +7235,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7282,14 +7272,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45056-2021</t>
+          <t>A 43775-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44439.34355324074</v>
+        <v>45912.50739583333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7339,14 +7329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 11820-2025</t>
+          <t>A 14896-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45728.32152777778</v>
+        <v>45743.47895833333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,8 +7348,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7396,14 +7391,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11805-2025</t>
+          <t>A 8953-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45727.88486111111</v>
+        <v>45713.46289351852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7416,7 +7411,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7453,14 +7448,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44644-2021</t>
+          <t>A 8954-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44437.71910879629</v>
+        <v>45713.46517361111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7473,7 +7468,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7510,14 +7505,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 43097-2024</t>
+          <t>A 49922-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45567.54149305556</v>
+        <v>45597.57326388889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7530,7 +7525,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7567,14 +7562,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45059-2021</t>
+          <t>A 44363-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44439.34944444444</v>
+        <v>45915</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7582,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7624,14 +7619,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35435-2023</t>
+          <t>A 11818-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45146.63164351852</v>
+        <v>45728.31863425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7639,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7681,14 +7676,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57289-2024</t>
+          <t>A 44718-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45629.58579861111</v>
+        <v>45917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7696,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7738,14 +7733,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 39311-2023</t>
+          <t>A 44720-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45162</v>
+        <v>45917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7753,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7795,14 +7790,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 36573-2025</t>
+          <t>A 61289-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45869</v>
+        <v>45260</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7810,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7852,14 +7847,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 15147-2025</t>
+          <t>A 60091-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45744.45267361111</v>
+        <v>45258.44322916667</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7867,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>9.4</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7909,14 +7904,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 36581-2025</t>
+          <t>A 26441-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45869</v>
+        <v>44738</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7924,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7966,14 +7961,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 59193-2024</t>
+          <t>A 35888-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45636</v>
+        <v>45533.36006944445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7981,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8023,14 +8018,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56526-2024</t>
+          <t>A 13346-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45625</v>
+        <v>45735.6306712963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8038,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8080,14 +8075,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20662-2025</t>
+          <t>A 63206-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45776</v>
+        <v>45273</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8095,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>10.3</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8137,14 +8132,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 12215-2025</t>
+          <t>A 24274-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45729.5352662037</v>
+        <v>45797.44193287037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8152,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8194,14 +8189,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 3336-2025</t>
+          <t>A 13719-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45679.71759259259</v>
+        <v>45737.36446759259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8214,7 +8209,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8251,14 +8246,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43775-2025</t>
+          <t>A 40530-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45912.50739583333</v>
+        <v>45555.60775462963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8271,7 +8266,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8308,14 +8303,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17388-2023</t>
+          <t>A 5951-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45035</v>
+        <v>45695</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8328,7 +8323,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8365,14 +8360,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11809-2025</t>
+          <t>A 43105-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45727.89780092592</v>
+        <v>45567</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8380,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8422,14 +8417,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45101-2021</t>
+          <t>A 59204-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44439.40950231482</v>
+        <v>44897</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8442,7 +8437,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8479,14 +8474,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 56479-2024</t>
+          <t>A 16910-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45624</v>
+        <v>45411</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8499,7 +8494,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8536,14 +8531,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44363-2025</t>
+          <t>A 25374-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45915</v>
+        <v>45800.63570601852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8555,8 +8550,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8593,14 +8593,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37219-2025</t>
+          <t>A 25601-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45875</v>
+        <v>45803.54850694445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8612,8 +8612,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>8.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8650,14 +8655,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37218-2025</t>
+          <t>A 37492-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45875</v>
+        <v>44398</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8675,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8707,14 +8712,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 57287-2024</t>
+          <t>A 42769-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45629.58438657408</v>
+        <v>44832</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8732,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8764,14 +8769,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44718-2025</t>
+          <t>A 488-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45917</v>
+        <v>45664.45827546297</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8789,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8821,14 +8826,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 44720-2025</t>
+          <t>A 49920-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45917</v>
+        <v>45597.57233796296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8846,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8878,14 +8883,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 37920-2025</t>
+          <t>A 46122-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45881.57488425926</v>
+        <v>45924.58452546296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8903,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8935,14 +8940,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 29809-2025</t>
+          <t>A 27374-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45825.75673611111</v>
+        <v>45812</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8955,7 +8960,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8992,14 +8997,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 59864-2024</t>
+          <t>A 27379-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45639</v>
+        <v>45812</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9012,7 +9017,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9049,14 +9054,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 37925-2025</t>
+          <t>A 4290-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45881.57799768518</v>
+        <v>44953.60280092592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9106,14 +9111,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 46122-2025</t>
+          <t>A 59373-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45924.58452546296</v>
+        <v>45253.74621527778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9126,7 +9131,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9163,14 +9168,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 44707-2021</t>
+          <t>A 35429-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44438.36449074074</v>
+        <v>45146.62659722222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9183,7 +9188,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9220,14 +9225,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56512-2024</t>
+          <t>A 29167-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45625</v>
+        <v>45821</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9240,7 +9245,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9277,14 +9282,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 37492-2021</t>
+          <t>A 28886-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44398</v>
+        <v>45820.62944444444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9297,7 +9302,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9334,14 +9339,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 47189-2025</t>
+          <t>A 29177-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45930</v>
+        <v>45821</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9354,7 +9359,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9391,14 +9396,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 6232-2024</t>
+          <t>A 28933-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45337</v>
+        <v>45820.68407407407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9411,7 +9416,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9448,14 +9453,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37700-2021</t>
+          <t>A 28934-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44400</v>
+        <v>45820.68806712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9468,7 +9473,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9505,14 +9510,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 47451-2025</t>
+          <t>A 28932-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45930</v>
+        <v>45820.68037037037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9525,7 +9530,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9562,14 +9567,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47365-2025</t>
+          <t>A 30001-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45930</v>
+        <v>45826.52243055555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9581,8 +9586,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9619,14 +9629,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47358-2025</t>
+          <t>A 29813-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45930</v>
+        <v>45825.78273148148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9639,7 +9649,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9676,14 +9686,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47516-2025</t>
+          <t>A 29815-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45931.26936342593</v>
+        <v>45825.81784722222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9695,13 +9705,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9738,14 +9743,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48324-2025</t>
+          <t>A 47365-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45933.62864583333</v>
+        <v>45930</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9763,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9795,14 +9800,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 31833-2024</t>
+          <t>A 47189-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45509.64240740741</v>
+        <v>45930</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9815,7 +9820,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9852,14 +9857,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 47360-2025</t>
+          <t>A 47358-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
         <v>45930</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9877,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9909,14 +9914,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 20542-2024</t>
+          <t>A 47451-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45436</v>
+        <v>45930</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9934,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9966,14 +9971,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50035-2025</t>
+          <t>A 47516-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45943.3944675926</v>
+        <v>45931.26936342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9985,8 +9990,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10023,14 +10033,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 50736-2025</t>
+          <t>A 63039-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45946.36873842592</v>
+        <v>45272</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10043,7 +10053,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10080,14 +10090,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 16342-2025</t>
+          <t>A 47360-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45751.37185185185</v>
+        <v>45930</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10099,13 +10109,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10142,14 +10147,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 51076-2025</t>
+          <t>A 59965-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45947.46234953704</v>
+        <v>45257.74469907407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10167,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10199,14 +10204,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 51176-2025</t>
+          <t>A 48324-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45947</v>
+        <v>45933.62864583333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10224,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10256,14 +10261,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 51179-2025</t>
+          <t>A 64722-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45947</v>
+        <v>45281</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10281,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10313,14 +10318,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 23665-2021</t>
+          <t>A 46480-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44334</v>
+        <v>44847</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10333,7 +10338,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10370,14 +10375,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 51141-2025</t>
+          <t>A 49893-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45947.56348379629</v>
+        <v>44864</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10390,7 +10395,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10427,14 +10432,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51065-2025</t>
+          <t>A 3313-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45947.45203703704</v>
+        <v>45317.4846412037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10447,7 +10452,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10484,14 +10489,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 39144-2024</t>
+          <t>A 10416-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45548.6153587963</v>
+        <v>45365</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10504,7 +10509,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10541,14 +10546,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 3334-2025</t>
+          <t>A 6360-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45679.71046296296</v>
+        <v>44965</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10561,7 +10566,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10605,7 +10610,7 @@
         <v>44965.62028935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10655,14 +10660,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 5823-2024</t>
+          <t>A 8001-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45335.55476851852</v>
+        <v>45707.52650462963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10674,8 +10679,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10712,14 +10722,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 22634-2024</t>
+          <t>A 50587-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45447.67667824074</v>
+        <v>44861</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10732,7 +10742,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10769,14 +10779,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 40505-2023</t>
+          <t>A 45056-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45170.40601851852</v>
+        <v>44439.34355324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10789,7 +10799,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10826,14 +10836,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 64725-2023</t>
+          <t>A 44643-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45281</v>
+        <v>44437.70806712963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10846,7 +10856,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10883,14 +10893,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 32564-2023</t>
+          <t>A 39887-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45111</v>
+        <v>44819.64585648148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10903,7 +10913,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10940,14 +10950,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 31989-2022</t>
+          <t>A 11805-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44778.30577546296</v>
+        <v>45727.88486111111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10960,7 +10970,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10997,14 +11007,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 35429-2023</t>
+          <t>A 11820-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45146.62659722222</v>
+        <v>45728.32152777778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11017,7 +11027,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11054,14 +11064,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35186-2024</t>
+          <t>A 45059-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45530.45280092592</v>
+        <v>44439.34944444444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11074,7 +11084,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11111,14 +11121,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 35433-2023</t>
+          <t>A 44644-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45146.62883101852</v>
+        <v>44437.71910879629</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11141,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11168,14 +11178,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 23166-2023</t>
+          <t>A 58878-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45075</v>
+        <v>45252.47113425926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11198,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>8.800000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11225,14 +11235,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 14821-2024</t>
+          <t>A 59191-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45398.18991898148</v>
+        <v>45251</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11255,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11282,14 +11292,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56517-2024</t>
+          <t>A 59231-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45625</v>
+        <v>45253</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11339,14 +11349,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 56531-2024</t>
+          <t>A 650-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45625</v>
+        <v>45299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11396,14 +11406,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6233-2024</t>
+          <t>A 50035-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45337</v>
+        <v>45943.3944675926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11426,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11453,14 +11463,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 2633-2022</t>
+          <t>A 3645-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44580</v>
+        <v>45321</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11483,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11510,14 +11520,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 29176-2025</t>
+          <t>A 36581-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45821</v>
+        <v>45869</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11540,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11567,14 +11577,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 1196-2025</t>
+          <t>A 10419-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45666</v>
+        <v>45365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11597,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11624,14 +11634,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 40508-2023</t>
+          <t>A 36573-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45170.40796296296</v>
+        <v>45869</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11654,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11681,14 +11691,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2314-2026</t>
+          <t>A 45101-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46034</v>
+        <v>44439.40950231482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11711,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11738,14 +11748,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 2315-2026</t>
+          <t>A 56479-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46034</v>
+        <v>45624</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11768,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11795,14 +11805,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2470-2026</t>
+          <t>A 17388-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46037.36991898148</v>
+        <v>45035</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11825,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11852,14 +11862,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 61356-2025</t>
+          <t>A 12215-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46000</v>
+        <v>45729.5352662037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11882,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11909,14 +11919,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 61358-2025</t>
+          <t>A 9486-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46000</v>
+        <v>44977</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11939,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11966,14 +11976,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 8001-2025</t>
+          <t>A 32564-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45707.52650462963</v>
+        <v>45111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11985,13 +11995,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12028,14 +12033,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 7323-2025</t>
+          <t>A 15147-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45702</v>
+        <v>45744.45267361111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12048,7 +12053,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12085,14 +12090,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 61803-2025</t>
+          <t>A 12476-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46002</v>
+        <v>44999.64097222222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12105,7 +12110,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12142,14 +12147,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 61802-2025</t>
+          <t>A 51141-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46002</v>
+        <v>45947.56348379629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12162,7 +12167,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12199,14 +12204,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 61807-2025</t>
+          <t>A 37219-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46002</v>
+        <v>45875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12219,7 +12224,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12256,14 +12261,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 18685-2025</t>
+          <t>A 37218-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45763.61067129629</v>
+        <v>45875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12276,7 +12281,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12313,14 +12318,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 18722-2025</t>
+          <t>A 14267-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45763.66126157407</v>
+        <v>45393.57178240741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12332,8 +12337,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12370,14 +12380,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59231-2023</t>
+          <t>A 8792-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45253</v>
+        <v>44978.59072916667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12390,7 +12400,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12427,14 +12437,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 61818-2025</t>
+          <t>A 51179-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46003.32189814815</v>
+        <v>45947</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12457,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12484,14 +12494,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 16709-2025</t>
+          <t>A 51076-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45754.47859953704</v>
+        <v>45947.46234953704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12514,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12541,14 +12551,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 59191-2023</t>
+          <t>A 57289-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45251</v>
+        <v>45629.58579861111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12571,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12598,14 +12608,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28097-2022</t>
+          <t>A 51176-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44746.47129629629</v>
+        <v>45947</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12628,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12655,14 +12665,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 9243-2025</t>
+          <t>A 51065-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45714.56596064815</v>
+        <v>45947.45203703704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12685,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12712,14 +12722,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 49893-2022</t>
+          <t>A 50736-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44864</v>
+        <v>45946.36873842592</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12742,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12769,14 +12779,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 1218-2024</t>
+          <t>A 31989-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45302</v>
+        <v>44778.30577546296</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12799,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12826,14 +12836,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 26441-2022</t>
+          <t>A 37920-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44738</v>
+        <v>45881.57488425926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12856,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12883,14 +12893,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11827-2025</t>
+          <t>A 37925-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45728.33512731481</v>
+        <v>45881.57799768518</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12913,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12940,14 +12950,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 650-2024</t>
+          <t>A 59864-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45299</v>
+        <v>45639</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12970,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12997,14 +13007,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 63556-2025</t>
+          <t>A 29809-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46013.61539351852</v>
+        <v>45825.75673611111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13027,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13054,14 +13064,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 50587-2022</t>
+          <t>A 3334-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44861</v>
+        <v>45679.71046296296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13084,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13111,14 +13121,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 63406-2025</t>
+          <t>A 39311-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46012</v>
+        <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13141,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13168,14 +13178,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 63407-2025</t>
+          <t>A 16709-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46012</v>
+        <v>45754.47859953704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13198,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13225,14 +13235,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 16444-2025</t>
+          <t>A 32624-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45751.50175925926</v>
+        <v>45111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13242,11 +13252,6 @@
       <c r="E216" t="inlineStr">
         <is>
           <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G216" t="n">
@@ -13287,14 +13292,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 35366-2024</t>
+          <t>A 8926-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45531</v>
+        <v>44614</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13306,8 +13311,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>14</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13344,14 +13354,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 455-2024</t>
+          <t>A 7323-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45296</v>
+        <v>45702</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13364,7 +13374,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13401,14 +13411,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 46480-2022</t>
+          <t>A 8794-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44847</v>
+        <v>44978.59206018518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13421,7 +13431,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13458,14 +13468,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 7396-2026</t>
+          <t>A 44396-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46059.37376157408</v>
+        <v>45573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13478,7 +13488,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13515,14 +13525,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 22925-2024</t>
+          <t>A 7640-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45448</v>
+        <v>45705.77997685185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13535,7 +13545,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13572,14 +13582,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 7818-2026</t>
+          <t>A 6232-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46062.62846064815</v>
+        <v>45337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13592,7 +13602,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13629,14 +13639,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 4290-2023</t>
+          <t>A 29176-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44953.60280092592</v>
+        <v>45821</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13649,7 +13659,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13686,14 +13696,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 8792-2023</t>
+          <t>A 1196-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44978.59072916667</v>
+        <v>45666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13706,7 +13716,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.1</v>
+        <v>9.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13743,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 37197-2023</t>
+          <t>A 7596-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45155.66857638889</v>
+        <v>45705.65067129629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13763,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13800,14 +13810,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 7640-2025</t>
+          <t>A 2470-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45705.77997685185</v>
+        <v>46037.36991898148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13820,7 +13830,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13857,14 +13867,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 9481-2023</t>
+          <t>A 2314-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44977</v>
+        <v>46034</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13877,7 +13887,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13914,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 9483-2023</t>
+          <t>A 2315-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44977</v>
+        <v>46034</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13934,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13971,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 28200-2022</t>
+          <t>A 23665-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44746</v>
+        <v>44334</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13991,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14028,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 32548-2024</t>
+          <t>A 14821-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45513</v>
+        <v>45398.18991898148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14048,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>10.2</v>
+        <v>3.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14085,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 55163-2023</t>
+          <t>A 59200-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45237</v>
+        <v>45636</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14105,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14142,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 4982-2025</t>
+          <t>A 10732-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45689</v>
+        <v>45369</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14162,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14199,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 8794-2023</t>
+          <t>A 61356-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44978.59206018518</v>
+        <v>46000</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14219,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14256,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 18772-2025</t>
+          <t>A 61358-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45763</v>
+        <v>46000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14276,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14313,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 12476-2023</t>
+          <t>A 14354-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44999.64097222222</v>
+        <v>45741.36516203704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14332,8 +14342,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14370,14 +14385,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 44396-2024</t>
+          <t>A 61818-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45573</v>
+        <v>46003.32189814815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14390,7 +14405,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14427,14 +14442,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 64722-2023</t>
+          <t>A 6233-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45281</v>
+        <v>45337</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14447,7 +14462,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14484,14 +14499,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 12889-2023</t>
+          <t>A 1218-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45001</v>
+        <v>45302</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14504,7 +14519,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14541,14 +14556,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 32624-2023</t>
+          <t>A 61802-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45111</v>
+        <v>46002</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14561,7 +14576,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14598,14 +14613,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 10416-2024</t>
+          <t>A 61807-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45365</v>
+        <v>46002</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14618,7 +14633,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14655,14 +14670,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 10419-2024</t>
+          <t>A 23166-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45365</v>
+        <v>45075</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14675,7 +14690,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14712,14 +14727,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 35426-2023</t>
+          <t>A 61803-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45146.62553240741</v>
+        <v>46002</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14732,7 +14747,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14769,14 +14784,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 25554-2023</t>
+          <t>A 39144-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45082</v>
+        <v>45548.6153587963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14789,7 +14804,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14826,14 +14841,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 59965-2023</t>
+          <t>A 41256-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45257.74469907407</v>
+        <v>45559</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14846,7 +14861,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14883,14 +14898,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 15335-2021</t>
+          <t>A 56711-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44284</v>
+        <v>44893.84237268518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14903,7 +14918,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14940,14 +14955,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 58878-2023</t>
+          <t>A 63556-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45252.47113425926</v>
+        <v>46013.61539351852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14960,7 +14975,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14997,14 +15012,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 10732-2024</t>
+          <t>A 63406-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45369</v>
+        <v>46012</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15017,7 +15032,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15054,14 +15069,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 27260-2024</t>
+          <t>A 63407-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45471</v>
+        <v>46012</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15074,7 +15089,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15111,14 +15126,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 42769-2022</t>
+          <t>A 56526-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44832</v>
+        <v>45625</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15131,7 +15146,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15168,14 +15183,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 6360-2023</t>
+          <t>A 3336-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44965</v>
+        <v>45679.71759259259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15188,7 +15203,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15225,14 +15240,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 60091-2023</t>
+          <t>A 31833-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45258.44322916667</v>
+        <v>45509.64240740741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15245,7 +15260,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15282,14 +15297,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 61289-2023</t>
+          <t>A 37700-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45260</v>
+        <v>44400</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15302,7 +15317,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15339,14 +15354,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 3645-2024</t>
+          <t>A 16444-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45321</v>
+        <v>45751.50175925926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15358,8 +15373,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15396,14 +15416,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 29203-2023</t>
+          <t>A 18685-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45097</v>
+        <v>45763.61067129629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15416,7 +15436,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15453,14 +15473,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 59200-2024</t>
+          <t>A 18722-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45636</v>
+        <v>45763.66126157407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15473,7 +15493,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15510,14 +15530,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 55145-2024</t>
+          <t>A 7396-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45621</v>
+        <v>46059.37376157408</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15530,7 +15550,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15567,14 +15587,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 45002-2024</t>
+          <t>A 7818-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45575.48587962963</v>
+        <v>46062.62846064815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15587,7 +15607,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15624,14 +15644,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 7596-2025</t>
+          <t>A 53823-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45705.65067129629</v>
+        <v>44880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15644,7 +15664,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15681,14 +15701,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 13049-2023</t>
+          <t>A 455-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45002</v>
+        <v>45296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15701,7 +15721,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15738,14 +15758,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 14354-2025</t>
+          <t>A 35186-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45741.36516203704</v>
+        <v>45530.45280092592</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15757,13 +15777,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15800,14 +15815,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 14325-2024</t>
+          <t>A 35366-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45393.69880787037</v>
+        <v>45531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15819,13 +15834,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>7.1</v>
+        <v>14</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15862,14 +15872,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 10928-2025</t>
+          <t>A 20542-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45722.90581018518</v>
+        <v>45436</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15882,7 +15892,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>9.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15919,14 +15929,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 21159-2025</t>
+          <t>A 14325-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45779.3799074074</v>
+        <v>45393.69880787037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15938,8 +15948,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>0.9</v>
+        <v>7.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15976,14 +15991,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 22750-2025</t>
+          <t>A 44707-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45789.61164351852</v>
+        <v>44438.36449074074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15996,7 +16011,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16033,14 +16048,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 8953-2025</t>
+          <t>A 18772-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45713.46289351852</v>
+        <v>45763</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16053,7 +16068,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16090,14 +16105,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 14896-2025</t>
+          <t>A 55163-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45743.47895833333</v>
+        <v>45237</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16109,13 +16124,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16152,14 +16162,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 8954-2025</t>
+          <t>A 25554-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45713.46517361111</v>
+        <v>45082</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16172,7 +16182,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16209,14 +16219,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 10388-2025</t>
+          <t>A 16710-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45720.59267361111</v>
+        <v>45754</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16229,7 +16239,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16266,14 +16276,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 10389-2025</t>
+          <t>A 9243-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45720.59847222222</v>
+        <v>45714.56596064815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16286,7 +16296,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16323,14 +16333,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 11818-2025</t>
+          <t>A 12889-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45728.31863425926</v>
+        <v>45001</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16343,7 +16353,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16380,14 +16390,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 10638-2025</t>
+          <t>A 49118-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45721</v>
+        <v>45594.66445601852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16400,7 +16410,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>11.8</v>
+        <v>1.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16437,14 +16447,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 10393-2025</t>
+          <t>A 64725-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45720.60332175926</v>
+        <v>45281</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16457,7 +16467,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16494,14 +16504,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 13719-2025</t>
+          <t>A 50456-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45737.36446759259</v>
+        <v>44861</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16514,7 +16524,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16551,14 +16561,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 35888-2024</t>
+          <t>A 56512-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45533.36006944445</v>
+        <v>45625</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16571,7 +16581,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16608,14 +16618,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 13346-2025</t>
+          <t>A 9481-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45735.6306712963</v>
+        <v>44977</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16638,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16665,14 +16675,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 59204-2022</t>
+          <t>A 9483-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44897</v>
+        <v>44977</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16695,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16722,14 +16732,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 40530-2024</t>
+          <t>A 40508-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45555.60775462963</v>
+        <v>45170.40796296296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16752,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16779,14 +16789,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 5951-2025</t>
+          <t>A 32548-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45695</v>
+        <v>45513</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16799,7 +16809,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.9</v>
+        <v>10.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16836,14 +16846,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 24274-2025</t>
+          <t>A 35426-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45797.44193287037</v>
+        <v>45146.62553240741</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16856,7 +16866,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16893,14 +16903,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 43105-2024</t>
+          <t>A 35433-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45567</v>
+        <v>45146.62883101852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16913,7 +16923,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16950,14 +16960,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 25374-2025</t>
+          <t>A 27260-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45800.63570601852</v>
+        <v>45471</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16969,13 +16979,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17012,14 +17017,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 25601-2025</t>
+          <t>A 55145-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45803.54850694445</v>
+        <v>45621</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17031,13 +17036,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17074,14 +17074,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 27374-2025</t>
+          <t>A 43097-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45812</v>
+        <v>45567.54149305556</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17131,14 +17131,14 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 27379-2025</t>
+          <t>A 37197-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45812</v>
+        <v>45155.66857638889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 8924-2022</t>
+          <t>A 39553-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44614</v>
+        <v>45551</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,13 +779,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -794,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -809,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -818,128 +813,133 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Ärtsångare
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 8924-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44614</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Åkergroda
 Vanlig groda
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39553-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Ärtsångare
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,14 +1204,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 12709-2025</t>
+          <t>A 37767-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45733.47122685185</v>
+        <v>45159</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1224,19 +1224,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>21.1</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1248,59 +1248,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37767-2023</t>
+          <t>A 56535-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45159</v>
+        <v>45625</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,20 +1309,20 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>21.1</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1337,41 +1333,41 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 56535-2024 artfynd.xlsx", "A 56535-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 56535-2024 karta.png", "A 56535-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 56535-2024 FSC-klagomål.docx", "A 56535-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 56535-2024 FSC-klagomål mail.docx", "A 56535-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 56535-2024 tillsynsbegäran.docx", "A 56535-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 56535-2024 tillsynsbegäran mail.docx", "A 56535-2024")</f>
         <v/>
       </c>
     </row>
@@ -1385,7 +1381,7 @@
         <v>44342</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1466,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,14 +1544,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 63405-2025</t>
+          <t>A 12709-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46012</v>
+        <v>45733.47122685185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,19 +1564,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1595,126 +1591,130 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 63405-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>46012</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Gropticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 56535-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45625</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Koppartaggsvamp</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 56535-2024 artfynd.xlsx", "A 56535-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 56535-2024 karta.png", "A 56535-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 56535-2024 FSC-klagomål.docx", "A 56535-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 56535-2024 FSC-klagomål mail.docx", "A 56535-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 56535-2024 tillsynsbegäran.docx", "A 56535-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 56535-2024 tillsynsbegäran mail.docx", "A 56535-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44421</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2060,14 +2060,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 25063-2021</t>
+          <t>A 47181-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44341.61608796296</v>
+        <v>44447.30079861111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2117,14 +2117,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 25066-2021</t>
+          <t>A 16284-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44341.62946759259</v>
+        <v>44292</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2174,14 +2174,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47181-2021</t>
+          <t>A 25063-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44447.30079861111</v>
+        <v>44341.61608796296</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16284-2021</t>
+          <t>A 25066-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44292</v>
+        <v>44341.62946759259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44846</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,14 +2915,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 28167-2022</t>
+          <t>A 44072-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44746.57121527778</v>
+        <v>44434</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 44072-2021</t>
+          <t>A 28167-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44434</v>
+        <v>44746.57121527778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>44377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,14 +3371,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 35673-2021</t>
+          <t>A 26333-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44386</v>
+        <v>44735</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 45103-2021</t>
+          <t>A 52568-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44439.41456018519</v>
+        <v>44466</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60681-2021</t>
+          <t>A 52572-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44496.65423611111</v>
+        <v>44466</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2640-2022</t>
+          <t>A 73609-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44580</v>
+        <v>44552</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 43749-2021</t>
+          <t>A 35672-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44433</v>
+        <v>44386</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 52568-2021</t>
+          <t>A 45062-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44466</v>
+        <v>44439.35600694444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 52572-2021</t>
+          <t>A 55624-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44466</v>
+        <v>44883</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35672-2021</t>
+          <t>A 14093-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44386</v>
+        <v>44278.27473379629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14093-2021</t>
+          <t>A 35673-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44278.27473379629</v>
+        <v>44386</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40935-2021</t>
+          <t>A 8910-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44421</v>
+        <v>44614</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3903,8 +3903,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>9.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3941,14 +3946,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 26333-2022</t>
+          <t>A 2640-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44735</v>
+        <v>44580</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3966,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3998,14 +4003,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 73609-2021</t>
+          <t>A 40935-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44552</v>
+        <v>44421</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4018,7 +4023,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4055,14 +4060,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45062-2021</t>
+          <t>A 28101-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44439.35600694444</v>
+        <v>44746.47565972222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4075,7 +4080,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4112,14 +4117,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55624-2022</t>
+          <t>A 71009-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44883</v>
+        <v>44538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4131,8 +4136,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4169,14 +4179,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8910-2022</t>
+          <t>A 45103-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44614</v>
+        <v>44439.41456018519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4188,13 +4198,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>9.9</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4231,14 +4236,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28101-2022</t>
+          <t>A 14406-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44746.47565972222</v>
+        <v>44652</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4256,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4288,14 +4293,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 71009-2021</t>
+          <t>A 21770-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44538</v>
+        <v>44321</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4307,13 +4312,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4350,14 +4350,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14406-2022</t>
+          <t>A 10056-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4407,14 +4407,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10056-2022</t>
+          <t>A 60681-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44621</v>
+        <v>44496.65423611111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4521,14 +4521,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 21770-2021</t>
+          <t>A 9423-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44321</v>
+        <v>44616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,8 +4540,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>8.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4578,14 +4583,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9423-2022</t>
+          <t>A 8299-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44616</v>
+        <v>44243</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,13 +4602,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>8.6</v>
+        <v>3.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4697,14 +4697,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8299-2021</t>
+          <t>A 49365-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44243</v>
+        <v>44454.59979166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4754,14 +4754,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49365-2021</t>
+          <t>A 49922-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44454.59979166667</v>
+        <v>45597.57326388889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4811,14 +4811,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11805-2021</t>
+          <t>A 16342-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44265</v>
+        <v>45751.37185185185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,8 +4830,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4868,14 +4873,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16342-2025</t>
+          <t>A 11805-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45751.37185185185</v>
+        <v>44265</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,13 +4892,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4930,14 +4930,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23019-2025</t>
+          <t>A 59373-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45790</v>
+        <v>45253.74621527778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4994,7 +4994,7 @@
         <v>44293</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5044,14 +5044,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34659-2021</t>
+          <t>A 23665-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44382.57646990741</v>
+        <v>44334</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5101,14 +5101,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53360-2022</t>
+          <t>A 39144-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44879.38193287037</v>
+        <v>45548.6153587963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5158,14 +5158,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40535-2025</t>
+          <t>A 39887-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45896</v>
+        <v>44819.64585648148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5215,14 +5215,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 56517-2024</t>
+          <t>A 43749-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45625</v>
+        <v>44433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5272,14 +5272,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56531-2024</t>
+          <t>A 3334-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45625</v>
+        <v>45679.71046296296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5329,14 +5329,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 5823-2024</t>
+          <t>A 50456-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45335.55476851852</v>
+        <v>44861</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5386,14 +5386,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 22925-2024</t>
+          <t>A 53360-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45448</v>
+        <v>44879.38193287037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5443,14 +5443,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35435-2023</t>
+          <t>A 56711-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45146.63164351852</v>
+        <v>44893.84237268518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5500,14 +5500,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 35149-2022</t>
+          <t>A 6374-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44797</v>
+        <v>44965.62028935185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5557,14 +5557,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 64350-2023</t>
+          <t>A 36894-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45280</v>
+        <v>45538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5614,14 +5614,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58832-2023</t>
+          <t>A 64350-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45247</v>
+        <v>45280</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5671,14 +5671,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14309-2024</t>
+          <t>A 63039-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45393.66581018519</v>
+        <v>45272</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,13 +5690,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5733,14 +5728,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 40505-2023</t>
+          <t>A 34659-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45170.40601851852</v>
+        <v>44382.57646990741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5753,7 +5748,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5790,14 +5785,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 40648-2025</t>
+          <t>A 14267-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45896</v>
+        <v>45393.57178240741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5809,8 +5804,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5847,14 +5847,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13049-2023</t>
+          <t>A 14309-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45002</v>
+        <v>45393.66581018519</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,8 +5866,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5904,14 +5909,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11827-2025</t>
+          <t>A 488-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45728.33512731481</v>
+        <v>45664.45827546297</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5929,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5961,14 +5966,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45002-2024</t>
+          <t>A 5823-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45575.48587962963</v>
+        <v>45335.55476851852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5986,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6018,14 +6023,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 29203-2023</t>
+          <t>A 35149-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45097</v>
+        <v>44797</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6043,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6075,14 +6080,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28200-2022</t>
+          <t>A 3313-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44746</v>
+        <v>45317.4846412037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6100,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6132,14 +6137,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 15335-2021</t>
+          <t>A 22634-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44284</v>
+        <v>45447.67667824074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6152,7 +6157,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6189,14 +6194,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 36894-2024</t>
+          <t>A 40505-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45538</v>
+        <v>45170.40601851852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6209,7 +6214,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6246,14 +6251,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 39753-2025</t>
+          <t>A 53823-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45891.41855324074</v>
+        <v>44880</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6266,7 +6271,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6303,14 +6308,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43564-2024</t>
+          <t>A 64725-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45569</v>
+        <v>45281</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6323,7 +6328,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6360,14 +6365,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 22634-2024</t>
+          <t>A 32564-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45447.67667824074</v>
+        <v>45111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6380,7 +6385,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6417,14 +6422,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2633-2022</t>
+          <t>A 8926-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44580</v>
+        <v>44614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6436,8 +6441,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6474,14 +6484,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20545-2024</t>
+          <t>A 16710-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45436</v>
+        <v>45754</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6494,7 +6504,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6531,14 +6541,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 11809-2025</t>
+          <t>A 58832-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45727.89780092592</v>
+        <v>45247</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6551,7 +6561,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6588,14 +6598,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10928-2025</t>
+          <t>A 37197-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45722.90581018518</v>
+        <v>45155.66857638889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6608,7 +6618,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6645,14 +6655,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21159-2025</t>
+          <t>A 31989-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45779.3799074074</v>
+        <v>44778.30577546296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6665,7 +6675,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6702,14 +6712,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4982-2025</t>
+          <t>A 49118-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45689</v>
+        <v>45594.66445601852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6722,7 +6732,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6759,14 +6769,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 59193-2024</t>
+          <t>A 20545-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45636</v>
+        <v>45436</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6779,7 +6789,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6816,14 +6826,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 22750-2025</t>
+          <t>A 49920-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45789.61164351852</v>
+        <v>45597.57233796296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6836,7 +6846,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6873,14 +6883,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 57287-2024</t>
+          <t>A 27374-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45629.58438657408</v>
+        <v>45812</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6893,7 +6903,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6930,14 +6940,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 20662-2025</t>
+          <t>A 27379-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45776</v>
+        <v>45812</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6950,7 +6960,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>10.3</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6987,14 +6997,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28097-2022</t>
+          <t>A 41256-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44746.47129629629</v>
+        <v>45559</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7007,7 +7017,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7044,14 +7054,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10388-2025</t>
+          <t>A 35429-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45720.59267361111</v>
+        <v>45146.62659722222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7064,7 +7074,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7101,14 +7111,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10389-2025</t>
+          <t>A 35186-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45720.59847222222</v>
+        <v>45530.45280092592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7121,7 +7131,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7158,14 +7168,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 10638-2025</t>
+          <t>A 35433-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45721</v>
+        <v>45146.62883101852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7188,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11.8</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7215,14 +7225,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 10393-2025</t>
+          <t>A 43564-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45720.60332175926</v>
+        <v>45569</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7245,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7272,14 +7282,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 43775-2025</t>
+          <t>A 28933-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45912.50739583333</v>
+        <v>45820.68407407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7302,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7329,14 +7339,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 14896-2025</t>
+          <t>A 28934-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45743.47895833333</v>
+        <v>45820.68806712963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7348,13 +7358,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7391,14 +7396,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8953-2025</t>
+          <t>A 28886-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45713.46289351852</v>
+        <v>45820.62944444444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7416,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7448,14 +7453,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 8954-2025</t>
+          <t>A 28932-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45713.46517361111</v>
+        <v>45820.68037037037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7473,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7505,14 +7510,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49922-2024</t>
+          <t>A 23166-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45597.57326388889</v>
+        <v>45075</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7530,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7562,14 +7567,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44363-2025</t>
+          <t>A 29167-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45915</v>
+        <v>45821</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7582,7 +7587,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7619,14 +7624,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11818-2025</t>
+          <t>A 29177-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45728.31863425926</v>
+        <v>45821</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7639,7 +7644,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7676,14 +7681,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44718-2025</t>
+          <t>A 16910-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45917</v>
+        <v>45411</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7696,7 +7701,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7733,14 +7738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44720-2025</t>
+          <t>A 29813-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45917</v>
+        <v>45825.78273148148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7753,7 +7758,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7790,14 +7795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61289-2023</t>
+          <t>A 30001-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45260</v>
+        <v>45826.52243055555</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7809,8 +7814,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7847,14 +7857,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 60091-2023</t>
+          <t>A 29815-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45258.44322916667</v>
+        <v>45825.81784722222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7867,7 +7877,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7904,14 +7914,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 26441-2022</t>
+          <t>A 63206-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44738</v>
+        <v>45273</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7924,7 +7934,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7961,14 +7971,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 35888-2024</t>
+          <t>A 14821-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45533.36006944445</v>
+        <v>45398.18991898148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7981,7 +7991,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8018,14 +8028,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13346-2025</t>
+          <t>A 56517-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45735.6306712963</v>
+        <v>45625</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8038,7 +8048,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8075,14 +8085,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 63206-2023</t>
+          <t>A 56531-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45273</v>
+        <v>45625</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8095,7 +8105,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8132,14 +8142,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 24274-2025</t>
+          <t>A 9486-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45797.44193287037</v>
+        <v>44977</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8152,7 +8162,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8189,14 +8199,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13719-2025</t>
+          <t>A 6233-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45737.36446759259</v>
+        <v>45337</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8209,7 +8219,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8246,14 +8256,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40530-2024</t>
+          <t>A 43097-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45555.60775462963</v>
+        <v>45567.54149305556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8266,7 +8276,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8303,14 +8313,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 5951-2025</t>
+          <t>A 7640-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45695</v>
+        <v>45705.77997685185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8323,7 +8333,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8360,14 +8370,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 43105-2024</t>
+          <t>A 2633-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45567</v>
+        <v>44580</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8380,7 +8390,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8417,14 +8427,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 59204-2022</t>
+          <t>A 35435-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44897</v>
+        <v>45146.63164351852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8437,7 +8447,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8474,14 +8484,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 16910-2024</t>
+          <t>A 9481-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45411</v>
+        <v>44977</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8494,7 +8504,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8531,14 +8541,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 25374-2025</t>
+          <t>A 9483-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45800.63570601852</v>
+        <v>44977</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,13 +8560,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8593,14 +8598,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 25601-2025</t>
+          <t>A 1196-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45803.54850694445</v>
+        <v>45666</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8612,13 +8617,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8655,14 +8655,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37492-2021</t>
+          <t>A 28200-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44398</v>
+        <v>44746</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8712,14 +8712,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 42769-2022</t>
+          <t>A 57289-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44832</v>
+        <v>45629.58579861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8769,14 +8769,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 488-2025</t>
+          <t>A 40508-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45664.45827546297</v>
+        <v>45170.40796296296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>9.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8826,14 +8826,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49920-2024</t>
+          <t>A 39311-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45597.57233796296</v>
+        <v>45162</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8883,14 +8883,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 46122-2025</t>
+          <t>A 32548-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45924.58452546296</v>
+        <v>45513</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.6</v>
+        <v>10.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8940,14 +8940,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 27374-2025</t>
+          <t>A 55163-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45812</v>
+        <v>45237</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8997,14 +8997,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 27379-2025</t>
+          <t>A 4982-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45812</v>
+        <v>45689</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9054,14 +9054,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 4290-2023</t>
+          <t>A 8001-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44953.60280092592</v>
+        <v>45707.52650462963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,8 +9073,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9111,14 +9116,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 59373-2023</t>
+          <t>A 8794-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45253.74621527778</v>
+        <v>44978.59206018518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9131,7 +9136,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9168,14 +9173,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35429-2023</t>
+          <t>A 7323-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45146.62659722222</v>
+        <v>45702</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9193,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9225,14 +9230,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 29167-2025</t>
+          <t>A 44643-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45821</v>
+        <v>44437.70806712963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9250,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9282,14 +9287,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 28886-2025</t>
+          <t>A 59193-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45820.62944444444</v>
+        <v>45636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9307,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9339,14 +9344,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 29177-2025</t>
+          <t>A 45056-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45821</v>
+        <v>44439.34355324074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9396,14 +9401,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 28933-2025</t>
+          <t>A 56526-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45820.68407407407</v>
+        <v>45625</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9416,7 +9421,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9453,14 +9458,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 28934-2025</t>
+          <t>A 11820-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45820.68806712963</v>
+        <v>45728.32152777778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9473,7 +9478,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9510,14 +9515,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 28932-2025</t>
+          <t>A 3336-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45820.68037037037</v>
+        <v>45679.71759259259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9535,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9567,14 +9572,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 30001-2025</t>
+          <t>A 11805-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45826.52243055555</v>
+        <v>45727.88486111111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9586,13 +9591,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9629,14 +9629,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 29813-2025</t>
+          <t>A 44644-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45825.78273148148</v>
+        <v>44437.71910879629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9686,14 +9686,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 29815-2025</t>
+          <t>A 17388-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45825.81784722222</v>
+        <v>45035</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9743,14 +9743,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47365-2025</t>
+          <t>A 45059-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45930</v>
+        <v>44439.34944444444</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9800,14 +9800,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 47189-2025</t>
+          <t>A 11809-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45930</v>
+        <v>45727.89780092592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9857,14 +9857,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 47358-2025</t>
+          <t>A 18772-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45930</v>
+        <v>45763</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9914,14 +9914,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 47451-2025</t>
+          <t>A 12476-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45930</v>
+        <v>44999.64097222222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9971,14 +9971,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 47516-2025</t>
+          <t>A 18685-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45931.26936342593</v>
+        <v>45763.61067129629</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9990,13 +9990,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10033,14 +10028,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 63039-2023</t>
+          <t>A 18722-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45272</v>
+        <v>45763.66126157407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10053,7 +10048,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10090,14 +10085,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 47360-2025</t>
+          <t>A 59231-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45930</v>
+        <v>45253</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10110,7 +10105,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10147,14 +10142,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 59965-2023</t>
+          <t>A 57287-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45257.74469907407</v>
+        <v>45629.58438657408</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10167,7 +10162,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10204,14 +10199,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48324-2025</t>
+          <t>A 16709-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45933.62864583333</v>
+        <v>45754.47859953704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10224,7 +10219,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10261,14 +10256,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 64722-2023</t>
+          <t>A 59191-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45281</v>
+        <v>45251</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10281,7 +10276,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10318,14 +10313,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 46480-2022</t>
+          <t>A 36573-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44847</v>
+        <v>45869</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10338,7 +10333,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10375,14 +10370,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49893-2022</t>
+          <t>A 28097-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44864</v>
+        <v>44746.47129629629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10395,7 +10390,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10432,14 +10427,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3313-2024</t>
+          <t>A 15147-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45317.4846412037</v>
+        <v>45744.45267361111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10452,7 +10447,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>6.3</v>
+        <v>9.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10489,14 +10484,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 10416-2024</t>
+          <t>A 36581-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45365</v>
+        <v>45869</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10509,7 +10504,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10546,14 +10541,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6360-2023</t>
+          <t>A 44707-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44965</v>
+        <v>44438.36449074074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10566,7 +10561,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10603,14 +10598,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6374-2023</t>
+          <t>A 9243-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44965.62028935185</v>
+        <v>45714.56596064815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10623,7 +10618,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10660,14 +10655,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 8001-2025</t>
+          <t>A 12215-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45707.52650462963</v>
+        <v>45729.5352662037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10679,13 +10674,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10722,14 +10712,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 50587-2022</t>
+          <t>A 56512-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44861</v>
+        <v>45625</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10742,7 +10732,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10779,14 +10769,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45056-2021</t>
+          <t>A 45101-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44439.34355324074</v>
+        <v>44439.40950231482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10799,7 +10789,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10836,14 +10826,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 44643-2021</t>
+          <t>A 56479-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44437.70806712963</v>
+        <v>45624</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10856,7 +10846,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10893,14 +10883,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 39887-2022</t>
+          <t>A 49893-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44819.64585648148</v>
+        <v>44864</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10913,7 +10903,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10950,14 +10940,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11805-2025</t>
+          <t>A 37219-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45727.88486111111</v>
+        <v>45875</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10970,7 +10960,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11007,14 +10997,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11820-2025</t>
+          <t>A 37218-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45728.32152777778</v>
+        <v>45875</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11027,7 +11017,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11064,14 +11054,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 45059-2021</t>
+          <t>A 1218-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44439.34944444444</v>
+        <v>45302</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11084,7 +11074,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11121,14 +11111,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 44644-2021</t>
+          <t>A 26441-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44437.71910879629</v>
+        <v>44738</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11141,7 +11131,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11178,14 +11168,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 58878-2023</t>
+          <t>A 37492-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45252.47113425926</v>
+        <v>44398</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11198,7 +11188,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11235,14 +11225,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59191-2023</t>
+          <t>A 11827-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45251</v>
+        <v>45728.33512731481</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11255,7 +11245,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11292,14 +11282,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59231-2023</t>
+          <t>A 6232-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45253</v>
+        <v>45337</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11312,7 +11302,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11349,14 +11339,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 650-2024</t>
+          <t>A 37700-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45299</v>
+        <v>44400</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11369,7 +11359,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11406,14 +11396,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 50035-2025</t>
+          <t>A 650-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45943.3944675926</v>
+        <v>45299</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11426,7 +11416,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11463,14 +11453,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 3645-2024</t>
+          <t>A 44396-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45321</v>
+        <v>45573</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11483,7 +11473,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11520,14 +11510,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 36581-2025</t>
+          <t>A 37920-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45869</v>
+        <v>45881.57488425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11540,7 +11530,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11577,14 +11567,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 10419-2024</t>
+          <t>A 29809-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45365</v>
+        <v>45825.75673611111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11597,7 +11587,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>7.7</v>
+        <v>3.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11634,14 +11624,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 36573-2025</t>
+          <t>A 59864-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45869</v>
+        <v>45639</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11691,14 +11681,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 45101-2021</t>
+          <t>A 37925-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44439.40950231482</v>
+        <v>45881.57799768518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11711,7 +11701,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11748,14 +11738,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 56479-2024</t>
+          <t>A 50587-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45624</v>
+        <v>44861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11768,7 +11758,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11805,14 +11795,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17388-2023</t>
+          <t>A 64722-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45035</v>
+        <v>45281</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11825,7 +11815,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11862,14 +11852,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 12215-2025</t>
+          <t>A 31833-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45729.5352662037</v>
+        <v>45509.64240740741</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11882,7 +11872,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11919,14 +11909,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 9486-2023</t>
+          <t>A 12889-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44977</v>
+        <v>45001</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11939,7 +11929,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11976,14 +11966,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 32564-2023</t>
+          <t>A 16444-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45111</v>
+        <v>45751.50175925926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11995,8 +11985,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12033,14 +12028,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 15147-2025</t>
+          <t>A 35366-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45744.45267361111</v>
+        <v>45531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12053,7 +12048,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12090,14 +12085,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 12476-2023</t>
+          <t>A 455-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44999.64097222222</v>
+        <v>45296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12110,7 +12105,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12147,14 +12142,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 51141-2025</t>
+          <t>A 46480-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45947.56348379629</v>
+        <v>44847</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12167,7 +12162,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12204,14 +12199,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 37219-2025</t>
+          <t>A 32624-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45875</v>
+        <v>45111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12224,7 +12219,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12261,14 +12256,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 37218-2025</t>
+          <t>A 20542-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45875</v>
+        <v>45436</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12281,7 +12276,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12318,14 +12313,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 14267-2024</t>
+          <t>A 22925-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45393.57178240741</v>
+        <v>45448</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12337,13 +12332,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12380,14 +12370,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8792-2023</t>
+          <t>A 10416-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44978.59072916667</v>
+        <v>45365</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12400,7 +12390,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12437,14 +12427,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 51179-2025</t>
+          <t>A 10419-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45947</v>
+        <v>45365</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12457,7 +12447,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12494,14 +12484,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 51076-2025</t>
+          <t>A 4290-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45947.46234953704</v>
+        <v>44953.60280092592</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12514,7 +12504,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12551,14 +12541,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 57289-2024</t>
+          <t>A 8792-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45629.58579861111</v>
+        <v>44978.59072916667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12571,7 +12561,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12608,14 +12598,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 51176-2025</t>
+          <t>A 35426-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45947</v>
+        <v>45146.62553240741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12628,7 +12618,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12665,14 +12655,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 51065-2025</t>
+          <t>A 25554-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45947.45203703704</v>
+        <v>45082</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12685,7 +12675,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12722,14 +12712,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 50736-2025</t>
+          <t>A 39753-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45946.36873842592</v>
+        <v>45891.41855324074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12742,7 +12732,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12779,14 +12769,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 31989-2022</t>
+          <t>A 23019-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44778.30577546296</v>
+        <v>45790</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12799,7 +12789,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12836,14 +12826,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 37920-2025</t>
+          <t>A 59965-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45881.57488425926</v>
+        <v>45257.74469907407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12856,7 +12846,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12893,14 +12883,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 37925-2025</t>
+          <t>A 15335-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45881.57799768518</v>
+        <v>44284</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12913,7 +12903,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12950,14 +12940,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 59864-2024</t>
+          <t>A 40535-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45639</v>
+        <v>45896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12970,7 +12960,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13007,14 +12997,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 29809-2025</t>
+          <t>A 58878-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45825.75673611111</v>
+        <v>45252.47113425926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13027,7 +13017,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13064,14 +13054,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 3334-2025</t>
+          <t>A 40648-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45679.71046296296</v>
+        <v>45896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13084,7 +13074,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13121,14 +13111,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 39311-2023</t>
+          <t>A 10732-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45162</v>
+        <v>45369</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13141,7 +13131,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13178,14 +13168,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 16709-2025</t>
+          <t>A 27260-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45754.47859953704</v>
+        <v>45471</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13198,7 +13188,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13235,14 +13225,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 32624-2023</t>
+          <t>A 42769-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45111</v>
+        <v>44832</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13245,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13292,14 +13282,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 8926-2022</t>
+          <t>A 6360-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44614</v>
+        <v>44965</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13311,13 +13301,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13354,14 +13339,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 7323-2025</t>
+          <t>A 60091-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45702</v>
+        <v>45258.44322916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13359,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13411,14 +13396,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 8794-2023</t>
+          <t>A 61289-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44978.59206018518</v>
+        <v>45260</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13431,7 +13416,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13468,14 +13453,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 44396-2024</t>
+          <t>A 3645-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45573</v>
+        <v>45321</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13488,7 +13473,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13525,14 +13510,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7640-2025</t>
+          <t>A 20662-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45705.77997685185</v>
+        <v>45776</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13545,7 +13530,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.5</v>
+        <v>10.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13582,14 +13567,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6232-2024</t>
+          <t>A 29203-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45337</v>
+        <v>45097</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13602,7 +13587,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13639,14 +13624,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 29176-2025</t>
+          <t>A 43775-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45821</v>
+        <v>45912.50739583333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13659,7 +13644,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13696,14 +13681,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 1196-2025</t>
+          <t>A 59200-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45666</v>
+        <v>45636</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13716,7 +13701,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>9.1</v>
+        <v>4.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13753,14 +13738,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 7596-2025</t>
+          <t>A 44363-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45705.65067129629</v>
+        <v>45915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13773,7 +13758,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13810,14 +13795,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 2470-2026</t>
+          <t>A 44718-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46037.36991898148</v>
+        <v>45917</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13830,7 +13815,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13867,14 +13852,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 2314-2026</t>
+          <t>A 44720-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46034</v>
+        <v>45917</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13887,7 +13872,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13924,14 +13909,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 2315-2026</t>
+          <t>A 55145-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46034</v>
+        <v>45621</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13944,7 +13929,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13981,14 +13966,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 23665-2021</t>
+          <t>A 45002-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44334</v>
+        <v>45575.48587962963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14001,7 +13986,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14023,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 14821-2024</t>
+          <t>A 7596-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45398.18991898148</v>
+        <v>45705.65067129629</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14043,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14080,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 59200-2024</t>
+          <t>A 13049-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45636</v>
+        <v>45002</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14115,7 +14100,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14137,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 10732-2024</t>
+          <t>A 14354-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45369</v>
+        <v>45741.36516203704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14171,8 +14156,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14199,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 61356-2025</t>
+          <t>A 14325-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46000</v>
+        <v>45393.69880787037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14228,8 +14218,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>2.7</v>
+        <v>7.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14261,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 61358-2025</t>
+          <t>A 46122-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46000</v>
+        <v>45924.58452546296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14281,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14318,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 14354-2025</t>
+          <t>A 10928-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45741.36516203704</v>
+        <v>45722.90581018518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14342,13 +14337,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>1.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14385,14 +14375,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 61818-2025</t>
+          <t>A 21159-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46003.32189814815</v>
+        <v>45779.3799074074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14405,7 +14395,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14442,14 +14432,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 6233-2024</t>
+          <t>A 47189-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45337</v>
+        <v>45930</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14462,7 +14452,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14499,14 +14489,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 1218-2024</t>
+          <t>A 47451-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45302</v>
+        <v>45930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14519,7 +14509,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14556,14 +14546,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 61802-2025</t>
+          <t>A 47365-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46002</v>
+        <v>45930</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14576,7 +14566,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14613,14 +14603,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 61807-2025</t>
+          <t>A 47358-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46002</v>
+        <v>45930</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14633,7 +14623,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14670,14 +14660,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 23166-2023</t>
+          <t>A 47516-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45075</v>
+        <v>45931.26936342593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14689,8 +14679,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>8.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14727,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 61803-2025</t>
+          <t>A 48324-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46002</v>
+        <v>45933.62864583333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14747,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14784,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 39144-2024</t>
+          <t>A 47360-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45548.6153587963</v>
+        <v>45930</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14804,7 +14799,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14841,14 +14836,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 41256-2024</t>
+          <t>A 22750-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45559</v>
+        <v>45789.61164351852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14861,7 +14856,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14898,14 +14893,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 56711-2022</t>
+          <t>A 8953-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44893.84237268518</v>
+        <v>45713.46289351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14918,7 +14913,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14955,14 +14950,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 63556-2025</t>
+          <t>A 14896-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46013.61539351852</v>
+        <v>45743.47895833333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14974,8 +14969,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15012,14 +15012,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 63406-2025</t>
+          <t>A 8954-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46012</v>
+        <v>45713.46517361111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15069,14 +15069,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 63407-2025</t>
+          <t>A 50035-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46012</v>
+        <v>45943.3944675926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15126,14 +15126,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 56526-2024</t>
+          <t>A 50736-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45625</v>
+        <v>45946.36873842592</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15183,14 +15183,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 3336-2025</t>
+          <t>A 10388-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45679.71759259259</v>
+        <v>45720.59267361111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15240,14 +15240,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 31833-2024</t>
+          <t>A 10389-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45509.64240740741</v>
+        <v>45720.59847222222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15297,14 +15297,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 37700-2021</t>
+          <t>A 11818-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44400</v>
+        <v>45728.31863425926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15354,14 +15354,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 16444-2025</t>
+          <t>A 10638-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45751.50175925926</v>
+        <v>45721</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15373,13 +15373,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>0.8</v>
+        <v>11.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15416,14 +15411,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 18685-2025</t>
+          <t>A 10393-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45763.61067129629</v>
+        <v>45720.60332175926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15436,7 +15431,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15473,14 +15468,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 18722-2025</t>
+          <t>A 51076-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45763.66126157407</v>
+        <v>45947.46234953704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15493,7 +15488,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15530,14 +15525,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 7396-2026</t>
+          <t>A 51176-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46059.37376157408</v>
+        <v>45947</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15550,7 +15545,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15587,14 +15582,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 7818-2026</t>
+          <t>A 51179-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46062.62846064815</v>
+        <v>45947</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15607,7 +15602,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15644,14 +15639,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 53823-2022</t>
+          <t>A 51141-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44880</v>
+        <v>45947.56348379629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15664,7 +15659,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15701,14 +15696,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 455-2024</t>
+          <t>A 51065-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45296</v>
+        <v>45947.45203703704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15758,14 +15753,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 35186-2024</t>
+          <t>A 13719-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45530.45280092592</v>
+        <v>45737.36446759259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15778,7 +15773,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15815,14 +15810,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 35366-2024</t>
+          <t>A 35888-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45531</v>
+        <v>45533.36006944445</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15835,7 +15830,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>14</v>
+        <v>4.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15872,14 +15867,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 20542-2024</t>
+          <t>A 13346-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45436</v>
+        <v>45735.6306712963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15892,7 +15887,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15929,14 +15924,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 14325-2024</t>
+          <t>A 59204-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45393.69880787037</v>
+        <v>44897</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15948,13 +15943,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>7.1</v>
+        <v>3.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15991,14 +15981,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 44707-2021</t>
+          <t>A 40530-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44438.36449074074</v>
+        <v>45555.60775462963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16011,7 +16001,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16048,14 +16038,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 18772-2025</t>
+          <t>A 5951-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45763</v>
+        <v>45695</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16068,7 +16058,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16105,14 +16095,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 55163-2023</t>
+          <t>A 24274-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45237</v>
+        <v>45797.44193287037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16125,7 +16115,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16162,14 +16152,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 25554-2023</t>
+          <t>A 43105-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45082</v>
+        <v>45567</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16182,7 +16172,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16219,14 +16209,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 16710-2025</t>
+          <t>A 25374-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45754</v>
+        <v>45800.63570601852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16238,8 +16228,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16276,14 +16271,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 9243-2025</t>
+          <t>A 25601-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45714.56596064815</v>
+        <v>45803.54850694445</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16295,8 +16290,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>8.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16333,14 +16333,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 12889-2023</t>
+          <t>A 29176-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45001</v>
+        <v>45821</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>8.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16390,14 +16390,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 49118-2024</t>
+          <t>A 2314-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45594.66445601852</v>
+        <v>46034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16447,14 +16447,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 64725-2023</t>
+          <t>A 2315-2026</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45281</v>
+        <v>46034</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16504,14 +16504,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 50456-2022</t>
+          <t>A 2470-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44861</v>
+        <v>46037.36991898148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16561,14 +16561,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 56512-2024</t>
+          <t>A 61356-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45625</v>
+        <v>46000</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16618,14 +16618,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 9481-2023</t>
+          <t>A 61358-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44977</v>
+        <v>46000</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16675,14 +16675,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 9483-2023</t>
+          <t>A 61803-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44977</v>
+        <v>46002</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16732,14 +16732,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 40508-2023</t>
+          <t>A 61802-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45170.40796296296</v>
+        <v>46002</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16789,14 +16789,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 32548-2024</t>
+          <t>A 61807-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45513</v>
+        <v>46002</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>10.2</v>
+        <v>1.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16846,14 +16846,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 35426-2023</t>
+          <t>A 61818-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45146.62553240741</v>
+        <v>46003.32189814815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16903,14 +16903,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 35433-2023</t>
+          <t>A 63556-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45146.62883101852</v>
+        <v>46013.61539351852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16960,14 +16960,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 27260-2024</t>
+          <t>A 63406-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45471</v>
+        <v>46012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17017,14 +17017,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 55145-2024</t>
+          <t>A 63407-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45621</v>
+        <v>46012</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17074,14 +17074,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 43097-2024</t>
+          <t>A 7396-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45567.54149305556</v>
+        <v>46059.37376157408</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17131,14 +17131,14 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 37197-2023</t>
+          <t>A 7818-2026</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45155.66857638889</v>
+        <v>46062.62846064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39553-2024</t>
+          <t>A 8924-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45551</v>
+        <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,8 +779,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>11.5</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -789,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -804,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -813,133 +818,128 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Åkergroda
+Vanlig groda
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39553-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45551</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Ärtsångare
 Grönsiska</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 8924-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44614</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Vanlig groda
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45159</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,14 +1289,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 56535-2024</t>
+          <t>A 25432-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45625</v>
+        <v>44342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>7.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,38 +1336,38 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Åkerrödtoppa</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 56535-2024 artfynd.xlsx", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 56535-2024 karta.png", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 56535-2024 FSC-klagomål.docx", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 56535-2024 FSC-klagomål mail.docx", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 56535-2024 tillsynsbegäran.docx", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 56535-2024 tillsynsbegäran mail.docx", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
         <v>44342</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,14 +1459,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 25432-2021</t>
+          <t>A 63405-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44342</v>
+        <v>46012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7.8</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1513,45 +1513,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Åkerrödtoppa</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 12709-2025</t>
+          <t>A 56535-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45733.47122685185</v>
+        <v>45625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1598,123 +1598,123 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Koppartaggsvamp</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 56535-2024 artfynd.xlsx", "A 56535-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 56535-2024 karta.png", "A 56535-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 56535-2024 FSC-klagomål.docx", "A 56535-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 56535-2024 FSC-klagomål mail.docx", "A 56535-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 56535-2024 tillsynsbegäran.docx", "A 56535-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 56535-2024 tillsynsbegäran mail.docx", "A 56535-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 12709-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45733.47122685185</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
         <v/>
       </c>
-      <c r="U13">
+      <c r="U14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 63405-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>46012</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Gropticka</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44421</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2060,14 +2060,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 47181-2021</t>
+          <t>A 25063-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44447.30079861111</v>
+        <v>44341.61608796296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2117,14 +2117,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 16284-2021</t>
+          <t>A 25066-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44292</v>
+        <v>44341.62946759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2174,14 +2174,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25063-2021</t>
+          <t>A 47181-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44341.61608796296</v>
+        <v>44447.30079861111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 25066-2021</t>
+          <t>A 16284-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44341.62946759259</v>
+        <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44846</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,14 +2915,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 44072-2021</t>
+          <t>A 33513-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44434</v>
+        <v>44377</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>44746.57121527778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,14 +3029,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33513-2021</t>
+          <t>A 44072-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44377</v>
+        <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,14 +3371,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 26333-2022</t>
+          <t>A 35673-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44735</v>
+        <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 52568-2021</t>
+          <t>A 45103-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44466</v>
+        <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52572-2021</t>
+          <t>A 60681-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44466</v>
+        <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 73609-2021</t>
+          <t>A 2640-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44552</v>
+        <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35672-2021</t>
+          <t>A 43749-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44386</v>
+        <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45062-2021</t>
+          <t>A 52568-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44439.35600694444</v>
+        <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55624-2022</t>
+          <t>A 52572-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44883</v>
+        <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14093-2021</t>
+          <t>A 35672-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44278.27473379629</v>
+        <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35673-2021</t>
+          <t>A 14093-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44386</v>
+        <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 8910-2022</t>
+          <t>A 40935-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44614</v>
+        <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3903,13 +3903,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>9.9</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3946,14 +3941,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2640-2022</t>
+          <t>A 26333-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44580</v>
+        <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3966,7 +3961,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4003,14 +3998,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40935-2021</t>
+          <t>A 73609-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44421</v>
+        <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4023,7 +4018,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4060,14 +4055,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28101-2022</t>
+          <t>A 45062-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44746.47565972222</v>
+        <v>44439.35600694444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4080,7 +4075,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4117,14 +4112,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 71009-2021</t>
+          <t>A 55624-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44538</v>
+        <v>44883</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4136,13 +4131,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4179,14 +4169,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45103-2021</t>
+          <t>A 8910-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44439.41456018519</v>
+        <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4198,8 +4188,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>9.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4236,14 +4231,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14406-2022</t>
+          <t>A 28101-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44652</v>
+        <v>44746.47565972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4256,7 +4251,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4293,14 +4288,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 21770-2021</t>
+          <t>A 71009-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44321</v>
+        <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,8 +4307,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4350,14 +4350,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10056-2022</t>
+          <t>A 14406-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4407,14 +4407,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60681-2021</t>
+          <t>A 10056-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44496.65423611111</v>
+        <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4521,14 +4521,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9423-2022</t>
+          <t>A 21770-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44616</v>
+        <v>44321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,13 +4540,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>8.6</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4583,14 +4578,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8299-2021</t>
+          <t>A 9423-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44243</v>
+        <v>44616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4602,8 +4597,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>8.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4697,14 +4697,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49365-2021</t>
+          <t>A 8299-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44454.59979166667</v>
+        <v>44243</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4754,14 +4754,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49922-2024</t>
+          <t>A 49365-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45597.57326388889</v>
+        <v>44454.59979166667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4811,14 +4811,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 16342-2025</t>
+          <t>A 11805-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45751.37185185185</v>
+        <v>44265</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4830,13 +4830,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4873,14 +4868,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11805-2021</t>
+          <t>A 34659-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44265</v>
+        <v>44382.57646990741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4893,7 +4888,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4930,14 +4925,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59373-2023</t>
+          <t>A 16511-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45253.74621527778</v>
+        <v>44293</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4950,7 +4945,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4987,14 +4982,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16511-2021</t>
+          <t>A 56517-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44293</v>
+        <v>45625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5007,7 +5002,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5044,14 +5039,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23665-2021</t>
+          <t>A 56531-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44334</v>
+        <v>45625</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5064,7 +5059,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5101,14 +5096,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39144-2024</t>
+          <t>A 5823-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45548.6153587963</v>
+        <v>45335.55476851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5116,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5158,14 +5153,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39887-2022</t>
+          <t>A 35149-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44819.64585648148</v>
+        <v>44797</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5173,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5215,14 +5210,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43749-2021</t>
+          <t>A 64350-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44433</v>
+        <v>45280</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5230,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5272,14 +5267,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3334-2025</t>
+          <t>A 16342-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45679.71046296296</v>
+        <v>45751.37185185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,8 +5286,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5329,14 +5329,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50456-2022</t>
+          <t>A 13049-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44861</v>
+        <v>45002</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5386,14 +5386,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53360-2022</t>
+          <t>A 29203-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44879.38193287037</v>
+        <v>45097</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5443,14 +5443,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56711-2022</t>
+          <t>A 58832-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44893.84237268518</v>
+        <v>45247</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5500,14 +5500,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6374-2023</t>
+          <t>A 15335-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44965.62028935185</v>
+        <v>44284</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5564,7 +5564,7 @@
         <v>45538</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5614,14 +5614,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 64350-2023</t>
+          <t>A 2633-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45280</v>
+        <v>44580</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5671,14 +5671,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 63039-2023</t>
+          <t>A 11809-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45272</v>
+        <v>45727.89780092592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5728,14 +5728,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34659-2021</t>
+          <t>A 35888-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44382.57646990741</v>
+        <v>45533.36006944445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5785,14 +5785,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 14267-2024</t>
+          <t>A 13346-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45393.57178240741</v>
+        <v>45735.6306712963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5804,13 +5804,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5847,14 +5842,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14309-2024</t>
+          <t>A 59193-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45393.66581018519</v>
+        <v>45636</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5866,13 +5861,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5909,14 +5899,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 488-2025</t>
+          <t>A 4982-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45664.45827546297</v>
+        <v>45689</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5929,7 +5919,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>9.699999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5966,14 +5956,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5823-2024</t>
+          <t>A 24274-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45335.55476851852</v>
+        <v>45797.44193287037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5986,7 +5976,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6023,14 +6013,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35149-2022</t>
+          <t>A 13719-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44797</v>
+        <v>45737.36446759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6043,7 +6033,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6080,14 +6070,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3313-2024</t>
+          <t>A 40530-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45317.4846412037</v>
+        <v>45555.60775462963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6100,7 +6090,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6137,14 +6127,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 22634-2024</t>
+          <t>A 5951-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45447.67667824074</v>
+        <v>45695</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6157,7 +6147,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6194,14 +6184,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 40505-2023</t>
+          <t>A 43105-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45170.40601851852</v>
+        <v>45567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6214,7 +6204,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6251,14 +6241,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 53823-2022</t>
+          <t>A 7396-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44880</v>
+        <v>46059.37376157408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6271,7 +6261,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6308,14 +6298,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 64725-2023</t>
+          <t>A 59204-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45281</v>
+        <v>44897</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6328,7 +6318,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6365,14 +6355,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32564-2023</t>
+          <t>A 57287-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45111</v>
+        <v>45629.58438657408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6385,7 +6375,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6422,14 +6412,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 8926-2022</t>
+          <t>A 28097-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44614</v>
+        <v>44746.47129629629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,13 +6431,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6484,14 +6469,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16710-2025</t>
+          <t>A 7818-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45754</v>
+        <v>46062.62846064815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6504,7 +6489,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6541,14 +6526,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 58832-2023</t>
+          <t>A 25374-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45247</v>
+        <v>45800.63570601852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6560,8 +6545,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6598,14 +6588,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37197-2023</t>
+          <t>A 49922-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45155.66857638889</v>
+        <v>45597.57326388889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6618,7 +6608,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6655,14 +6645,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 31989-2022</t>
+          <t>A 25601-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44778.30577546296</v>
+        <v>45803.54850694445</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6674,8 +6664,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>8.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6712,14 +6707,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 49118-2024</t>
+          <t>A 61289-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45594.66445601852</v>
+        <v>45260</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6732,7 +6727,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6769,14 +6764,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20545-2024</t>
+          <t>A 60091-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45436</v>
+        <v>45258.44322916667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6789,7 +6784,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6826,14 +6821,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49920-2024</t>
+          <t>A 26441-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45597.57233796296</v>
+        <v>44738</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6846,7 +6841,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6883,14 +6878,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27374-2025</t>
+          <t>A 63206-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45812</v>
+        <v>45273</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6940,14 +6935,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27379-2025</t>
+          <t>A 16910-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45812</v>
+        <v>45411</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6960,7 +6955,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6997,14 +6992,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41256-2024</t>
+          <t>A 27374-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45559</v>
+        <v>45812</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7017,7 +7012,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7054,14 +7049,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35429-2023</t>
+          <t>A 27379-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45146.62659722222</v>
+        <v>45812</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7074,7 +7069,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7111,14 +7106,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 35186-2024</t>
+          <t>A 29167-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45530.45280092592</v>
+        <v>45821</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7131,7 +7126,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7168,14 +7163,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 35433-2023</t>
+          <t>A 28886-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45146.62883101852</v>
+        <v>45820.62944444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7188,7 +7183,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7225,14 +7220,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43564-2024</t>
+          <t>A 29177-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45569</v>
+        <v>45821</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7245,7 +7240,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7289,7 +7284,7 @@
         <v>45820.68407407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7346,7 +7341,7 @@
         <v>45820.68806712963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7396,14 +7391,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28886-2025</t>
+          <t>A 28932-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45820.62944444444</v>
+        <v>45820.68037037037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7416,7 +7411,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7453,14 +7448,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 28932-2025</t>
+          <t>A 37492-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45820.68037037037</v>
+        <v>44398</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7473,7 +7468,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7510,14 +7505,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 23166-2023</t>
+          <t>A 39753-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45075</v>
+        <v>45891.41855324074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7530,7 +7525,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.800000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7567,14 +7562,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 29167-2025</t>
+          <t>A 42769-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45821</v>
+        <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7582,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7624,14 +7619,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 29177-2025</t>
+          <t>A 488-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45821</v>
+        <v>45664.45827546297</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7639,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7681,14 +7676,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16910-2024</t>
+          <t>A 30001-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45411</v>
+        <v>45826.52243055555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7700,8 +7695,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>45825.78273148148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7795,14 +7795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30001-2025</t>
+          <t>A 29815-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45826.52243055555</v>
+        <v>45825.81784722222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7814,13 +7814,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7857,14 +7852,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29815-2025</t>
+          <t>A 49920-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45825.81784722222</v>
+        <v>45597.57233796296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7877,7 +7872,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7914,14 +7909,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 63206-2023</t>
+          <t>A 4290-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45273</v>
+        <v>44953.60280092592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7934,7 +7929,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7971,14 +7966,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 14821-2024</t>
+          <t>A 23019-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45398.18991898148</v>
+        <v>45790</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7991,7 +7986,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8028,14 +8023,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56517-2024</t>
+          <t>A 59373-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45625</v>
+        <v>45253.74621527778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8048,7 +8043,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8085,14 +8080,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56531-2024</t>
+          <t>A 40535-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45625</v>
+        <v>45896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8105,7 +8100,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8142,14 +8137,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 9486-2023</t>
+          <t>A 35429-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44977</v>
+        <v>45146.62659722222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8162,7 +8157,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8199,14 +8194,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6233-2024</t>
+          <t>A 40648-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45337</v>
+        <v>45896</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8219,7 +8214,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8256,14 +8251,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43097-2024</t>
+          <t>A 45056-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45567.54149305556</v>
+        <v>44439.34355324074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8276,7 +8271,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8313,14 +8308,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 7640-2025</t>
+          <t>A 44643-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45705.77997685185</v>
+        <v>44437.70806712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8333,7 +8328,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8370,14 +8365,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 2633-2022</t>
+          <t>A 11805-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44580</v>
+        <v>45727.88486111111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8390,7 +8385,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8427,14 +8422,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 35435-2023</t>
+          <t>A 11820-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45146.63164351852</v>
+        <v>45728.32152777778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8442,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8484,14 +8479,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 9481-2023</t>
+          <t>A 63039-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44977</v>
+        <v>45272</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8504,7 +8499,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8541,14 +8536,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 9483-2023</t>
+          <t>A 45059-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44977</v>
+        <v>44439.34944444444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8561,7 +8556,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8598,14 +8593,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 1196-2025</t>
+          <t>A 44644-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45666</v>
+        <v>44437.71910879629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8618,7 +8613,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>9.1</v>
+        <v>1.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8655,14 +8650,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 28200-2022</t>
+          <t>A 59965-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44746</v>
+        <v>45257.74469907407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8675,7 +8670,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8712,14 +8707,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 57289-2024</t>
+          <t>A 64722-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45629.58579861111</v>
+        <v>45281</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8727,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8769,14 +8764,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 40508-2023</t>
+          <t>A 46480-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45170.40796296296</v>
+        <v>44847</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8784,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8826,14 +8821,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 39311-2023</t>
+          <t>A 49893-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45162</v>
+        <v>44864</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8846,7 +8841,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8883,14 +8878,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 32548-2024</t>
+          <t>A 3313-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45513</v>
+        <v>45317.4846412037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8903,7 +8898,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>10.2</v>
+        <v>6.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8940,14 +8935,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 55163-2023</t>
+          <t>A 10416-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45237</v>
+        <v>45365</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8955,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8997,14 +8992,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 4982-2025</t>
+          <t>A 36581-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45689</v>
+        <v>45869</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9012,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9054,14 +9049,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 8001-2025</t>
+          <t>A 36573-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45707.52650462963</v>
+        <v>45869</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,13 +9068,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9116,14 +9106,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8794-2023</t>
+          <t>A 6360-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44978.59206018518</v>
+        <v>44965</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9126,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9173,14 +9163,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 7323-2025</t>
+          <t>A 6374-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45702</v>
+        <v>44965.62028935185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9183,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9230,14 +9220,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 44643-2021</t>
+          <t>A 45101-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44437.70806712963</v>
+        <v>44439.40950231482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9250,7 +9240,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9287,14 +9277,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 59193-2024</t>
+          <t>A 56479-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45636</v>
+        <v>45624</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9297,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9344,14 +9334,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45056-2021</t>
+          <t>A 12215-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44439.34355324074</v>
+        <v>45729.5352662037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9364,7 +9354,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9401,14 +9391,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56526-2024</t>
+          <t>A 8001-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45625</v>
+        <v>45707.52650462963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,8 +9410,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9458,14 +9453,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 11820-2025</t>
+          <t>A 15147-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45728.32152777778</v>
+        <v>45744.45267361111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9478,7 +9473,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>9.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9515,14 +9510,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 3336-2025</t>
+          <t>A 50587-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45679.71759259259</v>
+        <v>44861</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9535,7 +9530,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9572,14 +9567,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 11805-2025</t>
+          <t>A 37219-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45727.88486111111</v>
+        <v>45875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9592,7 +9587,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9629,14 +9624,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 44644-2021</t>
+          <t>A 37218-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44437.71910879629</v>
+        <v>45875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9649,7 +9644,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9686,14 +9681,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17388-2023</t>
+          <t>A 39887-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45035</v>
+        <v>44819.64585648148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9706,7 +9701,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9743,14 +9738,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 45059-2021</t>
+          <t>A 20662-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44439.34944444444</v>
+        <v>45776</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9763,7 +9758,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>10.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9800,14 +9795,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11809-2025</t>
+          <t>A 37920-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45727.89780092592</v>
+        <v>45881.57488425926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9820,7 +9815,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9857,14 +9852,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 18772-2025</t>
+          <t>A 58878-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45763</v>
+        <v>45252.47113425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9877,7 +9872,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9914,14 +9909,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 12476-2023</t>
+          <t>A 37925-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44999.64097222222</v>
+        <v>45881.57799768518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9934,7 +9929,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9971,14 +9966,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18685-2025</t>
+          <t>A 43775-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45763.61067129629</v>
+        <v>45912.50739583333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9991,7 +9986,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10028,14 +10023,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 18722-2025</t>
+          <t>A 59864-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45763.66126157407</v>
+        <v>45639</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10043,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10085,14 +10080,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 59231-2023</t>
+          <t>A 59191-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45253</v>
+        <v>45251</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10100,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10142,14 +10137,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 57287-2024</t>
+          <t>A 59231-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45629.58438657408</v>
+        <v>45253</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10157,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10199,14 +10194,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16709-2025</t>
+          <t>A 29809-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45754.47859953704</v>
+        <v>45825.75673611111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10214,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10256,14 +10251,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 59191-2023</t>
+          <t>A 650-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45251</v>
+        <v>45299</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10271,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10313,14 +10308,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 36573-2025</t>
+          <t>A 44363-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45869</v>
+        <v>45915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10333,7 +10328,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10370,14 +10365,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 28097-2022</t>
+          <t>A 3645-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44746.47129629629</v>
+        <v>45321</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10390,7 +10385,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10427,14 +10422,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 15147-2025</t>
+          <t>A 44718-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45744.45267361111</v>
+        <v>45917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10447,7 +10442,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>9.4</v>
+        <v>2.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10484,14 +10479,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 36581-2025</t>
+          <t>A 44720-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45869</v>
+        <v>45917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10504,7 +10499,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10541,14 +10536,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 44707-2021</t>
+          <t>A 10419-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44438.36449074074</v>
+        <v>45365</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10561,7 +10556,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10598,14 +10593,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 9243-2025</t>
+          <t>A 17388-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45714.56596064815</v>
+        <v>45035</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10618,7 +10613,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10655,14 +10650,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 12215-2025</t>
+          <t>A 9486-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45729.5352662037</v>
+        <v>44977</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10675,7 +10670,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10712,14 +10707,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 56512-2024</t>
+          <t>A 32564-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45625</v>
+        <v>45111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10732,7 +10727,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10769,14 +10764,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45101-2021</t>
+          <t>A 12476-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44439.40950231482</v>
+        <v>44999.64097222222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10789,7 +10784,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10826,14 +10821,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56479-2024</t>
+          <t>A 14267-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45624</v>
+        <v>45393.57178240741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10845,8 +10840,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10883,14 +10883,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 49893-2022</t>
+          <t>A 8792-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44864</v>
+        <v>44978.59072916667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10940,14 +10940,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 37219-2025</t>
+          <t>A 57289-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45875</v>
+        <v>45629.58579861111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10997,14 +10997,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 37218-2025</t>
+          <t>A 46122-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45875</v>
+        <v>45924.58452546296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11054,14 +11054,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1218-2024</t>
+          <t>A 31989-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45302</v>
+        <v>44778.30577546296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11111,14 +11111,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 26441-2022</t>
+          <t>A 47365-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44738</v>
+        <v>45930</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11168,14 +11168,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 37492-2021</t>
+          <t>A 47189-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44398</v>
+        <v>45930</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11225,14 +11225,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11827-2025</t>
+          <t>A 47358-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45728.33512731481</v>
+        <v>45930</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11282,14 +11282,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6232-2024</t>
+          <t>A 47451-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45337</v>
+        <v>45930</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11339,14 +11339,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 37700-2021</t>
+          <t>A 47516-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44400</v>
+        <v>45931.26936342593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11358,8 +11358,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11396,14 +11401,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 650-2024</t>
+          <t>A 47360-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45299</v>
+        <v>45930</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11453,14 +11458,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 44396-2024</t>
+          <t>A 48324-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45573</v>
+        <v>45933.62864583333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11478,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11510,14 +11515,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 37920-2025</t>
+          <t>A 3334-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45881.57488425926</v>
+        <v>45679.71046296296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11535,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11567,14 +11572,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 29809-2025</t>
+          <t>A 39311-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45825.75673611111</v>
+        <v>45162</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11592,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11624,14 +11629,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 59864-2024</t>
+          <t>A 16709-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45639</v>
+        <v>45754.47859953704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11649,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11681,14 +11686,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 37925-2025</t>
+          <t>A 32624-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45881.57799768518</v>
+        <v>45111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11706,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11738,14 +11743,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 50587-2022</t>
+          <t>A 8926-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44861</v>
+        <v>44614</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11757,8 +11762,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11795,14 +11805,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 64722-2023</t>
+          <t>A 7323-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45281</v>
+        <v>45702</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11825,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11852,14 +11862,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 31833-2024</t>
+          <t>A 50035-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45509.64240740741</v>
+        <v>45943.3944675926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11882,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11909,14 +11919,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 12889-2023</t>
+          <t>A 8794-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45001</v>
+        <v>44978.59206018518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11939,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>8.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11966,14 +11976,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 16444-2025</t>
+          <t>A 51141-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45751.50175925926</v>
+        <v>45947.56348379629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11985,13 +11995,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12028,14 +12033,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 35366-2024</t>
+          <t>A 51179-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45531</v>
+        <v>45947</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12048,7 +12053,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>14</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12085,14 +12090,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 455-2024</t>
+          <t>A 51076-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45296</v>
+        <v>45947.46234953704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12105,7 +12110,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12142,14 +12147,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46480-2022</t>
+          <t>A 51176-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44847</v>
+        <v>45947</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12162,7 +12167,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12199,14 +12204,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 32624-2023</t>
+          <t>A 51065-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45111</v>
+        <v>45947.45203703704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,14 +12261,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 20542-2024</t>
+          <t>A 50736-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45436</v>
+        <v>45946.36873842592</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12276,7 +12281,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12313,14 +12318,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 22925-2024</t>
+          <t>A 44396-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45448</v>
+        <v>45573</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12333,7 +12338,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12370,14 +12375,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 10416-2024</t>
+          <t>A 7640-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45365</v>
+        <v>45705.77997685185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12390,7 +12395,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12427,14 +12432,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 10419-2024</t>
+          <t>A 6232-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45365</v>
+        <v>45337</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12452,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12484,14 +12489,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4290-2023</t>
+          <t>A 1196-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44953.60280092592</v>
+        <v>45666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12509,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>9.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12541,14 +12546,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 8792-2023</t>
+          <t>A 7596-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44978.59072916667</v>
+        <v>45705.65067129629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12566,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12598,14 +12603,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 35426-2023</t>
+          <t>A 23665-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45146.62553240741</v>
+        <v>44334</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12623,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12655,14 +12660,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 25554-2023</t>
+          <t>A 14821-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45082</v>
+        <v>45398.18991898148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12680,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12712,14 +12717,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 39753-2025</t>
+          <t>A 59200-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45891.41855324074</v>
+        <v>45636</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12737,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12769,14 +12774,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 23019-2025</t>
+          <t>A 10732-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45790</v>
+        <v>45369</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12794,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12826,14 +12831,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 59965-2023</t>
+          <t>A 14354-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45257.74469907407</v>
+        <v>45741.36516203704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12845,8 +12850,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12883,14 +12893,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 15335-2021</t>
+          <t>A 6233-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44284</v>
+        <v>45337</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12913,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12940,14 +12950,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 40535-2025</t>
+          <t>A 1218-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45896</v>
+        <v>45302</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12970,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12997,14 +13007,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 58878-2023</t>
+          <t>A 23166-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45252.47113425926</v>
+        <v>45075</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13027,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13054,14 +13064,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 40648-2025</t>
+          <t>A 39144-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45896</v>
+        <v>45548.6153587963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13084,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13111,14 +13121,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 10732-2024</t>
+          <t>A 29176-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45369</v>
+        <v>45821</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13141,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13168,14 +13178,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 27260-2024</t>
+          <t>A 41256-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45471</v>
+        <v>45559</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13198,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13225,14 +13235,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 42769-2022</t>
+          <t>A 56711-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44832</v>
+        <v>44893.84237268518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13245,7 +13255,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13282,14 +13292,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6360-2023</t>
+          <t>A 2470-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44965</v>
+        <v>46037.36991898148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13302,7 +13312,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13339,14 +13349,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 60091-2023</t>
+          <t>A 2314-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45258.44322916667</v>
+        <v>46034</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13369,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13396,14 +13406,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61289-2023</t>
+          <t>A 2315-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45260</v>
+        <v>46034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13416,7 +13426,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13453,14 +13463,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 3645-2024</t>
+          <t>A 56526-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45321</v>
+        <v>45625</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13473,7 +13483,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13510,14 +13520,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 20662-2025</t>
+          <t>A 3336-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45776</v>
+        <v>45679.71759259259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13530,7 +13540,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>10.3</v>
+        <v>0.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13567,14 +13577,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 29203-2023</t>
+          <t>A 31833-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45097</v>
+        <v>45509.64240740741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13587,7 +13597,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13624,14 +13634,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 43775-2025</t>
+          <t>A 37700-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45912.50739583333</v>
+        <v>44400</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13644,7 +13654,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13681,14 +13691,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 59200-2024</t>
+          <t>A 16444-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45636</v>
+        <v>45751.50175925926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13700,8 +13710,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13738,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 44363-2025</t>
+          <t>A 18685-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45915</v>
+        <v>45763.61067129629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13758,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13795,14 +13810,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 44718-2025</t>
+          <t>A 18722-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45917</v>
+        <v>45763.66126157407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13815,7 +13830,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13852,14 +13867,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 44720-2025</t>
+          <t>A 61356-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45917</v>
+        <v>46000</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13872,7 +13887,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13909,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 55145-2024</t>
+          <t>A 61358-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45621</v>
+        <v>46000</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13929,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13966,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 45002-2024</t>
+          <t>A 61818-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45575.48587962963</v>
+        <v>46003.32189814815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13986,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14023,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 7596-2025</t>
+          <t>A 61802-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45705.65067129629</v>
+        <v>46002</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14043,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14080,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 13049-2023</t>
+          <t>A 61807-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45002</v>
+        <v>46002</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14100,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14137,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 14354-2025</t>
+          <t>A 61803-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45741.36516203704</v>
+        <v>46002</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14156,13 +14171,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14199,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 14325-2024</t>
+          <t>A 53823-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45393.69880787037</v>
+        <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14218,13 +14228,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14261,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 46122-2025</t>
+          <t>A 455-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45924.58452546296</v>
+        <v>45296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14281,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14318,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 10928-2025</t>
+          <t>A 63556-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45722.90581018518</v>
+        <v>46013.61539351852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14338,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>9.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14375,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 21159-2025</t>
+          <t>A 63406-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45779.3799074074</v>
+        <v>46012</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14395,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14432,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 47189-2025</t>
+          <t>A 63407-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45930</v>
+        <v>46012</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14452,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14489,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 47451-2025</t>
+          <t>A 35186-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45930</v>
+        <v>45530.45280092592</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14509,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14546,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 47365-2025</t>
+          <t>A 35366-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45930</v>
+        <v>45531</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14566,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14603,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 47358-2025</t>
+          <t>A 20542-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45930</v>
+        <v>45436</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14623,7 +14628,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14660,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 47516-2025</t>
+          <t>A 14325-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45931.26936342593</v>
+        <v>45393.69880787037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14681,11 +14686,11 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>4.1</v>
+        <v>7.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14722,14 +14727,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 48324-2025</t>
+          <t>A 44707-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45933.62864583333</v>
+        <v>44438.36449074074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14742,7 +14747,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14779,14 +14784,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 47360-2025</t>
+          <t>A 18772-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45930</v>
+        <v>45763</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14804,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14836,14 +14841,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 22750-2025</t>
+          <t>A 55163-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45789.61164351852</v>
+        <v>45237</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14861,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14893,14 +14898,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 8953-2025</t>
+          <t>A 25554-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45713.46289351852</v>
+        <v>45082</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14918,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14950,14 +14955,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 14896-2025</t>
+          <t>A 16710-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45743.47895833333</v>
+        <v>45754</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14969,13 +14974,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15012,14 +15012,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 8954-2025</t>
+          <t>A 9243-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45713.46517361111</v>
+        <v>45714.56596064815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15069,14 +15069,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 50035-2025</t>
+          <t>A 12889-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45943.3944675926</v>
+        <v>45001</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15126,14 +15126,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 50736-2025</t>
+          <t>A 49118-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45946.36873842592</v>
+        <v>45594.66445601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15183,14 +15183,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 10388-2025</t>
+          <t>A 64725-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45720.59267361111</v>
+        <v>45281</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15240,14 +15240,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 10389-2025</t>
+          <t>A 50456-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45720.59847222222</v>
+        <v>44861</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15297,14 +15297,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 11818-2025</t>
+          <t>A 56512-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45728.31863425926</v>
+        <v>45625</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15354,14 +15354,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 10638-2025</t>
+          <t>A 9481-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45721</v>
+        <v>44977</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>11.8</v>
+        <v>5.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15411,14 +15411,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 10393-2025</t>
+          <t>A 9483-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45720.60332175926</v>
+        <v>44977</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15468,14 +15468,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 51076-2025</t>
+          <t>A 40508-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45947.46234953704</v>
+        <v>45170.40796296296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15525,14 +15525,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 51176-2025</t>
+          <t>A 32548-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45947</v>
+        <v>45513</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.5</v>
+        <v>10.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15582,14 +15582,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 51179-2025</t>
+          <t>A 35426-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45947</v>
+        <v>45146.62553240741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15639,14 +15639,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 51141-2025</t>
+          <t>A 35433-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45947.56348379629</v>
+        <v>45146.62883101852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15696,14 +15696,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 51065-2025</t>
+          <t>A 27260-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45947.45203703704</v>
+        <v>45471</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15753,14 +15753,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 13719-2025</t>
+          <t>A 55145-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45737.36446759259</v>
+        <v>45621</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15810,14 +15810,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 35888-2024</t>
+          <t>A 43097-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45533.36006944445</v>
+        <v>45567.54149305556</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15867,14 +15867,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 13346-2025</t>
+          <t>A 37197-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45735.6306712963</v>
+        <v>45155.66857638889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15924,14 +15924,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 59204-2022</t>
+          <t>A 53360-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44897</v>
+        <v>44879.38193287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15981,14 +15981,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 40530-2024</t>
+          <t>A 22925-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45555.60775462963</v>
+        <v>45448</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16038,14 +16038,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 5951-2025</t>
+          <t>A 35435-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45695</v>
+        <v>45146.63164351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16095,14 +16095,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 24274-2025</t>
+          <t>A 14309-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45797.44193287037</v>
+        <v>45393.66581018519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16114,8 +16114,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16152,14 +16157,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 43105-2024</t>
+          <t>A 40505-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45567</v>
+        <v>45170.40601851852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16172,7 +16177,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16209,14 +16214,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 25374-2025</t>
+          <t>A 11827-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45800.63570601852</v>
+        <v>45728.33512731481</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16228,13 +16233,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16271,14 +16271,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 25601-2025</t>
+          <t>A 45002-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45803.54850694445</v>
+        <v>45575.48587962963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16290,13 +16290,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>8.1</v>
+        <v>3.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16333,14 +16328,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 29176-2025</t>
+          <t>A 28200-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45821</v>
+        <v>44746</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16353,7 +16348,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16390,14 +16385,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 2314-2026</t>
+          <t>A 43564-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46034</v>
+        <v>45569</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16410,7 +16405,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16447,14 +16442,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 2315-2026</t>
+          <t>A 22634-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46034</v>
+        <v>45447.67667824074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16467,7 +16462,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16504,14 +16499,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 2470-2026</t>
+          <t>A 20545-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46037.36991898148</v>
+        <v>45436</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16524,7 +16519,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16561,14 +16556,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 61356-2025</t>
+          <t>A 10928-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46000</v>
+        <v>45722.90581018518</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16581,7 +16576,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16618,14 +16613,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 61358-2025</t>
+          <t>A 21159-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>46000</v>
+        <v>45779.3799074074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16638,7 +16633,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16675,14 +16670,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 61803-2025</t>
+          <t>A 22750-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>46002</v>
+        <v>45789.61164351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16695,7 +16690,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16732,14 +16727,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 61802-2025</t>
+          <t>A 10388-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46002</v>
+        <v>45720.59267361111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16752,7 +16747,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16789,14 +16784,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 61807-2025</t>
+          <t>A 10389-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46002</v>
+        <v>45720.59847222222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16809,7 +16804,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16846,14 +16841,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 61818-2025</t>
+          <t>A 10638-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46003.32189814815</v>
+        <v>45721</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16866,7 +16861,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>5.5</v>
+        <v>11.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16903,14 +16898,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 63556-2025</t>
+          <t>A 10393-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46013.61539351852</v>
+        <v>45720.60332175926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16923,7 +16918,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16960,14 +16955,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 63406-2025</t>
+          <t>A 14896-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46012</v>
+        <v>45743.47895833333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16979,8 +16974,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17017,14 +17017,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 63407-2025</t>
+          <t>A 8953-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46012</v>
+        <v>45713.46289351852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17074,14 +17074,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 7396-2026</t>
+          <t>A 8954-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46059.37376157408</v>
+        <v>45713.46517361111</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17131,14 +17131,14 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 7818-2026</t>
+          <t>A 11818-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>46062.62846064815</v>
+        <v>45728.31863425926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z284"/>
+  <dimension ref="A1:Z283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,14 +1204,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 37767-2023</t>
+          <t>A 12709-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45159</v>
+        <v>45733.47122685185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1224,20 +1224,20 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>21.1</v>
+        <v>0.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
@@ -1248,473 +1248,473 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 63405-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46012</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Gropticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 37767-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Sotlav</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 25432-2021</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44342</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>7.8</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Åkerrödtoppa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 25432-2021</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44342</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>7.8</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Åkerrödtoppa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 63405-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>46012</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 56535-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45625</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Gropticka</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 56535-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45625</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Koppartaggsvamp</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 56535-2024 artfynd.xlsx", "A 56535-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 56535-2024 karta.png", "A 56535-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 56535-2024 FSC-klagomål.docx", "A 56535-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 56535-2024 FSC-klagomål mail.docx", "A 56535-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 56535-2024 tillsynsbegäran.docx", "A 56535-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 56535-2024 tillsynsbegäran mail.docx", "A 56535-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 12709-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45733.47122685185</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44421</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44341.61608796296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44341.62946759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44447.30079861111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44460</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44846</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,14 +2915,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33513-2021</t>
+          <t>A 44072-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44377</v>
+        <v>44434</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>44746.57121527778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,14 +3029,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44072-2021</t>
+          <t>A 33513-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44434</v>
+        <v>44377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4055,14 +4055,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45062-2021</t>
+          <t>A 55624-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44439.35600694444</v>
+        <v>44883</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55624-2022</t>
+          <t>A 45062-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44883</v>
+        <v>44439.35600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44746.47565972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4697,14 +4697,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8299-2021</t>
+          <t>A 49365-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44243</v>
+        <v>44454.59979166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4754,14 +4754,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49365-2021</t>
+          <t>A 11805-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44454.59979166667</v>
+        <v>44265</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4811,14 +4811,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11805-2021</t>
+          <t>A 34659-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44265</v>
+        <v>44382.57646990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4868,14 +4868,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34659-2021</t>
+          <t>A 16511-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44382.57646990741</v>
+        <v>44293</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4925,14 +4925,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16511-2021</t>
+          <t>A 16342-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44293</v>
+        <v>45751.37185185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,8 +4944,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4989,7 +4994,7 @@
         <v>45625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5046,7 +5051,7 @@
         <v>45625</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5103,7 +5108,7 @@
         <v>45335.55476851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5160,7 +5165,7 @@
         <v>44797</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5210,14 +5215,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 64350-2023</t>
+          <t>A 58832-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45280</v>
+        <v>45247</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5230,7 +5235,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5267,14 +5272,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16342-2025</t>
+          <t>A 64350-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45751.37185185185</v>
+        <v>45280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5286,13 +5291,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>45002</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>45097</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5443,14 +5443,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 58832-2023</t>
+          <t>A 36894-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45247</v>
+        <v>45538</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>44284</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5557,14 +5557,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 36894-2024</t>
+          <t>A 2633-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45538</v>
+        <v>44580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5614,14 +5614,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2633-2022</t>
+          <t>A 10388-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44580</v>
+        <v>45720.59267361111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5671,14 +5671,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 11809-2025</t>
+          <t>A 10389-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45727.89780092592</v>
+        <v>45720.59847222222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5728,14 +5728,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35888-2024</t>
+          <t>A 10638-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45533.36006944445</v>
+        <v>45721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.3</v>
+        <v>11.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5785,14 +5785,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13346-2025</t>
+          <t>A 10393-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45735.6306712963</v>
+        <v>45720.60332175926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5842,14 +5842,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 59193-2024</t>
+          <t>A 11809-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45636</v>
+        <v>45727.89780092592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5899,14 +5899,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4982-2025</t>
+          <t>A 14896-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45689</v>
+        <v>45743.47895833333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5918,8 +5918,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5956,14 +5961,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24274-2025</t>
+          <t>A 8953-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45797.44193287037</v>
+        <v>45713.46289351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5976,7 +5981,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6013,14 +6018,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13719-2025</t>
+          <t>A 8954-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45737.36446759259</v>
+        <v>45713.46517361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6033,7 +6038,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6070,14 +6075,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40530-2024</t>
+          <t>A 61818-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45555.60775462963</v>
+        <v>46003.32189814815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6127,14 +6132,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5951-2025</t>
+          <t>A 11818-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45695</v>
+        <v>45728.31863425926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6147,7 +6152,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6184,14 +6189,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43105-2024</t>
+          <t>A 35888-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45567</v>
+        <v>45533.36006944445</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6204,7 +6209,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6241,14 +6246,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7396-2026</t>
+          <t>A 4982-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46059.37376157408</v>
+        <v>45689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6261,7 +6266,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6298,14 +6303,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 59204-2022</t>
+          <t>A 13346-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44897</v>
+        <v>45735.6306712963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6355,14 +6360,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 57287-2024</t>
+          <t>A 59193-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45629.58438657408</v>
+        <v>45636</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6380,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6412,14 +6417,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28097-2022</t>
+          <t>A 24274-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44746.47129629629</v>
+        <v>45797.44193287037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6432,7 +6437,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6469,14 +6474,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7818-2026</t>
+          <t>A 13719-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46062.62846064815</v>
+        <v>45737.36446759259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6489,7 +6494,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6526,14 +6531,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25374-2025</t>
+          <t>A 40530-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45800.63570601852</v>
+        <v>45555.60775462963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6545,13 +6550,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6588,14 +6588,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 49922-2024</t>
+          <t>A 5951-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45597.57326388889</v>
+        <v>45695</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6645,14 +6645,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25601-2025</t>
+          <t>A 43105-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45803.54850694445</v>
+        <v>45567</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6664,13 +6664,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>8.1</v>
+        <v>5.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6707,14 +6702,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61289-2023</t>
+          <t>A 59204-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45260</v>
+        <v>44897</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6727,7 +6722,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6764,14 +6759,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 60091-2023</t>
+          <t>A 61802-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45258.44322916667</v>
+        <v>46002</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6784,7 +6779,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6821,14 +6816,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 26441-2022</t>
+          <t>A 61807-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44738</v>
+        <v>46002</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6841,7 +6836,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6878,14 +6873,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 63206-2023</t>
+          <t>A 39753-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45273</v>
+        <v>45891.41855324074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6898,7 +6893,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6935,14 +6930,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16910-2024</t>
+          <t>A 61803-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45411</v>
+        <v>46002</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6955,7 +6950,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6992,14 +6987,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27374-2025</t>
+          <t>A 25374-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45812</v>
+        <v>45800.63570601852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7011,8 +7006,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7049,14 +7049,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27379-2025</t>
+          <t>A 57287-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45812</v>
+        <v>45629.58438657408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7106,14 +7106,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 29167-2025</t>
+          <t>A 28097-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45821</v>
+        <v>44746.47129629629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7163,14 +7163,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28886-2025</t>
+          <t>A 25601-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45820.62944444444</v>
+        <v>45803.54850694445</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7182,8 +7182,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>8.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7220,14 +7225,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29177-2025</t>
+          <t>A 23019-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45821</v>
+        <v>45790</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7240,7 +7245,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7277,14 +7282,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28933-2025</t>
+          <t>A 40535-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45820.68407407407</v>
+        <v>45896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7297,7 +7302,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7334,14 +7339,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28934-2025</t>
+          <t>A 49922-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45820.68806712963</v>
+        <v>45597.57326388889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7354,7 +7359,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7391,14 +7396,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28932-2025</t>
+          <t>A 40648-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45820.68037037037</v>
+        <v>45896</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7416,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7448,14 +7453,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 37492-2021</t>
+          <t>A 61289-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44398</v>
+        <v>45260</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7473,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7505,14 +7510,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39753-2025</t>
+          <t>A 60091-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45891.41855324074</v>
+        <v>45258.44322916667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7530,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7562,14 +7567,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 42769-2022</t>
+          <t>A 26441-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44832</v>
+        <v>44738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7582,7 +7587,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7619,14 +7624,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 488-2025</t>
+          <t>A 27374-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45664.45827546297</v>
+        <v>45812</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7639,7 +7644,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>9.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7676,14 +7681,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 30001-2025</t>
+          <t>A 27379-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45826.52243055555</v>
+        <v>45812</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7695,13 +7700,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7738,14 +7738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 29813-2025</t>
+          <t>A 63206-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45825.78273148148</v>
+        <v>45273</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7795,14 +7795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 29815-2025</t>
+          <t>A 16910-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45825.81784722222</v>
+        <v>45411</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7852,14 +7852,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49920-2024</t>
+          <t>A 29167-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45597.57233796296</v>
+        <v>45821</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7909,14 +7909,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4290-2023</t>
+          <t>A 28886-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44953.60280092592</v>
+        <v>45820.62944444444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7966,14 +7966,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 23019-2025</t>
+          <t>A 29177-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45790</v>
+        <v>45821</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8023,14 +8023,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 59373-2023</t>
+          <t>A 28933-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45253.74621527778</v>
+        <v>45820.68407407407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8080,14 +8080,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40535-2025</t>
+          <t>A 28934-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45896</v>
+        <v>45820.68806712963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8137,14 +8137,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 35429-2023</t>
+          <t>A 28932-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45146.62659722222</v>
+        <v>45820.68037037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8194,14 +8194,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40648-2025</t>
+          <t>A 20662-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45896</v>
+        <v>45776</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.7</v>
+        <v>10.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8251,14 +8251,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45056-2021</t>
+          <t>A 30001-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44439.34355324074</v>
+        <v>45826.52243055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8270,8 +8270,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8308,14 +8313,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44643-2021</t>
+          <t>A 29813-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44437.70806712963</v>
+        <v>45825.78273148148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8328,7 +8333,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8365,14 +8370,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11805-2025</t>
+          <t>A 43775-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45727.88486111111</v>
+        <v>45912.50739583333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8422,14 +8427,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 11820-2025</t>
+          <t>A 29815-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45728.32152777778</v>
+        <v>45825.81784722222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8442,7 +8447,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8479,14 +8484,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 63039-2023</t>
+          <t>A 44363-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45272</v>
+        <v>45915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8499,7 +8504,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8536,14 +8541,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45059-2021</t>
+          <t>A 37492-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44439.34944444444</v>
+        <v>44398</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8556,7 +8561,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8593,14 +8598,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44644-2021</t>
+          <t>A 44718-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44437.71910879629</v>
+        <v>45917</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8613,7 +8618,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8650,14 +8655,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 59965-2023</t>
+          <t>A 44720-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45257.74469907407</v>
+        <v>45917</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8675,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8707,14 +8712,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 64722-2023</t>
+          <t>A 42769-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45281</v>
+        <v>44832</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8727,7 +8732,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8764,14 +8769,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 46480-2022</t>
+          <t>A 488-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44847</v>
+        <v>45664.45827546297</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8784,7 +8789,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8821,14 +8826,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49893-2022</t>
+          <t>A 49920-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44864</v>
+        <v>45597.57233796296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8841,7 +8846,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8878,14 +8883,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 3313-2024</t>
+          <t>A 4290-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45317.4846412037</v>
+        <v>44953.60280092592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8898,7 +8903,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8935,14 +8940,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 10416-2024</t>
+          <t>A 46122-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45365</v>
+        <v>45924.58452546296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8955,7 +8960,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8992,14 +8997,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 36581-2025</t>
+          <t>A 63556-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45869</v>
+        <v>46013.61539351852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9012,7 +9017,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9049,14 +9054,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 36573-2025</t>
+          <t>A 59373-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45869</v>
+        <v>45253.74621527778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9069,7 +9074,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9106,14 +9111,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 6360-2023</t>
+          <t>A 35429-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44965</v>
+        <v>45146.62659722222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9163,14 +9168,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6374-2023</t>
+          <t>A 47365-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44965.62028935185</v>
+        <v>45930</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9183,7 +9188,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9220,14 +9225,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 45101-2021</t>
+          <t>A 47189-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44439.40950231482</v>
+        <v>45930</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9240,7 +9245,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9277,14 +9282,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56479-2024</t>
+          <t>A 47358-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45624</v>
+        <v>45930</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9334,14 +9339,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 12215-2025</t>
+          <t>A 47451-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45729.5352662037</v>
+        <v>45930</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9354,7 +9359,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9391,14 +9396,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 8001-2025</t>
+          <t>A 45056-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45707.52650462963</v>
+        <v>44439.34355324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,13 +9415,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9453,14 +9453,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 15147-2025</t>
+          <t>A 47516-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45744.45267361111</v>
+        <v>45931.26936342593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9472,8 +9472,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>9.4</v>
+        <v>4.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9510,14 +9515,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 50587-2022</t>
+          <t>A 44643-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44861</v>
+        <v>44437.70806712963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9530,7 +9535,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9567,14 +9572,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37219-2025</t>
+          <t>A 47360-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45875</v>
+        <v>45930</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9587,7 +9592,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9624,14 +9629,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 37218-2025</t>
+          <t>A 48324-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45875</v>
+        <v>45933.62864583333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9644,7 +9649,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9681,14 +9686,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 39887-2022</t>
+          <t>A 11805-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44819.64585648148</v>
+        <v>45727.88486111111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9701,7 +9706,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9738,14 +9743,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 20662-2025</t>
+          <t>A 11820-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45776</v>
+        <v>45728.32152777778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9758,7 +9763,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>10.3</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9795,14 +9800,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37920-2025</t>
+          <t>A 45059-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45881.57488425926</v>
+        <v>44439.34944444444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9852,14 +9857,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 58878-2023</t>
+          <t>A 44644-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45252.47113425926</v>
+        <v>44437.71910879629</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9872,7 +9877,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9909,14 +9914,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37925-2025</t>
+          <t>A 63039-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45881.57799768518</v>
+        <v>45272</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9929,7 +9934,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9966,14 +9971,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 43775-2025</t>
+          <t>A 59965-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45912.50739583333</v>
+        <v>45257.74469907407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9986,7 +9991,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10023,14 +10028,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59864-2024</t>
+          <t>A 36581-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45639</v>
+        <v>45869</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10043,7 +10048,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10080,14 +10085,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 59191-2023</t>
+          <t>A 64722-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45251</v>
+        <v>45281</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10100,7 +10105,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10137,14 +10142,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 59231-2023</t>
+          <t>A 36573-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45253</v>
+        <v>45869</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10157,7 +10162,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10194,14 +10199,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 29809-2025</t>
+          <t>A 50035-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45825.75673611111</v>
+        <v>45943.3944675926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10214,7 +10219,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10251,14 +10256,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 650-2024</t>
+          <t>A 45101-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45299</v>
+        <v>44439.40950231482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10271,7 +10276,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10308,14 +10313,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 44363-2025</t>
+          <t>A 63406-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45915</v>
+        <v>46012</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10328,7 +10333,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10365,14 +10370,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 3645-2024</t>
+          <t>A 63407-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45321</v>
+        <v>46012</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10385,7 +10390,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10422,14 +10427,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 44718-2025</t>
+          <t>A 56479-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45917</v>
+        <v>45624</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10442,7 +10447,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10479,14 +10484,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 44720-2025</t>
+          <t>A 12215-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45917</v>
+        <v>45729.5352662037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10499,7 +10504,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10536,14 +10541,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 10419-2024</t>
+          <t>A 46480-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45365</v>
+        <v>44847</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10556,7 +10561,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.7</v>
+        <v>4.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10593,14 +10598,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 17388-2023</t>
+          <t>A 15147-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45035</v>
+        <v>45744.45267361111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10618,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>9.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10650,14 +10655,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 9486-2023</t>
+          <t>A 49893-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44977</v>
+        <v>44864</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10675,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10707,14 +10712,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 32564-2023</t>
+          <t>A 37219-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45111</v>
+        <v>45875</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10732,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10764,14 +10769,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 12476-2023</t>
+          <t>A 51141-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44999.64097222222</v>
+        <v>45947.56348379629</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10789,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10821,14 +10826,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 14267-2024</t>
+          <t>A 37218-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45393.57178240741</v>
+        <v>45875</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10840,13 +10845,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10883,14 +10883,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 8792-2023</t>
+          <t>A 51179-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44978.59072916667</v>
+        <v>45947</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10940,14 +10940,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 57289-2024</t>
+          <t>A 51076-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45629.58579861111</v>
+        <v>45947.46234953704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10997,14 +10997,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 46122-2025</t>
+          <t>A 3313-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45924.58452546296</v>
+        <v>45317.4846412037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11054,14 +11054,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 31989-2022</t>
+          <t>A 51176-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44778.30577546296</v>
+        <v>45947</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11111,14 +11111,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 47365-2025</t>
+          <t>A 51065-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45930</v>
+        <v>45947.45203703704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11168,14 +11168,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 47189-2025</t>
+          <t>A 50736-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45930</v>
+        <v>45946.36873842592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11225,14 +11225,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 47358-2025</t>
+          <t>A 10416-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45930</v>
+        <v>45365</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11282,14 +11282,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47451-2025</t>
+          <t>A 37920-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45930</v>
+        <v>45881.57488425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11339,14 +11339,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 47516-2025</t>
+          <t>A 37925-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45931.26936342593</v>
+        <v>45881.57799768518</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11358,13 +11358,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11401,14 +11396,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47360-2025</t>
+          <t>A 6360-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45930</v>
+        <v>44965</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11421,7 +11416,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11458,14 +11453,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 48324-2025</t>
+          <t>A 6374-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45933.62864583333</v>
+        <v>44965.62028935185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11478,7 +11473,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11515,14 +11510,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 3334-2025</t>
+          <t>A 59864-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45679.71046296296</v>
+        <v>45639</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11535,7 +11530,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11572,14 +11567,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 39311-2023</t>
+          <t>A 29809-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45162</v>
+        <v>45825.75673611111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11592,7 +11587,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11629,14 +11624,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 16709-2025</t>
+          <t>A 8001-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45754.47859953704</v>
+        <v>45707.52650462963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11648,8 +11643,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11686,14 +11686,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 32624-2023</t>
+          <t>A 50587-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45111</v>
+        <v>44861</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11743,14 +11743,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 8926-2022</t>
+          <t>A 7396-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44614</v>
+        <v>46059.37376157408</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11762,13 +11762,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11805,14 +11800,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 7323-2025</t>
+          <t>A 39887-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45702</v>
+        <v>44819.64585648148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11825,7 +11820,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11862,14 +11857,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50035-2025</t>
+          <t>A 58878-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45943.3944675926</v>
+        <v>45252.47113425926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11882,7 +11877,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11919,14 +11914,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8794-2023</t>
+          <t>A 7818-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44978.59206018518</v>
+        <v>46062.62846064815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11939,7 +11934,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11976,14 +11971,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 51141-2025</t>
+          <t>A 59191-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45947.56348379629</v>
+        <v>45251</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11996,7 +11991,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12033,14 +12028,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 51179-2025</t>
+          <t>A 59231-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45947</v>
+        <v>45253</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12053,7 +12048,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12090,14 +12085,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 51076-2025</t>
+          <t>A 650-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45947.46234953704</v>
+        <v>45299</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12147,14 +12142,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 51176-2025</t>
+          <t>A 3645-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45947</v>
+        <v>45321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12167,7 +12162,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12204,14 +12199,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 51065-2025</t>
+          <t>A 10419-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45947.45203703704</v>
+        <v>45365</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12224,7 +12219,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.8</v>
+        <v>7.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12261,14 +12256,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50736-2025</t>
+          <t>A 17388-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45946.36873842592</v>
+        <v>45035</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12281,7 +12276,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12318,14 +12313,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 44396-2024</t>
+          <t>A 9486-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45573</v>
+        <v>44977</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12338,7 +12333,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12375,14 +12370,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 7640-2025</t>
+          <t>A 32564-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45705.77997685185</v>
+        <v>45111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12395,7 +12390,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12432,14 +12427,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 6232-2024</t>
+          <t>A 12476-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45337</v>
+        <v>44999.64097222222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12452,7 +12447,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12489,14 +12484,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 1196-2025</t>
+          <t>A 14267-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45666</v>
+        <v>45393.57178240741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12508,8 +12503,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>9.1</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12546,14 +12546,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 7596-2025</t>
+          <t>A 8792-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45705.65067129629</v>
+        <v>44978.59072916667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12603,14 +12603,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 23665-2021</t>
+          <t>A 57289-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44334</v>
+        <v>45629.58579861111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12660,14 +12660,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 14821-2024</t>
+          <t>A 31989-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45398.18991898148</v>
+        <v>44778.30577546296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12717,14 +12717,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 59200-2024</t>
+          <t>A 3334-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45636</v>
+        <v>45679.71046296296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12774,14 +12774,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 10732-2024</t>
+          <t>A 39311-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45369</v>
+        <v>45162</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12831,14 +12831,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 14354-2025</t>
+          <t>A 29176-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45741.36516203704</v>
+        <v>45821</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12850,13 +12850,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12893,14 +12888,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 6233-2024</t>
+          <t>A 16709-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45337</v>
+        <v>45754.47859953704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12913,7 +12908,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12950,14 +12945,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1218-2024</t>
+          <t>A 32624-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45302</v>
+        <v>45111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12970,7 +12965,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13007,14 +13002,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 23166-2023</t>
+          <t>A 8926-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45075</v>
+        <v>44614</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13026,8 +13021,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>8.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13064,14 +13064,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 39144-2024</t>
+          <t>A 7323-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45548.6153587963</v>
+        <v>45702</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13121,14 +13121,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 29176-2025</t>
+          <t>A 2470-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45821</v>
+        <v>46037.36991898148</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13178,14 +13178,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 41256-2024</t>
+          <t>A 2314-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45559</v>
+        <v>46034</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13235,14 +13235,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 56711-2022</t>
+          <t>A 2315-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44893.84237268518</v>
+        <v>46034</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13292,14 +13292,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 2470-2026</t>
+          <t>A 8794-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46037.36991898148</v>
+        <v>44978.59206018518</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13349,14 +13349,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 2314-2026</t>
+          <t>A 61356-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46034</v>
+        <v>46000</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13406,14 +13406,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 2315-2026</t>
+          <t>A 61358-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46034</v>
+        <v>46000</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13463,14 +13463,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 56526-2024</t>
+          <t>A 44396-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45625</v>
+        <v>45573</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13520,14 +13520,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 3336-2025</t>
+          <t>A 7640-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45679.71759259259</v>
+        <v>45705.77997685185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13577,14 +13577,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 31833-2024</t>
+          <t>A 6232-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45509.64240740741</v>
+        <v>45337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13634,14 +13634,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 37700-2021</t>
+          <t>A 1196-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44400</v>
+        <v>45666</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.5</v>
+        <v>9.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13691,14 +13691,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 16444-2025</t>
+          <t>A 7596-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45751.50175925926</v>
+        <v>45705.65067129629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13710,13 +13710,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13753,14 +13748,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 18685-2025</t>
+          <t>A 23665-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45763.61067129629</v>
+        <v>44334</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13773,7 +13768,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13810,14 +13805,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 18722-2025</t>
+          <t>A 14821-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45763.66126157407</v>
+        <v>45398.18991898148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13830,7 +13825,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13867,14 +13862,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 61356-2025</t>
+          <t>A 59200-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46000</v>
+        <v>45636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13887,7 +13882,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13924,14 +13919,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 61358-2025</t>
+          <t>A 10732-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46000</v>
+        <v>45369</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13944,7 +13939,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13981,14 +13976,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 61818-2025</t>
+          <t>A 14354-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46003.32189814815</v>
+        <v>45741.36516203704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14000,8 +13995,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61802-2025</t>
+          <t>A 6233-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46002</v>
+        <v>45337</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 61807-2025</t>
+          <t>A 1218-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46002</v>
+        <v>45302</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 61803-2025</t>
+          <t>A 23166-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46002</v>
+        <v>45075</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 53823-2022</t>
+          <t>A 39144-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44880</v>
+        <v>45548.6153587963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 455-2024</t>
+          <t>A 41256-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45296</v>
+        <v>45559</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 63556-2025</t>
+          <t>A 56711-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46013.61539351852</v>
+        <v>44893.84237268518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 63406-2025</t>
+          <t>A 56526-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46012</v>
+        <v>45625</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14437,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 63407-2025</t>
+          <t>A 3336-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46012</v>
+        <v>45679.71759259259</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 35186-2024</t>
+          <t>A 31833-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45530.45280092592</v>
+        <v>45509.64240740741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14551,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 35366-2024</t>
+          <t>A 37700-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45531</v>
+        <v>44400</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>14</v>
+        <v>5.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14608,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 20542-2024</t>
+          <t>A 16444-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45436</v>
+        <v>45751.50175925926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14627,8 +14627,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14665,14 +14670,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 14325-2024</t>
+          <t>A 18685-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45393.69880787037</v>
+        <v>45763.61067129629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14684,13 +14689,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14727,14 +14727,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 44707-2021</t>
+          <t>A 18722-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44438.36449074074</v>
+        <v>45763.66126157407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14784,14 +14784,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 18772-2025</t>
+          <t>A 53823-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45763</v>
+        <v>44880</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14841,14 +14841,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 55163-2023</t>
+          <t>A 455-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45237</v>
+        <v>45296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14898,14 +14898,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 25554-2023</t>
+          <t>A 35186-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45082</v>
+        <v>45530.45280092592</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14955,14 +14955,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 16710-2025</t>
+          <t>A 35366-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45754</v>
+        <v>45531</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.9</v>
+        <v>14</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15012,14 +15012,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 9243-2025</t>
+          <t>A 20542-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45714.56596064815</v>
+        <v>45436</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15069,14 +15069,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 12889-2023</t>
+          <t>A 14325-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45001</v>
+        <v>45393.69880787037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15088,8 +15088,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>8.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15126,14 +15131,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 49118-2024</t>
+          <t>A 44707-2021</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45594.66445601852</v>
+        <v>44438.36449074074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15151,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15183,14 +15188,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 64725-2023</t>
+          <t>A 18772-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45281</v>
+        <v>45763</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15203,7 +15208,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15240,14 +15245,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 50456-2022</t>
+          <t>A 55163-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44861</v>
+        <v>45237</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15260,7 +15265,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15297,14 +15302,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 56512-2024</t>
+          <t>A 25554-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45625</v>
+        <v>45082</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15317,7 +15322,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15354,14 +15359,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 9481-2023</t>
+          <t>A 16710-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44977</v>
+        <v>45754</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15374,7 +15379,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15411,14 +15416,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 9483-2023</t>
+          <t>A 9243-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44977</v>
+        <v>45714.56596064815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15431,7 +15436,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15468,14 +15473,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 40508-2023</t>
+          <t>A 12889-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45170.40796296296</v>
+        <v>45001</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15488,7 +15493,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15525,14 +15530,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 32548-2024</t>
+          <t>A 49118-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45513</v>
+        <v>45594.66445601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15545,7 +15550,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>10.2</v>
+        <v>1.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15582,14 +15587,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 35426-2023</t>
+          <t>A 64725-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45146.62553240741</v>
+        <v>45281</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15602,7 +15607,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15639,14 +15644,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 35433-2023</t>
+          <t>A 50456-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45146.62883101852</v>
+        <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15659,7 +15664,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15696,14 +15701,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 27260-2024</t>
+          <t>A 56512-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45471</v>
+        <v>45625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15716,7 +15721,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15753,14 +15758,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 55145-2024</t>
+          <t>A 9481-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45621</v>
+        <v>44977</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15773,7 +15778,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15810,14 +15815,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 43097-2024</t>
+          <t>A 9483-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45567.54149305556</v>
+        <v>44977</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15830,7 +15835,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15867,14 +15872,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 37197-2023</t>
+          <t>A 40508-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45155.66857638889</v>
+        <v>45170.40796296296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15887,7 +15892,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15924,14 +15929,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 53360-2022</t>
+          <t>A 32548-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44879.38193287037</v>
+        <v>45513</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15944,7 +15949,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>10.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15981,14 +15986,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 22925-2024</t>
+          <t>A 35426-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45448</v>
+        <v>45146.62553240741</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16001,7 +16006,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16038,14 +16043,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 35435-2023</t>
+          <t>A 35433-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45146.63164351852</v>
+        <v>45146.62883101852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16095,14 +16100,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 14309-2024</t>
+          <t>A 27260-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45393.66581018519</v>
+        <v>45471</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16114,13 +16119,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16157,14 +16157,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 40505-2023</t>
+          <t>A 55145-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45170.40601851852</v>
+        <v>45621</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16214,14 +16214,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 11827-2025</t>
+          <t>A 43097-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45728.33512731481</v>
+        <v>45567.54149305556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16271,14 +16271,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 45002-2024</t>
+          <t>A 37197-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45575.48587962963</v>
+        <v>45155.66857638889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16328,14 +16328,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 28200-2022</t>
+          <t>A 53360-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44746</v>
+        <v>44879.38193287037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16385,14 +16385,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 43564-2024</t>
+          <t>A 22925-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45569</v>
+        <v>45448</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16442,14 +16442,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 22634-2024</t>
+          <t>A 35435-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45447.67667824074</v>
+        <v>45146.63164351852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16499,14 +16499,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 20545-2024</t>
+          <t>A 14309-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45436</v>
+        <v>45393.66581018519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16518,8 +16518,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16556,14 +16561,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 10928-2025</t>
+          <t>A 40505-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45722.90581018518</v>
+        <v>45170.40601851852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16576,7 +16581,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>9.300000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16613,14 +16618,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 21159-2025</t>
+          <t>A 11827-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45779.3799074074</v>
+        <v>45728.33512731481</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16633,7 +16638,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16670,14 +16675,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 22750-2025</t>
+          <t>A 45002-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45789.61164351852</v>
+        <v>45575.48587962963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16690,7 +16695,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16727,14 +16732,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 10388-2025</t>
+          <t>A 28200-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45720.59267361111</v>
+        <v>44746</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16747,7 +16752,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16784,14 +16789,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 10389-2025</t>
+          <t>A 43564-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45720.59847222222</v>
+        <v>45569</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16809,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16841,14 +16846,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 10638-2025</t>
+          <t>A 22634-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45721</v>
+        <v>45447.67667824074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16866,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>11.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16898,14 +16903,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 10393-2025</t>
+          <t>A 20545-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45720.60332175926</v>
+        <v>45436</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16923,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16955,14 +16960,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 14896-2025</t>
+          <t>A 10928-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45743.47895833333</v>
+        <v>45722.90581018518</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16974,13 +16979,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>2.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17017,14 +17017,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 8953-2025</t>
+          <t>A 21159-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45713.46289351852</v>
+        <v>45779.3799074074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17071,17 +17071,17 @@
       </c>
       <c r="R282" s="2" t="inlineStr"/>
     </row>
-    <row r="283" ht="15" customHeight="1">
+    <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 8954-2025</t>
+          <t>A 22750-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45713.46517361111</v>
+        <v>45789.61164351852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17127,63 +17127,6 @@
         <v>0</v>
       </c>
       <c r="R283" s="2" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>A 11818-2025</t>
-        </is>
-      </c>
-      <c r="B284" s="1" t="n">
-        <v>45728.31863425926</v>
-      </c>
-      <c r="C284" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G284" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="n">
-        <v>0</v>
-      </c>
-      <c r="K284" t="n">
-        <v>0</v>
-      </c>
-      <c r="L284" t="n">
-        <v>0</v>
-      </c>
-      <c r="M284" t="n">
-        <v>0</v>
-      </c>
-      <c r="N284" t="n">
-        <v>0</v>
-      </c>
-      <c r="O284" t="n">
-        <v>0</v>
-      </c>
-      <c r="P284" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q284" t="n">
-        <v>0</v>
-      </c>
-      <c r="R284" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z283"/>
+  <dimension ref="A1:Z285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45733.47122685185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,14 +1293,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 63405-2025</t>
+          <t>A 37767-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46012</v>
+        <v>45159</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>21.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1347,45 +1347,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 37767-2023</t>
+          <t>A 25432-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45159</v>
+        <v>44342</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1398,17 +1398,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>21.1</v>
+        <v>7.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1432,31 +1432,31 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Åkerrödtoppa</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>44342</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,14 +1548,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 25432-2021</t>
+          <t>A 63405-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44342</v>
+        <v>46012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.8</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1602,31 +1602,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Åkerrödtoppa</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
         <v>45625</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44421</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44341.61608796296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44341.62946759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44447.30079861111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,14 +2459,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 51196-2021</t>
+          <t>A 46431-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44460</v>
+        <v>44846</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2516,14 +2516,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46431-2022</t>
+          <t>A 51196-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44846</v>
+        <v>44460</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,14 +2915,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 44072-2021</t>
+          <t>A 28167-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44434</v>
+        <v>44746.57121527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28167-2022</t>
+          <t>A 44072-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44746.57121527778</v>
+        <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>44377</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44883</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44439.35600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,14 +4231,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28101-2022</t>
+          <t>A 71009-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44746.47565972222</v>
+        <v>44538</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4250,8 +4250,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4288,14 +4293,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 71009-2021</t>
+          <t>A 14406-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44538</v>
+        <v>44652</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4307,13 +4312,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4350,14 +4350,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14406-2022</t>
+          <t>A 28101-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44652</v>
+        <v>44746.47565972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>44454.59979166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44265</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>44382.57646990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4868,14 +4868,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16511-2021</t>
+          <t>A 16342-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44293</v>
+        <v>45751.37185185185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,8 +4887,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4925,14 +4930,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16342-2025</t>
+          <t>A 16511-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45751.37185185185</v>
+        <v>44293</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4944,13 +4949,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4994,7 +4994,7 @@
         <v>45625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45625</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>45335.55476851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5158,14 +5158,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35149-2022</t>
+          <t>A 13049-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44797</v>
+        <v>45002</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5215,14 +5215,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58832-2023</t>
+          <t>A 35149-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45247</v>
+        <v>44797</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5272,14 +5272,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64350-2023</t>
+          <t>A 58832-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45280</v>
+        <v>45247</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5329,14 +5329,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13049-2023</t>
+          <t>A 64350-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45002</v>
+        <v>45280</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>45097</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5443,14 +5443,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36894-2024</t>
+          <t>A 15335-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45538</v>
+        <v>44284</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5500,14 +5500,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15335-2021</t>
+          <t>A 36894-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44284</v>
+        <v>45538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5557,14 +5557,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2633-2022</t>
+          <t>A 22750-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44580</v>
+        <v>45789.61164351852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>45720.59267361111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>45720.59847222222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>45721</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>45720.60332175926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5842,14 +5842,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11809-2025</t>
+          <t>A 14896-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45727.89780092592</v>
+        <v>45743.47895833333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5861,8 +5861,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5899,14 +5904,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14896-2025</t>
+          <t>A 8953-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45743.47895833333</v>
+        <v>45713.46289351852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5918,13 +5923,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5961,14 +5961,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8953-2025</t>
+          <t>A 8954-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45713.46289351852</v>
+        <v>45713.46517361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6018,14 +6018,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8954-2025</t>
+          <t>A 2633-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45713.46517361111</v>
+        <v>44580</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6075,14 +6075,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61818-2025</t>
+          <t>A 11818-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46003.32189814815</v>
+        <v>45728.31863425926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6132,14 +6132,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 11818-2025</t>
+          <t>A 35888-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45728.31863425926</v>
+        <v>45533.36006944445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6189,14 +6189,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35888-2024</t>
+          <t>A 13346-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45533.36006944445</v>
+        <v>45735.6306712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6246,14 +6246,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 4982-2025</t>
+          <t>A 11809-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45689</v>
+        <v>45727.89780092592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6303,14 +6303,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13346-2025</t>
+          <t>A 39753-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45735.6306712963</v>
+        <v>45891.41855324074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6360,14 +6360,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 59193-2024</t>
+          <t>A 24274-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45636</v>
+        <v>45797.44193287037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6417,14 +6417,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 24274-2025</t>
+          <t>A 13719-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45797.44193287037</v>
+        <v>45737.36446759259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6474,14 +6474,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13719-2025</t>
+          <t>A 40530-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45737.36446759259</v>
+        <v>45555.60775462963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6531,14 +6531,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40530-2024</t>
+          <t>A 5951-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45555.60775462963</v>
+        <v>45695</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6588,14 +6588,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5951-2025</t>
+          <t>A 43105-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45695</v>
+        <v>45567</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6645,14 +6645,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43105-2024</t>
+          <t>A 59204-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45567</v>
+        <v>44897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6702,14 +6702,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 59204-2022</t>
+          <t>A 4982-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44897</v>
+        <v>45689</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6759,14 +6759,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61802-2025</t>
+          <t>A 23019-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46002</v>
+        <v>45790</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6816,14 +6816,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61807-2025</t>
+          <t>A 59193-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46002</v>
+        <v>45636</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6873,14 +6873,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 39753-2025</t>
+          <t>A 40535-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45891.41855324074</v>
+        <v>45896</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6930,14 +6930,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61803-2025</t>
+          <t>A 25374-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46002</v>
+        <v>45800.63570601852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,8 +6949,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6987,14 +6992,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 25374-2025</t>
+          <t>A 40648-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45800.63570601852</v>
+        <v>45896</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7006,13 +7011,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7049,14 +7049,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 57287-2024</t>
+          <t>A 25601-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45629.58438657408</v>
+        <v>45803.54850694445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7068,8 +7068,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>3.3</v>
+        <v>8.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7106,14 +7111,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28097-2022</t>
+          <t>A 57287-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44746.47129629629</v>
+        <v>45629.58438657408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7126,7 +7131,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7163,14 +7168,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25601-2025</t>
+          <t>A 28097-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45803.54850694445</v>
+        <v>44746.47129629629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7182,13 +7187,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7225,14 +7225,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 23019-2025</t>
+          <t>A 49922-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45790</v>
+        <v>45597.57326388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7282,14 +7282,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40535-2025</t>
+          <t>A 61289-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45896</v>
+        <v>45260</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7339,14 +7339,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49922-2024</t>
+          <t>A 27374-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45597.57326388889</v>
+        <v>45812</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7396,14 +7396,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40648-2025</t>
+          <t>A 27379-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45896</v>
+        <v>45812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7453,14 +7453,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 61289-2023</t>
+          <t>A 60091-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45260</v>
+        <v>45258.44322916667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7510,14 +7510,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60091-2023</t>
+          <t>A 26441-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45258.44322916667</v>
+        <v>44738</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7567,14 +7567,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26441-2022</t>
+          <t>A 20662-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44738</v>
+        <v>45776</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>10.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7624,14 +7624,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 27374-2025</t>
+          <t>A 43775-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45812</v>
+        <v>45912.50739583333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7681,14 +7681,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27379-2025</t>
+          <t>A 63206-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45812</v>
+        <v>45273</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7738,14 +7738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 63206-2023</t>
+          <t>A 44363-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45273</v>
+        <v>45915</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7795,14 +7795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 16910-2024</t>
+          <t>A 44718-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45411</v>
+        <v>45917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7852,14 +7852,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29167-2025</t>
+          <t>A 44720-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45821</v>
+        <v>45917</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7909,14 +7909,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28886-2025</t>
+          <t>A 29167-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45820.62944444444</v>
+        <v>45821</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7966,14 +7966,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 29177-2025</t>
+          <t>A 28886-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45821</v>
+        <v>45820.62944444444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8023,14 +8023,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28933-2025</t>
+          <t>A 16910-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45820.68407407407</v>
+        <v>45411</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8080,14 +8080,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28934-2025</t>
+          <t>A 29177-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45820.68806712963</v>
+        <v>45821</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8137,14 +8137,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28932-2025</t>
+          <t>A 28933-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45820.68037037037</v>
+        <v>45820.68407407407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8194,14 +8194,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20662-2025</t>
+          <t>A 28934-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45776</v>
+        <v>45820.68806712963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>10.3</v>
+        <v>2.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8251,14 +8251,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 30001-2025</t>
+          <t>A 28932-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45826.52243055555</v>
+        <v>45820.68037037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8270,13 +8270,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8313,14 +8308,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 29813-2025</t>
+          <t>A 30001-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45825.78273148148</v>
+        <v>45826.52243055555</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8332,8 +8327,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8370,14 +8370,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 43775-2025</t>
+          <t>A 29813-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45912.50739583333</v>
+        <v>45825.78273148148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8427,14 +8427,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 29815-2025</t>
+          <t>A 46122-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45825.81784722222</v>
+        <v>45924.58452546296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8484,14 +8484,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44363-2025</t>
+          <t>A 29815-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45915</v>
+        <v>45825.81784722222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8548,7 +8548,7 @@
         <v>44398</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8598,14 +8598,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44718-2025</t>
+          <t>A 42769-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45917</v>
+        <v>44832</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8655,14 +8655,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44720-2025</t>
+          <t>A 488-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45917</v>
+        <v>45664.45827546297</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8712,14 +8712,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 42769-2022</t>
+          <t>A 49920-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44832</v>
+        <v>45597.57233796296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8769,14 +8769,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 488-2025</t>
+          <t>A 47365-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45664.45827546297</v>
+        <v>45930</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>9.699999999999999</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8826,14 +8826,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49920-2024</t>
+          <t>A 47189-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45597.57233796296</v>
+        <v>45930</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8883,14 +8883,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 4290-2023</t>
+          <t>A 47358-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44953.60280092592</v>
+        <v>45930</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8940,14 +8940,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46122-2025</t>
+          <t>A 47451-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45924.58452546296</v>
+        <v>45930</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8997,14 +8997,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 63556-2025</t>
+          <t>A 47516-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46013.61539351852</v>
+        <v>45931.26936342593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,8 +9016,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9054,14 +9059,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 59373-2023</t>
+          <t>A 47360-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45253.74621527778</v>
+        <v>45930</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9074,7 +9079,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9111,14 +9116,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35429-2023</t>
+          <t>A 4290-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45146.62659722222</v>
+        <v>44953.60280092592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9168,14 +9173,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47365-2025</t>
+          <t>A 48324-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45930</v>
+        <v>45933.62864583333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9188,7 +9193,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9225,14 +9230,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47189-2025</t>
+          <t>A 59373-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45930</v>
+        <v>45253.74621527778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9245,7 +9250,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9282,14 +9287,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 47358-2025</t>
+          <t>A 35429-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45930</v>
+        <v>45146.62659722222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9302,7 +9307,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9339,14 +9344,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 47451-2025</t>
+          <t>A 50035-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45930</v>
+        <v>45943.3944675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9359,7 +9364,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9403,7 +9408,7 @@
         <v>44439.34355324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9453,14 +9458,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 47516-2025</t>
+          <t>A 44643-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45931.26936342593</v>
+        <v>44437.70806712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9472,13 +9477,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9515,14 +9515,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 44643-2021</t>
+          <t>A 51141-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44437.70806712963</v>
+        <v>45947.56348379629</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9572,14 +9572,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47360-2025</t>
+          <t>A 11805-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45930</v>
+        <v>45727.88486111111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9629,14 +9629,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48324-2025</t>
+          <t>A 11820-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45933.62864583333</v>
+        <v>45728.32152777778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9686,14 +9686,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 11805-2025</t>
+          <t>A 51179-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45727.88486111111</v>
+        <v>45947</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9743,14 +9743,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 11820-2025</t>
+          <t>A 51076-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45728.32152777778</v>
+        <v>45947.46234953704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>44439.34944444444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9857,14 +9857,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 44644-2021</t>
+          <t>A 51176-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44437.71910879629</v>
+        <v>45947</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9914,14 +9914,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 63039-2023</t>
+          <t>A 44644-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45272</v>
+        <v>44437.71910879629</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9971,14 +9971,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59965-2023</t>
+          <t>A 51065-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45257.74469907407</v>
+        <v>45947.45203703704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10028,14 +10028,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 36581-2025</t>
+          <t>A 50736-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45869</v>
+        <v>45946.36873842592</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10085,14 +10085,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 64722-2023</t>
+          <t>A 63039-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45281</v>
+        <v>45272</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10142,14 +10142,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36573-2025</t>
+          <t>A 59965-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45869</v>
+        <v>45257.74469907407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10199,14 +10199,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 50035-2025</t>
+          <t>A 64722-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45943.3944675926</v>
+        <v>45281</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10256,14 +10256,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 45101-2021</t>
+          <t>A 46480-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44439.40950231482</v>
+        <v>44847</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10313,14 +10313,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 63406-2025</t>
+          <t>A 49893-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46012</v>
+        <v>44864</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10370,14 +10370,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 63407-2025</t>
+          <t>A 3313-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46012</v>
+        <v>45317.4846412037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.6</v>
+        <v>6.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10427,14 +10427,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 56479-2024</t>
+          <t>A 36581-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45624</v>
+        <v>45869</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10484,14 +10484,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 12215-2025</t>
+          <t>A 36573-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45729.5352662037</v>
+        <v>45869</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10541,14 +10541,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 46480-2022</t>
+          <t>A 10416-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44847</v>
+        <v>45365</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10598,14 +10598,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 15147-2025</t>
+          <t>A 45101-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45744.45267361111</v>
+        <v>44439.40950231482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10655,14 +10655,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 49893-2022</t>
+          <t>A 56479-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44864</v>
+        <v>45624</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10712,14 +10712,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 37219-2025</t>
+          <t>A 12215-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45875</v>
+        <v>45729.5352662037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10769,14 +10769,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51141-2025</t>
+          <t>A 6360-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45947.56348379629</v>
+        <v>44965</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10826,14 +10826,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 37218-2025</t>
+          <t>A 6374-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45875</v>
+        <v>44965.62028935185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10883,14 +10883,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 51179-2025</t>
+          <t>A 15147-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45947</v>
+        <v>45744.45267361111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>9.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10940,14 +10940,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51076-2025</t>
+          <t>A 8001-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45947.46234953704</v>
+        <v>45707.52650462963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10959,8 +10959,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10997,14 +11002,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3313-2024</t>
+          <t>A 50587-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45317.4846412037</v>
+        <v>44861</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11017,7 +11022,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11054,14 +11059,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51176-2025</t>
+          <t>A 37219-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45947</v>
+        <v>45875</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11074,7 +11079,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11111,14 +11116,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 51065-2025</t>
+          <t>A 37218-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45947.45203703704</v>
+        <v>45875</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11136,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11168,14 +11173,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 50736-2025</t>
+          <t>A 39887-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45946.36873842592</v>
+        <v>44819.64585648148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11193,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11225,14 +11230,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 10416-2024</t>
+          <t>A 37920-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45365</v>
+        <v>45881.57488425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11250,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11282,14 +11287,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 37920-2025</t>
+          <t>A 37925-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45881.57488425926</v>
+        <v>45881.57799768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11307,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11339,14 +11344,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 37925-2025</t>
+          <t>A 58878-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45881.57799768518</v>
+        <v>45252.47113425926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11364,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11396,14 +11401,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6360-2023</t>
+          <t>A 59864-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44965</v>
+        <v>45639</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11421,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11453,14 +11458,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 6374-2023</t>
+          <t>A 29809-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44965.62028935185</v>
+        <v>45825.75673611111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11478,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11510,14 +11515,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59864-2024</t>
+          <t>A 59191-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45639</v>
+        <v>45251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11535,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11567,14 +11572,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 29809-2025</t>
+          <t>A 59231-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45825.75673611111</v>
+        <v>45253</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11592,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11624,14 +11629,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 8001-2025</t>
+          <t>A 29176-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45707.52650462963</v>
+        <v>45821</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11643,13 +11648,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11686,14 +11686,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 50587-2022</t>
+          <t>A 650-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44861</v>
+        <v>45299</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11743,14 +11743,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 7396-2026</t>
+          <t>A 3645-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46059.37376157408</v>
+        <v>45321</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11800,14 +11800,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 39887-2022</t>
+          <t>A 10419-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44819.64585648148</v>
+        <v>45365</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.3</v>
+        <v>7.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11857,14 +11857,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 58878-2023</t>
+          <t>A 2470-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45252.47113425926</v>
+        <v>46037.36991898148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11914,14 +11914,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 7818-2026</t>
+          <t>A 2314-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46062.62846064815</v>
+        <v>46034</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11971,14 +11971,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 59191-2023</t>
+          <t>A 17388-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45251</v>
+        <v>45035</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12028,14 +12028,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 59231-2023</t>
+          <t>A 9486-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45253</v>
+        <v>44977</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12085,14 +12085,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 650-2024</t>
+          <t>A 32564-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45299</v>
+        <v>45111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12142,14 +12142,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3645-2024</t>
+          <t>A 12476-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45321</v>
+        <v>44999.64097222222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12199,14 +12199,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 10419-2024</t>
+          <t>A 2315-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45365</v>
+        <v>46034</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>7.7</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12256,14 +12256,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 17388-2023</t>
+          <t>A 14267-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45035</v>
+        <v>45393.57178240741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12275,8 +12275,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12313,14 +12318,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 9486-2023</t>
+          <t>A 8792-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44977</v>
+        <v>44978.59072916667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12333,7 +12338,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12370,14 +12375,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 32564-2023</t>
+          <t>A 57289-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45111</v>
+        <v>45629.58579861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12390,7 +12395,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12427,14 +12432,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 12476-2023</t>
+          <t>A 31989-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44999.64097222222</v>
+        <v>44778.30577546296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12452,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12484,14 +12489,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 14267-2024</t>
+          <t>A 61356-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45393.57178240741</v>
+        <v>46000</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12503,13 +12508,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12546,14 +12546,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 8792-2023</t>
+          <t>A 61358-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44978.59072916667</v>
+        <v>46000</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12603,14 +12603,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 57289-2024</t>
+          <t>A 3334-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45629.58579861111</v>
+        <v>45679.71046296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12660,14 +12660,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 31989-2022</t>
+          <t>A 61818-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44778.30577546296</v>
+        <v>46003.32189814815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12717,14 +12717,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 3334-2025</t>
+          <t>A 39311-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45679.71046296296</v>
+        <v>45162</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12774,14 +12774,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 39311-2023</t>
+          <t>A 61802-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45162</v>
+        <v>46002</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12831,14 +12831,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 29176-2025</t>
+          <t>A 61807-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45821</v>
+        <v>46002</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12888,14 +12888,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 16709-2025</t>
+          <t>A 61803-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45754.47859953704</v>
+        <v>46002</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12945,14 +12945,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 32624-2023</t>
+          <t>A 16709-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45111</v>
+        <v>45754.47859953704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13002,14 +13002,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 8926-2022</t>
+          <t>A 32624-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44614</v>
+        <v>45111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13021,13 +13021,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13064,14 +13059,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 7323-2025</t>
+          <t>A 8926-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45702</v>
+        <v>44614</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13083,8 +13078,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13121,14 +13121,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 2470-2026</t>
+          <t>A 7323-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46037.36991898148</v>
+        <v>45702</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13178,14 +13178,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 2314-2026</t>
+          <t>A 8794-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46034</v>
+        <v>44978.59206018518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13235,14 +13235,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 2315-2026</t>
+          <t>A 44396-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46034</v>
+        <v>45573</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13292,14 +13292,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 8794-2023</t>
+          <t>A 63556-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44978.59206018518</v>
+        <v>46013.61539351852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13349,14 +13349,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 61356-2025</t>
+          <t>A 63406-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46000</v>
+        <v>46012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13406,14 +13406,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61358-2025</t>
+          <t>A 63407-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46000</v>
+        <v>46012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13463,14 +13463,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 44396-2024</t>
+          <t>A 7640-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45573</v>
+        <v>45705.77997685185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13520,14 +13520,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7640-2025</t>
+          <t>A 6232-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45705.77997685185</v>
+        <v>45337</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13577,14 +13577,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6232-2024</t>
+          <t>A 7396-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45337</v>
+        <v>46059.37376157408</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13634,14 +13634,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 1196-2025</t>
+          <t>A 7818-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45666</v>
+        <v>46062.62846064815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13691,14 +13691,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 7596-2025</t>
+          <t>A 1196-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45705.65067129629</v>
+        <v>45666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.9</v>
+        <v>9.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13748,14 +13748,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 23665-2021</t>
+          <t>A 7596-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44334</v>
+        <v>45705.65067129629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13805,14 +13805,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 14821-2024</t>
+          <t>A 23665-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45398.18991898148</v>
+        <v>44334</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13862,14 +13862,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 59200-2024</t>
+          <t>A 14821-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45636</v>
+        <v>45398.18991898148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13919,14 +13919,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 10732-2024</t>
+          <t>A 59200-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45369</v>
+        <v>45636</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13976,14 +13976,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 14354-2025</t>
+          <t>A 10732-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45741.36516203704</v>
+        <v>45369</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13995,13 +13995,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14033,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 6233-2024</t>
+          <t>A 9221-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45337</v>
+        <v>46070.44648148148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14053,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14090,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 1218-2024</t>
+          <t>A 14354-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45302</v>
+        <v>45741.36516203704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14114,8 +14109,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 23166-2023</t>
+          <t>A 9226-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45075</v>
+        <v>46070.45303240741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 39144-2024</t>
+          <t>A 6233-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45548.6153587963</v>
+        <v>45337</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 41256-2024</t>
+          <t>A 1218-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45559</v>
+        <v>45302</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 56711-2022</t>
+          <t>A 23166-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44893.84237268518</v>
+        <v>45075</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 56526-2024</t>
+          <t>A 39144-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45625</v>
+        <v>45548.6153587963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14437,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 3336-2025</t>
+          <t>A 41256-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45679.71759259259</v>
+        <v>45559</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 31833-2024</t>
+          <t>A 56711-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45509.64240740741</v>
+        <v>44893.84237268518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14551,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 37700-2021</t>
+          <t>A 56526-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44400</v>
+        <v>45625</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14608,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 16444-2025</t>
+          <t>A 3336-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45751.50175925926</v>
+        <v>45679.71759259259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14627,13 +14627,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14670,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 18685-2025</t>
+          <t>A 31833-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45763.61067129629</v>
+        <v>45509.64240740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14690,7 +14685,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14727,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 18722-2025</t>
+          <t>A 37700-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45763.66126157407</v>
+        <v>44400</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14747,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14784,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 53823-2022</t>
+          <t>A 16444-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44880</v>
+        <v>45751.50175925926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14803,8 +14798,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14841,14 +14841,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 455-2024</t>
+          <t>A 18685-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45296</v>
+        <v>45763.61067129629</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14898,14 +14898,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 35186-2024</t>
+          <t>A 18722-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45530.45280092592</v>
+        <v>45763.66126157407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14955,14 +14955,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 35366-2024</t>
+          <t>A 53823-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45531</v>
+        <v>44880</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15012,14 +15012,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 20542-2024</t>
+          <t>A 455-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45436</v>
+        <v>45296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15069,14 +15069,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 14325-2024</t>
+          <t>A 35186-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45393.69880787037</v>
+        <v>45530.45280092592</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15088,13 +15088,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15131,14 +15126,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 44707-2021</t>
+          <t>A 35366-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44438.36449074074</v>
+        <v>45531</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15151,7 +15146,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.7</v>
+        <v>14</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15188,14 +15183,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 18772-2025</t>
+          <t>A 20542-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45763</v>
+        <v>45436</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15208,7 +15203,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15245,14 +15240,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 55163-2023</t>
+          <t>A 14325-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45237</v>
+        <v>45393.69880787037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15264,8 +15259,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15302,14 +15302,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 25554-2023</t>
+          <t>A 44707-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45082</v>
+        <v>44438.36449074074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15359,14 +15359,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 16710-2025</t>
+          <t>A 18772-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45754</v>
+        <v>45763</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15416,14 +15416,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 9243-2025</t>
+          <t>A 55163-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45714.56596064815</v>
+        <v>45237</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15473,14 +15473,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 12889-2023</t>
+          <t>A 25554-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45001</v>
+        <v>45082</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>8.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15530,14 +15530,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 49118-2024</t>
+          <t>A 16710-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45594.66445601852</v>
+        <v>45754</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15587,14 +15587,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 64725-2023</t>
+          <t>A 9243-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45281</v>
+        <v>45714.56596064815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15644,14 +15644,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 50456-2022</t>
+          <t>A 12889-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44861</v>
+        <v>45001</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15701,14 +15701,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 56512-2024</t>
+          <t>A 49118-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45625</v>
+        <v>45594.66445601852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15758,14 +15758,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 9481-2023</t>
+          <t>A 64725-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44977</v>
+        <v>45281</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15815,14 +15815,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 9483-2023</t>
+          <t>A 50456-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44977</v>
+        <v>44861</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15872,14 +15872,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 40508-2023</t>
+          <t>A 56512-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45170.40796296296</v>
+        <v>45625</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15929,14 +15929,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 32548-2024</t>
+          <t>A 9481-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45513</v>
+        <v>44977</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>10.2</v>
+        <v>5.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15986,14 +15986,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 35426-2023</t>
+          <t>A 9483-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45146.62553240741</v>
+        <v>44977</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16043,14 +16043,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 35433-2023</t>
+          <t>A 40508-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45146.62883101852</v>
+        <v>45170.40796296296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16100,14 +16100,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 27260-2024</t>
+          <t>A 32548-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45471</v>
+        <v>45513</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>10.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16157,14 +16157,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 55145-2024</t>
+          <t>A 35426-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45621</v>
+        <v>45146.62553240741</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16214,14 +16214,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 43097-2024</t>
+          <t>A 35433-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45567.54149305556</v>
+        <v>45146.62883101852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16271,14 +16271,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 37197-2023</t>
+          <t>A 27260-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45155.66857638889</v>
+        <v>45471</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16328,14 +16328,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 53360-2022</t>
+          <t>A 55145-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44879.38193287037</v>
+        <v>45621</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16385,14 +16385,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 22925-2024</t>
+          <t>A 43097-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45448</v>
+        <v>45567.54149305556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16442,14 +16442,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 35435-2023</t>
+          <t>A 37197-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45146.63164351852</v>
+        <v>45155.66857638889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16499,14 +16499,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 14309-2024</t>
+          <t>A 53360-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45393.66581018519</v>
+        <v>44879.38193287037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16518,13 +16518,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16561,14 +16556,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 40505-2023</t>
+          <t>A 22925-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45170.40601851852</v>
+        <v>45448</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16581,7 +16576,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16618,14 +16613,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 11827-2025</t>
+          <t>A 35435-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45728.33512731481</v>
+        <v>45146.63164351852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16638,7 +16633,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16675,14 +16670,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 45002-2024</t>
+          <t>A 14309-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45575.48587962963</v>
+        <v>45393.66581018519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16694,8 +16689,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16732,14 +16732,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 28200-2022</t>
+          <t>A 40505-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44746</v>
+        <v>45170.40601851852</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16789,14 +16789,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 43564-2024</t>
+          <t>A 11827-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45569</v>
+        <v>45728.33512731481</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16846,14 +16846,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 22634-2024</t>
+          <t>A 45002-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45447.67667824074</v>
+        <v>45575.48587962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16903,14 +16903,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 20545-2024</t>
+          <t>A 28200-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45436</v>
+        <v>44746</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16960,14 +16960,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 10928-2025</t>
+          <t>A 43564-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45722.90581018518</v>
+        <v>45569</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>9.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17017,116 +17017,230 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
+          <t>A 22634-2024</t>
+        </is>
+      </c>
+      <c r="B282" s="1" t="n">
+        <v>45447.67667824074</v>
+      </c>
+      <c r="C282" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" s="2" t="inlineStr"/>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>A 20545-2024</t>
+        </is>
+      </c>
+      <c r="B283" s="1" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C283" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" s="2" t="inlineStr"/>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>A 10928-2025</t>
+        </is>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>45722.90581018518</v>
+      </c>
+      <c r="C284" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" s="2" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
           <t>A 21159-2025</t>
         </is>
       </c>
-      <c r="B282" s="1" t="n">
+      <c r="B285" s="1" t="n">
         <v>45779.3799074074</v>
       </c>
-      <c r="C282" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G282" t="n">
+      <c r="C285" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
         <v>0.9</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="n">
-        <v>0</v>
-      </c>
-      <c r="K282" t="n">
-        <v>0</v>
-      </c>
-      <c r="L282" t="n">
-        <v>0</v>
-      </c>
-      <c r="M282" t="n">
-        <v>0</v>
-      </c>
-      <c r="N282" t="n">
-        <v>0</v>
-      </c>
-      <c r="O282" t="n">
-        <v>0</v>
-      </c>
-      <c r="P282" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q282" t="n">
-        <v>0</v>
-      </c>
-      <c r="R282" s="2" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>A 22750-2025</t>
-        </is>
-      </c>
-      <c r="B283" s="1" t="n">
-        <v>45789.61164351852</v>
-      </c>
-      <c r="C283" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G283" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="n">
-        <v>0</v>
-      </c>
-      <c r="K283" t="n">
-        <v>0</v>
-      </c>
-      <c r="L283" t="n">
-        <v>0</v>
-      </c>
-      <c r="M283" t="n">
-        <v>0</v>
-      </c>
-      <c r="N283" t="n">
-        <v>0</v>
-      </c>
-      <c r="O283" t="n">
-        <v>0</v>
-      </c>
-      <c r="P283" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q283" t="n">
-        <v>0</v>
-      </c>
-      <c r="R283" s="2" t="inlineStr"/>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z285"/>
+  <dimension ref="A1:Z286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 8924-2022</t>
+          <t>A 39553-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44614</v>
+        <v>45551</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,13 +779,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -794,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -809,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -818,128 +813,133 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Ärtsångare
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 8924-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44614</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Åkergroda
 Vanlig groda
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39553-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Ärtsångare
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,14 +1115,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2637-2022</t>
+          <t>A 25432-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44580</v>
+        <v>44342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1162,42 +1162,38 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Åkerrödtoppa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 2637-2022 artfynd.xlsx", "A 2637-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 2637-2022 karta.png", "A 2637-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 2637-2022 karta knärot.png", "A 2637-2022")</f>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 2637-2022 FSC-klagomål.docx", "A 2637-2022")</f>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 2637-2022 FSC-klagomål mail.docx", "A 2637-2022")</f>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
         <v/>
       </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 2637-2022 tillsynsbegäran.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 2637-2022 tillsynsbegäran mail.docx", "A 2637-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
         <v/>
       </c>
     </row>
@@ -1211,7 +1207,7 @@
         <v>45733.47122685185</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,14 +1289,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37767-2023</t>
+          <t>A 25432-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45159</v>
+        <v>44342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,17 +1309,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>21.1</v>
+        <v>7.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1337,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1347,289 +1343,293 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Åkerrödtoppa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 63405-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>46012</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Gropticka</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 2637-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 2637-2022 artfynd.xlsx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 2637-2022 karta.png", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 2637-2022 karta knärot.png", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 2637-2022 FSC-klagomål.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 2637-2022 FSC-klagomål mail.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 2637-2022 tillsynsbegäran.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 2637-2022 tillsynsbegäran mail.docx", "A 2637-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 37767-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Sotlav</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 25432-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Åkerrödtoppa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 25432-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Åkerrödtoppa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 63405-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>46012</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Gropticka</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45625</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 40982-2021</t>
+          <t>A 25063-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44421</v>
+        <v>44341.61608796296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2060,14 +2060,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 25063-2021</t>
+          <t>A 25066-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44341.61608796296</v>
+        <v>44341.62946759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2117,14 +2117,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 25066-2021</t>
+          <t>A 40982-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44341.62946759259</v>
+        <v>44421</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>44447.30079861111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44846</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44460</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44265</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44278</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,14 +2915,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 28167-2022</t>
+          <t>A 33513-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44746.57121527778</v>
+        <v>44377</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>44434</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,14 +3029,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33513-2021</t>
+          <t>A 28167-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44377</v>
+        <v>44746.57121527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44883</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44439.35600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44538</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4293,14 +4293,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 14406-2022</t>
+          <t>A 28101-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44652</v>
+        <v>44746.47565972222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4350,14 +4350,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28101-2022</t>
+          <t>A 14406-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44746.47565972222</v>
+        <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44616</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>44454.59979166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44265</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4811,14 +4811,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34659-2021</t>
+          <t>A 16511-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44382.57646990741</v>
+        <v>44293</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4868,14 +4868,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16342-2025</t>
+          <t>A 55145-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45751.37185185185</v>
+        <v>45621</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,13 +4887,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4930,14 +4925,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16511-2021</t>
+          <t>A 45002-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44293</v>
+        <v>45575.48587962963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4950,7 +4945,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4987,14 +4982,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56517-2024</t>
+          <t>A 7596-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45625</v>
+        <v>45705.65067129629</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5007,7 +5002,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5044,14 +5039,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56531-2024</t>
+          <t>A 13049-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45625</v>
+        <v>45002</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5064,7 +5059,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5101,14 +5096,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 5823-2024</t>
+          <t>A 14354-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45335.55476851852</v>
+        <v>45741.36516203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,8 +5115,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5158,14 +5158,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13049-2023</t>
+          <t>A 47516-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45002</v>
+        <v>45931.26936342593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,8 +5177,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5215,14 +5220,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 35149-2022</t>
+          <t>A 50456-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44797</v>
+        <v>44861</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5240,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5272,14 +5277,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58832-2023</t>
+          <t>A 14325-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45247</v>
+        <v>45393.69880787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,8 +5296,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>5.2</v>
+        <v>7.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5329,14 +5339,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 64350-2023</t>
+          <t>A 56711-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45280</v>
+        <v>44893.84237268518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5359,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5386,14 +5396,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29203-2023</t>
+          <t>A 48324-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45097</v>
+        <v>45933.62864583333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5416,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5443,14 +5453,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 15335-2021</t>
+          <t>A 47360-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44284</v>
+        <v>45930</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5473,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5500,14 +5510,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 36894-2024</t>
+          <t>A 10928-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45538</v>
+        <v>45722.90581018518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5520,7 +5530,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5557,14 +5567,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 22750-2025</t>
+          <t>A 21159-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45789.61164351852</v>
+        <v>45779.3799074074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5587,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5614,14 +5624,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 10388-2025</t>
+          <t>A 34659-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45720.59267361111</v>
+        <v>44382.57646990741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5644,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5671,14 +5681,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 10389-2025</t>
+          <t>A 14267-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45720.59847222222</v>
+        <v>45393.57178240741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5690,8 +5700,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5728,14 +5743,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10638-2025</t>
+          <t>A 14309-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45721</v>
+        <v>45393.66581018519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5747,8 +5762,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>11.8</v>
+        <v>6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5785,14 +5805,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10393-2025</t>
+          <t>A 39753-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45720.60332175926</v>
+        <v>45891.41855324074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5805,7 +5825,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5842,14 +5862,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14896-2025</t>
+          <t>A 35149-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45743.47895833333</v>
+        <v>44797</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5861,13 +5881,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5904,14 +5919,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 8953-2025</t>
+          <t>A 3313-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45713.46289351852</v>
+        <v>45317.4846412037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5924,7 +5939,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.4</v>
+        <v>6.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5961,14 +5976,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8954-2025</t>
+          <t>A 23019-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45713.46517361111</v>
+        <v>45790</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5981,7 +5996,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6018,14 +6033,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2633-2022</t>
+          <t>A 40535-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44580</v>
+        <v>45896</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6038,7 +6053,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6075,14 +6090,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 11818-2025</t>
+          <t>A 53823-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45728.31863425926</v>
+        <v>44880</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6110,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6132,14 +6147,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35888-2024</t>
+          <t>A 40648-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45533.36006944445</v>
+        <v>45896</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6152,7 +6167,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6189,14 +6204,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 13346-2025</t>
+          <t>A 22750-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45735.6306712963</v>
+        <v>45789.61164351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6209,7 +6224,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6246,14 +6261,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11809-2025</t>
+          <t>A 8953-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45727.89780092592</v>
+        <v>45713.46289351852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6266,7 +6281,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6303,14 +6318,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 39753-2025</t>
+          <t>A 14896-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45891.41855324074</v>
+        <v>45743.47895833333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,8 +6337,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6360,14 +6380,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24274-2025</t>
+          <t>A 8954-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45797.44193287037</v>
+        <v>45713.46517361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6380,7 +6400,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6417,14 +6437,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13719-2025</t>
+          <t>A 10388-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45737.36446759259</v>
+        <v>45720.59267361111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6457,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6474,14 +6494,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 40530-2024</t>
+          <t>A 10389-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45555.60775462963</v>
+        <v>45720.59847222222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6494,7 +6514,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.5</v>
+        <v>0.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6531,14 +6551,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5951-2025</t>
+          <t>A 11818-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45695</v>
+        <v>45728.31863425926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6551,7 +6571,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6588,14 +6608,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43105-2024</t>
+          <t>A 10638-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45567</v>
+        <v>45721</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6608,7 +6628,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.5</v>
+        <v>11.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6645,14 +6665,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 59204-2022</t>
+          <t>A 10393-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44897</v>
+        <v>45720.60332175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6665,7 +6685,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6702,14 +6722,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4982-2025</t>
+          <t>A 13719-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45689</v>
+        <v>45737.36446759259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6722,7 +6742,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6759,14 +6779,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 23019-2025</t>
+          <t>A 35888-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45790</v>
+        <v>45533.36006944445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6779,7 +6799,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6816,14 +6836,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 59193-2024</t>
+          <t>A 50035-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45636</v>
+        <v>45943.3944675926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6836,7 +6856,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6873,14 +6893,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40535-2025</t>
+          <t>A 50736-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45896</v>
+        <v>45946.36873842592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6893,7 +6913,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6930,14 +6950,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25374-2025</t>
+          <t>A 49922-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45800.63570601852</v>
+        <v>45597.57326388889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,13 +6969,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6992,14 +7007,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40648-2025</t>
+          <t>A 13346-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45896</v>
+        <v>45735.6306712963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7012,7 +7027,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7049,14 +7064,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25601-2025</t>
+          <t>A 51076-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45803.54850694445</v>
+        <v>45947.46234953704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7068,13 +7083,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>8.1</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7111,14 +7121,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 57287-2024</t>
+          <t>A 51176-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45629.58438657408</v>
+        <v>45947</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7131,7 +7141,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7168,14 +7178,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28097-2022</t>
+          <t>A 59373-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44746.47129629629</v>
+        <v>45253.74621527778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7188,7 +7198,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7225,14 +7235,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49922-2024</t>
+          <t>A 51179-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45597.57326388889</v>
+        <v>45947</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7245,7 +7255,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7282,14 +7292,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61289-2023</t>
+          <t>A 51141-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45260</v>
+        <v>45947.56348379629</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7302,7 +7312,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7339,14 +7349,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27374-2025</t>
+          <t>A 51065-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45812</v>
+        <v>45947.45203703704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7359,7 +7369,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7396,14 +7406,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27379-2025</t>
+          <t>A 59204-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45812</v>
+        <v>44897</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7416,7 +7426,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7453,14 +7463,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 60091-2023</t>
+          <t>A 40530-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45258.44322916667</v>
+        <v>45555.60775462963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7473,7 +7483,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7510,14 +7520,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26441-2022</t>
+          <t>A 5951-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44738</v>
+        <v>45695</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7530,7 +7540,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7567,14 +7577,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 20662-2025</t>
+          <t>A 24274-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45776</v>
+        <v>45797.44193287037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7587,7 +7597,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>10.3</v>
+        <v>3.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7624,14 +7634,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 43775-2025</t>
+          <t>A 43105-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45912.50739583333</v>
+        <v>45567</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7644,7 +7654,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7681,14 +7691,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 63206-2023</t>
+          <t>A 39887-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45273</v>
+        <v>44819.64585648148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7701,7 +7711,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7738,14 +7748,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44363-2025</t>
+          <t>A 25374-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45915</v>
+        <v>45800.63570601852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7757,8 +7767,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7795,14 +7810,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44718-2025</t>
+          <t>A 20662-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45917</v>
+        <v>45776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7830,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.1</v>
+        <v>10.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7852,14 +7867,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44720-2025</t>
+          <t>A 43775-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45917</v>
+        <v>45912.50739583333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7872,7 +7887,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7909,14 +7924,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29167-2025</t>
+          <t>A 25601-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45821</v>
+        <v>45803.54850694445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7928,8 +7943,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>8.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7966,14 +7986,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28886-2025</t>
+          <t>A 44363-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45820.62944444444</v>
+        <v>45915</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +8006,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8023,14 +8043,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 16910-2024</t>
+          <t>A 53360-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45411</v>
+        <v>44879.38193287037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8063,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8080,14 +8100,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29177-2025</t>
+          <t>A 44718-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45821</v>
+        <v>45917</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8120,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8137,14 +8157,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28933-2025</t>
+          <t>A 44720-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45820.68407407407</v>
+        <v>45917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8177,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8194,14 +8214,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28934-2025</t>
+          <t>A 36894-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45820.68806712963</v>
+        <v>45538</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8214,7 +8234,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8251,14 +8271,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 28932-2025</t>
+          <t>A 46122-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45820.68037037037</v>
+        <v>45924.58452546296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8271,7 +8291,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8308,14 +8328,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30001-2025</t>
+          <t>A 64350-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45826.52243055555</v>
+        <v>45280</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8327,13 +8347,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8370,14 +8385,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 29813-2025</t>
+          <t>A 63039-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45825.78273148148</v>
+        <v>45272</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8390,7 +8405,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8427,14 +8442,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 46122-2025</t>
+          <t>A 27374-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45924.58452546296</v>
+        <v>45812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8447,7 +8462,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8484,14 +8499,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29815-2025</t>
+          <t>A 27379-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45825.81784722222</v>
+        <v>45812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8504,7 +8519,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8541,14 +8556,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37492-2021</t>
+          <t>A 488-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44398</v>
+        <v>45664.45827546297</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8561,7 +8576,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8598,14 +8613,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 42769-2022</t>
+          <t>A 47189-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44832</v>
+        <v>45930</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8618,7 +8633,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8655,14 +8670,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 488-2025</t>
+          <t>A 47451-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45664.45827546297</v>
+        <v>45930</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8675,7 +8690,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>9.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8712,14 +8727,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49920-2024</t>
+          <t>A 47365-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45597.57233796296</v>
+        <v>45930</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8747,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8769,14 +8784,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47365-2025</t>
+          <t>A 47358-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>45930</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8804,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8826,14 +8841,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47189-2025</t>
+          <t>A 28933-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45930</v>
+        <v>45820.68407407407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8846,7 +8861,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8883,14 +8898,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47358-2025</t>
+          <t>A 28934-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45930</v>
+        <v>45820.68806712963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8903,7 +8918,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8940,14 +8955,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47451-2025</t>
+          <t>A 28886-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45930</v>
+        <v>45820.62944444444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8975,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8997,14 +9012,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47516-2025</t>
+          <t>A 28932-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45931.26936342593</v>
+        <v>45820.68037037037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,13 +9031,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9059,14 +9069,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 47360-2025</t>
+          <t>A 29167-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45930</v>
+        <v>45821</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9079,7 +9089,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9116,14 +9126,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 4290-2023</t>
+          <t>A 29177-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44953.60280092592</v>
+        <v>45821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9146,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9173,14 +9183,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 48324-2025</t>
+          <t>A 29813-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45933.62864583333</v>
+        <v>45825.78273148148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9193,7 +9203,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9230,14 +9240,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 59373-2023</t>
+          <t>A 30001-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45253.74621527778</v>
+        <v>45826.52243055555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9249,8 +9259,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9287,14 +9302,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 35429-2023</t>
+          <t>A 29815-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45146.62659722222</v>
+        <v>45825.81784722222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9307,7 +9322,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9344,14 +9359,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 50035-2025</t>
+          <t>A 8926-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45943.3944675926</v>
+        <v>44614</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9363,8 +9378,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9401,14 +9421,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45056-2021</t>
+          <t>A 16710-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44439.34355324074</v>
+        <v>45754</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9421,7 +9441,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9458,14 +9478,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 44643-2021</t>
+          <t>A 58832-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44437.70806712963</v>
+        <v>45247</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9478,7 +9498,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9515,14 +9535,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 51141-2025</t>
+          <t>A 49118-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45947.56348379629</v>
+        <v>45594.66445601852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9535,7 +9555,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9572,14 +9592,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 11805-2025</t>
+          <t>A 20545-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45727.88486111111</v>
+        <v>45436</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9592,7 +9612,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9629,14 +9649,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 11820-2025</t>
+          <t>A 49920-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45728.32152777778</v>
+        <v>45597.57233796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9649,7 +9669,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9686,14 +9706,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 51179-2025</t>
+          <t>A 41256-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45947</v>
+        <v>45559</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9743,14 +9763,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51076-2025</t>
+          <t>A 43564-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45947.46234953704</v>
+        <v>45569</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9763,7 +9783,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9800,14 +9820,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45059-2021</t>
+          <t>A 44643-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44439.34944444444</v>
+        <v>44437.70806712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9820,7 +9840,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9857,14 +9877,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 51176-2025</t>
+          <t>A 45056-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45947</v>
+        <v>44439.34355324074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9877,7 +9897,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9914,14 +9934,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 44644-2021</t>
+          <t>A 11820-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44437.71910879629</v>
+        <v>45728.32152777778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9934,7 +9954,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9971,14 +9991,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 51065-2025</t>
+          <t>A 29176-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45947.45203703704</v>
+        <v>45821</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9991,7 +10011,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10028,14 +10048,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 50736-2025</t>
+          <t>A 11805-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45946.36873842592</v>
+        <v>45727.88486111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10048,7 +10068,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10085,14 +10105,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 63039-2023</t>
+          <t>A 44644-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45272</v>
+        <v>44437.71910879629</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10105,7 +10125,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10142,14 +10162,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 59965-2023</t>
+          <t>A 45059-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45257.74469907407</v>
+        <v>44439.34944444444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10162,7 +10182,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10199,14 +10219,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 64722-2023</t>
+          <t>A 16910-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45281</v>
+        <v>45411</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10219,7 +10239,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10256,14 +10276,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 46480-2022</t>
+          <t>A 63206-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44847</v>
+        <v>45273</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10276,7 +10296,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10313,14 +10333,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49893-2022</t>
+          <t>A 9486-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44864</v>
+        <v>44977</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10333,7 +10353,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10370,14 +10390,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 3313-2024</t>
+          <t>A 43097-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45317.4846412037</v>
+        <v>45567.54149305556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10390,7 +10410,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10427,14 +10447,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 36581-2025</t>
+          <t>A 2314-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45869</v>
+        <v>46034</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10447,7 +10467,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10484,14 +10504,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 36573-2025</t>
+          <t>A 2315-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45869</v>
+        <v>46034</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10504,7 +10524,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10541,14 +10561,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 10416-2024</t>
+          <t>A 35435-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45365</v>
+        <v>45146.63164351852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10561,7 +10581,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10598,14 +10618,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 45101-2021</t>
+          <t>A 36573-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44439.40950231482</v>
+        <v>45869</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10618,7 +10638,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10655,14 +10675,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 56479-2024</t>
+          <t>A 15147-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45624</v>
+        <v>45744.45267361111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10675,7 +10695,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>9.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10712,14 +10732,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 12215-2025</t>
+          <t>A 2470-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45729.5352662037</v>
+        <v>46037.36991898148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10732,7 +10752,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10769,14 +10789,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 6360-2023</t>
+          <t>A 36581-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44965</v>
+        <v>45869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10789,7 +10809,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10826,14 +10846,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 6374-2023</t>
+          <t>A 12215-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44965.62028935185</v>
+        <v>45729.5352662037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10846,7 +10866,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10883,14 +10903,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 15147-2025</t>
+          <t>A 57289-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45744.45267361111</v>
+        <v>45629.58579861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10903,7 +10923,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>9.4</v>
+        <v>0.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10940,14 +10960,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 8001-2025</t>
+          <t>A 45101-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45707.52650462963</v>
+        <v>44439.40950231482</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10959,13 +10979,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11002,14 +11017,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 50587-2022</t>
+          <t>A 39311-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44861</v>
+        <v>45162</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11022,7 +11037,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11059,14 +11074,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 37219-2025</t>
+          <t>A 56479-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45875</v>
+        <v>45624</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11079,7 +11094,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11116,14 +11131,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 37218-2025</t>
+          <t>A 37219-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
         <v>45875</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11136,7 +11151,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11173,14 +11188,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 39887-2022</t>
+          <t>A 37218-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44819.64585648148</v>
+        <v>45875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11193,7 +11208,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11230,14 +11245,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 37920-2025</t>
+          <t>A 59193-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45881.57488425926</v>
+        <v>45636</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11287,14 +11302,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 37925-2025</t>
+          <t>A 56526-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45881.57799768518</v>
+        <v>45625</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11307,7 +11322,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11344,14 +11359,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 58878-2023</t>
+          <t>A 3336-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45252.47113425926</v>
+        <v>45679.71759259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11364,7 +11379,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11401,14 +11416,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 59864-2024</t>
+          <t>A 17388-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45639</v>
+        <v>45035</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11421,7 +11436,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11458,14 +11473,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 29809-2025</t>
+          <t>A 37920-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45825.75673611111</v>
+        <v>45881.57488425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11478,7 +11493,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11515,14 +11530,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59191-2023</t>
+          <t>A 29809-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45251</v>
+        <v>45825.75673611111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11535,7 +11550,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11572,14 +11587,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59231-2023</t>
+          <t>A 11809-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45253</v>
+        <v>45727.89780092592</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11592,7 +11607,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11629,14 +11644,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 29176-2025</t>
+          <t>A 59864-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45821</v>
+        <v>45639</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11649,7 +11664,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11686,14 +11701,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 650-2024</t>
+          <t>A 37925-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45299</v>
+        <v>45881.57799768518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11706,7 +11721,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11743,14 +11758,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 3645-2024</t>
+          <t>A 57287-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45321</v>
+        <v>45629.58438657408</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11763,7 +11778,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11800,14 +11815,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 10419-2024</t>
+          <t>A 61356-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45365</v>
+        <v>46000</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11820,7 +11835,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>7.7</v>
+        <v>2.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11857,14 +11872,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2470-2026</t>
+          <t>A 61358-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46037.36991898148</v>
+        <v>46000</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11877,7 +11892,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11914,14 +11929,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2314-2026</t>
+          <t>A 61803-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46034</v>
+        <v>46002</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11934,7 +11949,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11971,14 +11986,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17388-2023</t>
+          <t>A 44707-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45035</v>
+        <v>44438.36449074074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11991,7 +12006,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12028,14 +12043,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 9486-2023</t>
+          <t>A 61802-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44977</v>
+        <v>46002</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12048,7 +12063,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12085,14 +12100,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 32564-2023</t>
+          <t>A 61807-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45111</v>
+        <v>46002</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12105,7 +12120,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12142,14 +12157,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 12476-2023</t>
+          <t>A 56512-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44999.64097222222</v>
+        <v>45625</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12162,7 +12177,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12199,14 +12214,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 2315-2026</t>
+          <t>A 61818-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46034</v>
+        <v>46003.32189814815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12219,7 +12234,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12256,14 +12271,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 14267-2024</t>
+          <t>A 37492-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45393.57178240741</v>
+        <v>44398</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12275,13 +12290,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12318,14 +12328,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 8792-2023</t>
+          <t>A 6232-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44978.59072916667</v>
+        <v>45337</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12338,7 +12348,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12375,14 +12385,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 57289-2024</t>
+          <t>A 37700-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45629.58579861111</v>
+        <v>44400</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12395,7 +12405,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12432,14 +12442,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 31989-2022</t>
+          <t>A 31833-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44778.30577546296</v>
+        <v>45509.64240740741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12452,7 +12462,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12489,14 +12499,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 61356-2025</t>
+          <t>A 63556-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46000</v>
+        <v>46013.61539351852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12509,7 +12519,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12546,14 +12556,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61358-2025</t>
+          <t>A 20542-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46000</v>
+        <v>45436</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12566,7 +12576,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12603,14 +12613,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 3334-2025</t>
+          <t>A 63406-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45679.71046296296</v>
+        <v>46012</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12623,7 +12633,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12660,14 +12670,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61818-2025</t>
+          <t>A 63407-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46003.32189814815</v>
+        <v>46012</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12680,7 +12690,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12717,14 +12727,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 39311-2023</t>
+          <t>A 16342-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45162</v>
+        <v>45751.37185185185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12736,8 +12746,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12774,14 +12789,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61802-2025</t>
+          <t>A 23665-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46002</v>
+        <v>44334</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12794,7 +12809,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12831,14 +12846,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 61807-2025</t>
+          <t>A 39144-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46002</v>
+        <v>45548.6153587963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12851,7 +12866,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12888,14 +12903,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 61803-2025</t>
+          <t>A 7396-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46002</v>
+        <v>46059.37376157408</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12908,7 +12923,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12945,14 +12960,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 16709-2025</t>
+          <t>A 3334-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45754.47859953704</v>
+        <v>45679.71046296296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12965,7 +12980,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13002,14 +13017,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 32624-2023</t>
+          <t>A 6374-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45111</v>
+        <v>44965.62028935185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13037,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13059,14 +13074,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 8926-2022</t>
+          <t>A 9226-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44614</v>
+        <v>46070.45303240741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13078,13 +13093,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13121,14 +13131,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 7323-2025</t>
+          <t>A 5823-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45702</v>
+        <v>45335.55476851852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13141,7 +13151,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13178,14 +13188,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 8794-2023</t>
+          <t>A 22634-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44978.59206018518</v>
+        <v>45447.67667824074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13198,7 +13208,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13235,14 +13245,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 44396-2024</t>
+          <t>A 9221-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45573</v>
+        <v>46070.44648148148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13265,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13292,14 +13302,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 63556-2025</t>
+          <t>A 40505-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46013.61539351852</v>
+        <v>45170.40601851852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13312,7 +13322,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13349,14 +13359,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 63406-2025</t>
+          <t>A 64725-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46012</v>
+        <v>45281</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13369,7 +13379,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13406,14 +13416,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 63407-2025</t>
+          <t>A 32564-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46012</v>
+        <v>45111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13426,7 +13436,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13463,14 +13473,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 7640-2025</t>
+          <t>A 7818-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45705.77997685185</v>
+        <v>46062</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13483,7 +13493,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13520,14 +13530,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 6232-2024</t>
+          <t>A 9742-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45337</v>
+        <v>46072.51445601852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13539,8 +13549,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13577,14 +13592,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 7396-2026</t>
+          <t>A 31989-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46059.37376157408</v>
+        <v>44778.30577546296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13597,7 +13612,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13634,14 +13649,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 7818-2026</t>
+          <t>A 35429-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46062.62846064815</v>
+        <v>45146.62659722222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13654,7 +13669,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13691,14 +13706,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 1196-2025</t>
+          <t>A 35186-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45666</v>
+        <v>45530.45280092592</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13711,7 +13726,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>9.1</v>
+        <v>1.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13748,14 +13763,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 7596-2025</t>
+          <t>A 35433-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45705.65067129629</v>
+        <v>45146.62883101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13768,7 +13783,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13805,14 +13820,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 23665-2021</t>
+          <t>A 23166-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44334</v>
+        <v>45075</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13825,7 +13840,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13869,7 +13884,7 @@
         <v>45398.18991898148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,14 +13934,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 59200-2024</t>
+          <t>A 56517-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45636</v>
+        <v>45625</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13939,7 +13954,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13976,14 +13991,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 10732-2024</t>
+          <t>A 56531-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45369</v>
+        <v>45625</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13996,7 +14011,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14033,14 +14048,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 9221-2026</t>
+          <t>A 6233-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46070.44648148148</v>
+        <v>45337</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14053,7 +14068,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14090,14 +14105,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 14354-2025</t>
+          <t>A 2633-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45741.36516203704</v>
+        <v>44580</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14109,13 +14124,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14162,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 9226-2026</t>
+          <t>A 1196-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46070.45303240741</v>
+        <v>45666</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14182,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14219,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 6233-2024</t>
+          <t>A 40508-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45337</v>
+        <v>45170.40796296296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14239,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14276,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 1218-2024</t>
+          <t>A 8001-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45302</v>
+        <v>45707.52650462963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14285,8 +14295,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14338,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 23166-2023</t>
+          <t>A 7323-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45075</v>
+        <v>45702</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14358,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>8.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14395,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 39144-2024</t>
+          <t>A 18685-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45548.6153587963</v>
+        <v>45763.61067129629</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14400,7 +14415,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14437,14 +14452,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 41256-2024</t>
+          <t>A 18722-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45559</v>
+        <v>45763.66126157407</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14472,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14509,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 56711-2022</t>
+          <t>A 59231-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44893.84237268518</v>
+        <v>45253</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14514,7 +14529,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14551,14 +14566,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 56526-2024</t>
+          <t>A 16709-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45625</v>
+        <v>45754.47859953704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14571,7 +14586,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14608,14 +14623,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 3336-2025</t>
+          <t>A 59191-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45679.71759259259</v>
+        <v>45251</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14628,7 +14643,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14665,14 +14680,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 31833-2024</t>
+          <t>A 28097-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45509.64240740741</v>
+        <v>44746.47129629629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14685,7 +14700,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14722,14 +14737,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 37700-2021</t>
+          <t>A 9243-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44400</v>
+        <v>45714.56596064815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14742,7 +14757,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14779,14 +14794,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 16444-2025</t>
+          <t>A 49893-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45751.50175925926</v>
+        <v>44864</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14798,13 +14813,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14841,14 +14851,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 18685-2025</t>
+          <t>A 1218-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45763.61067129629</v>
+        <v>45302</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14861,7 +14871,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14898,14 +14908,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 18722-2025</t>
+          <t>A 26441-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45763.66126157407</v>
+        <v>44738</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14918,7 +14928,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14955,14 +14965,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 53823-2022</t>
+          <t>A 11827-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44880</v>
+        <v>45728.33512731481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14985,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15012,14 +15022,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 455-2024</t>
+          <t>A 650-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15042,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15069,14 +15079,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 35186-2024</t>
+          <t>A 50587-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45530.45280092592</v>
+        <v>44861</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15099,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15126,14 +15136,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 35366-2024</t>
+          <t>A 16444-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45531</v>
+        <v>45751.50175925926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15145,8 +15155,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>14</v>
+        <v>0.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15183,14 +15198,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 20542-2024</t>
+          <t>A 35366-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45436</v>
+        <v>45531</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15203,7 +15218,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.9</v>
+        <v>14</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15240,14 +15255,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 14325-2024</t>
+          <t>A 455-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45393.69880787037</v>
+        <v>45296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15259,13 +15274,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>7.1</v>
+        <v>0.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15302,14 +15312,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 44707-2021</t>
+          <t>A 46480-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44438.36449074074</v>
+        <v>44847</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15322,7 +15332,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15359,14 +15369,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 18772-2025</t>
+          <t>A 22925-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45763</v>
+        <v>45448</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15379,7 +15389,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15416,14 +15426,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 55163-2023</t>
+          <t>A 4290-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45237</v>
+        <v>44953.60280092592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15436,7 +15446,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15473,14 +15483,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 25554-2023</t>
+          <t>A 8792-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45082</v>
+        <v>44978.59072916667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15493,7 +15503,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15530,14 +15540,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 16710-2025</t>
+          <t>A 37197-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45754</v>
+        <v>45155.66857638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15550,7 +15560,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15587,14 +15597,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 9243-2025</t>
+          <t>A 7640-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45714.56596064815</v>
+        <v>45705.77997685185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15607,7 +15617,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15644,14 +15654,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 12889-2023</t>
+          <t>A 9481-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45001</v>
+        <v>44977</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15664,7 +15674,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>8.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15701,14 +15711,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 49118-2024</t>
+          <t>A 9483-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45594.66445601852</v>
+        <v>44977</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15721,7 +15731,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15758,14 +15768,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 64725-2023</t>
+          <t>A 28200-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45281</v>
+        <v>44746</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15778,7 +15788,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15815,14 +15825,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 50456-2022</t>
+          <t>A 32548-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44861</v>
+        <v>45513</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15835,7 +15845,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.6</v>
+        <v>10.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15872,14 +15882,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 56512-2024</t>
+          <t>A 55163-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45625</v>
+        <v>45237</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15892,7 +15902,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15929,14 +15939,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 9481-2023</t>
+          <t>A 4982-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44977</v>
+        <v>45689</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15949,7 +15959,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15986,14 +15996,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 9483-2023</t>
+          <t>A 8794-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44977</v>
+        <v>44978.59206018518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16006,7 +16016,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16043,14 +16053,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 40508-2023</t>
+          <t>A 18772-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45170.40796296296</v>
+        <v>45763</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16063,7 +16073,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16100,14 +16110,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 32548-2024</t>
+          <t>A 12476-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45513</v>
+        <v>44999.64097222222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16120,7 +16130,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>10.2</v>
+        <v>3.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16157,14 +16167,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 35426-2023</t>
+          <t>A 44396-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45146.62553240741</v>
+        <v>45573</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16177,7 +16187,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16214,14 +16224,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 35433-2023</t>
+          <t>A 64722-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45146.62883101852</v>
+        <v>45281</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16234,7 +16244,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16271,14 +16281,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 27260-2024</t>
+          <t>A 12889-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45471</v>
+        <v>45001</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16291,7 +16301,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16328,14 +16338,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 55145-2024</t>
+          <t>A 32624-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45621</v>
+        <v>45111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16348,7 +16358,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16385,14 +16395,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 43097-2024</t>
+          <t>A 10416-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45567.54149305556</v>
+        <v>45365</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16405,7 +16415,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16442,14 +16452,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 37197-2023</t>
+          <t>A 10419-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45155.66857638889</v>
+        <v>45365</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16462,7 +16472,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16499,14 +16509,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 53360-2022</t>
+          <t>A 35426-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44879.38193287037</v>
+        <v>45146.62553240741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16519,7 +16529,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16556,14 +16566,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 22925-2024</t>
+          <t>A 25554-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45448</v>
+        <v>45082</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16576,7 +16586,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16613,14 +16623,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 35435-2023</t>
+          <t>A 59965-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45146.63164351852</v>
+        <v>45257.74469907407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16633,7 +16643,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16670,14 +16680,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 14309-2024</t>
+          <t>A 15335-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45393.66581018519</v>
+        <v>44284</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16689,13 +16699,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16732,14 +16737,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 40505-2023</t>
+          <t>A 58878-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45170.40601851852</v>
+        <v>45252.47113425926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16752,7 +16757,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16789,14 +16794,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 11827-2025</t>
+          <t>A 10732-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45728.33512731481</v>
+        <v>45369</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16846,14 +16851,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 45002-2024</t>
+          <t>A 27260-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45575.48587962963</v>
+        <v>45471</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16866,7 +16871,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16903,14 +16908,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 28200-2022</t>
+          <t>A 42769-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44746</v>
+        <v>44832</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16923,7 +16928,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16960,14 +16965,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 43564-2024</t>
+          <t>A 6360-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45569</v>
+        <v>44965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16980,7 +16985,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17017,14 +17022,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 22634-2024</t>
+          <t>A 60091-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45447.67667824074</v>
+        <v>45258.44322916667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17037,7 +17042,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>8.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17074,14 +17079,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 20545-2024</t>
+          <t>A 61289-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45436</v>
+        <v>45260</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17094,7 +17099,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17131,14 +17136,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 10928-2025</t>
+          <t>A 3645-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45722.90581018518</v>
+        <v>45321</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17151,7 +17156,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17185,17 +17190,17 @@
       </c>
       <c r="R284" s="2" t="inlineStr"/>
     </row>
-    <row r="285">
+    <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 21159-2025</t>
+          <t>A 29203-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45779.3799074074</v>
+        <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17208,7 +17213,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17241,6 +17246,63 @@
         <v>0</v>
       </c>
       <c r="R285" s="2" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>A 59200-2024</t>
+        </is>
+      </c>
+      <c r="B286" s="1" t="n">
+        <v>45636</v>
+      </c>
+      <c r="C286" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39553-2024</t>
+          <t>A 8924-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45551</v>
+        <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,8 +779,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>11.5</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -789,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -804,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -813,133 +818,128 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Åkergroda
+Vanlig groda
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39553-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45551</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Ärtsångare
 Grönsiska</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 8924-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44614</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Vanlig groda
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,14 +1115,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25432-2021</t>
+          <t>A 2637-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44342</v>
+        <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1162,52 +1162,56 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Åkerrödtoppa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 2637-2022 artfynd.xlsx", "A 2637-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 2637-2022 karta.png", "A 2637-2022")</f>
         <v/>
       </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 2637-2022 karta knärot.png", "A 2637-2022")</f>
+        <v/>
+      </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 2637-2022 FSC-klagomål.docx", "A 2637-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 2637-2022 FSC-klagomål mail.docx", "A 2637-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 2637-2022 tillsynsbegäran.docx", "A 2637-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 2637-2022 tillsynsbegäran mail.docx", "A 2637-2022")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 12709-2025</t>
+          <t>A 37767-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45733.47122685185</v>
+        <v>45159</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1220,19 +1224,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>21.1</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1244,45 +1248,41 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
         <v>44342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,14 +1374,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 63405-2025</t>
+          <t>A 25432-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46012</v>
+        <v>44342</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>7.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1428,134 +1428,130 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Åkerrödtoppa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 63405-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>46012</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Gropticka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 2637-2022</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44580</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 2637-2022 artfynd.xlsx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 2637-2022 karta.png", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 2637-2022 karta knärot.png", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 2637-2022 FSC-klagomål.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 2637-2022 FSC-klagomål mail.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 2637-2022 tillsynsbegäran.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 2637-2022 tillsynsbegäran mail.docx", "A 2637-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 37767-2023</t>
+          <t>A 56535-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45159</v>
+        <v>45625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1568,20 +1564,20 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>21.1</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1592,55 +1588,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 56535-2024 artfynd.xlsx", "A 56535-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 56535-2024 karta.png", "A 56535-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 56535-2024 FSC-klagomål.docx", "A 56535-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 56535-2024 FSC-klagomål mail.docx", "A 56535-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 56535-2024 tillsynsbegäran.docx", "A 56535-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 56535-2024 tillsynsbegäran mail.docx", "A 56535-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 56535-2024</t>
+          <t>A 12709-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45625</v>
+        <v>45733.47122685185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1653,10 +1649,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1687,31 +1683,35 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 56535-2024 artfynd.xlsx", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 56535-2024 karta.png", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
         <v/>
       </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
+        <v/>
+      </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 56535-2024 FSC-klagomål.docx", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 56535-2024 FSC-klagomål mail.docx", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 56535-2024 tillsynsbegäran.docx", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 56535-2024 tillsynsbegäran mail.docx", "A 56535-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
         <v/>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44341.61608796296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44341.62946759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44421</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44447.30079861111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44846</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44460</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,14 +2630,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11719-2021</t>
+          <t>A 14250-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44265</v>
+        <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14250-2021</t>
+          <t>A 66603-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44278</v>
+        <v>44519.47723379629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 66603-2021</t>
+          <t>A 11719-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44519.47723379629</v>
+        <v>44265</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,14 +2915,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33513-2021</t>
+          <t>A 28167-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44377</v>
+        <v>44746.57121527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 44072-2021</t>
+          <t>A 33513-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44434</v>
+        <v>44377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 28167-2022</t>
+          <t>A 44072-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44746.57121527778</v>
+        <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44883</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44439.35600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,14 +4231,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 71009-2021</t>
+          <t>A 28101-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44538</v>
+        <v>44746.47565972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4250,13 +4250,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4293,14 +4288,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28101-2022</t>
+          <t>A 71009-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44746.47565972222</v>
+        <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4312,8 +4307,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4521,14 +4521,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 21770-2021</t>
+          <t>A 9423-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44321</v>
+        <v>44616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4540,8 +4540,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>8.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4578,14 +4583,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9423-2022</t>
+          <t>A 21770-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44616</v>
+        <v>44321</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4597,13 +4602,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>8.6</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>44454.59979166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44265</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4811,14 +4811,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 16511-2021</t>
+          <t>A 34659-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44293</v>
+        <v>44382.57646990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4868,14 +4868,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55145-2024</t>
+          <t>A 16342-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45621</v>
+        <v>45751.37185185185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,8 +4887,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4925,14 +4930,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45002-2024</t>
+          <t>A 56517-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45575.48587962963</v>
+        <v>45625</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4945,7 +4950,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4982,14 +4987,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7596-2025</t>
+          <t>A 56531-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45705.65067129629</v>
+        <v>45625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5002,7 +5007,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5039,14 +5044,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13049-2023</t>
+          <t>A 5823-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45002</v>
+        <v>45335.55476851852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5059,7 +5064,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5096,14 +5101,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14354-2025</t>
+          <t>A 35149-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45741.36516203704</v>
+        <v>44797</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,13 +5120,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5158,14 +5158,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47516-2025</t>
+          <t>A 58832-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45931.26936342593</v>
+        <v>45247</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,13 +5177,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5220,14 +5215,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 50456-2022</t>
+          <t>A 64350-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44861</v>
+        <v>45280</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5240,7 +5235,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5277,14 +5272,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14325-2024</t>
+          <t>A 13049-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45393.69880787037</v>
+        <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5296,13 +5291,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>7.1</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5339,14 +5329,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 56711-2022</t>
+          <t>A 29203-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44893.84237268518</v>
+        <v>45097</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5359,7 +5349,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5396,14 +5386,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 48324-2025</t>
+          <t>A 16511-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45933.62864583333</v>
+        <v>44293</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5416,7 +5406,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5453,14 +5443,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 47360-2025</t>
+          <t>A 15335-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45930</v>
+        <v>44284</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5473,7 +5463,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5510,14 +5500,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10928-2025</t>
+          <t>A 36894-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45722.90581018518</v>
+        <v>45538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5530,7 +5520,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>9.300000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5567,14 +5557,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21159-2025</t>
+          <t>A 2633-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45779.3799074074</v>
+        <v>44580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5587,7 +5577,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5624,14 +5614,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 34659-2021</t>
+          <t>A 59193-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44382.57646990741</v>
+        <v>45636</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5644,7 +5634,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5681,14 +5671,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14267-2024</t>
+          <t>A 4982-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45393.57178240741</v>
+        <v>45689</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5700,13 +5690,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5743,14 +5728,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14309-2024</t>
+          <t>A 57287-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45393.66581018519</v>
+        <v>45629.58438657408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5762,13 +5747,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5805,14 +5785,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39753-2025</t>
+          <t>A 28097-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45891.41855324074</v>
+        <v>44746.47129629629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5825,7 +5805,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5862,14 +5842,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35149-2022</t>
+          <t>A 49922-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44797</v>
+        <v>45597.57326388889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5882,7 +5862,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5919,14 +5899,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 3313-2024</t>
+          <t>A 61289-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45317.4846412037</v>
+        <v>45260</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5939,7 +5919,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5976,14 +5956,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 23019-2025</t>
+          <t>A 60091-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45790</v>
+        <v>45258.44322916667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5996,7 +5976,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6033,14 +6013,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 40535-2025</t>
+          <t>A 26441-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45896</v>
+        <v>44738</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6053,7 +6033,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6090,14 +6070,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 53823-2022</t>
+          <t>A 63206-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44880</v>
+        <v>45273</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6110,7 +6090,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6147,14 +6127,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40648-2025</t>
+          <t>A 16910-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45896</v>
+        <v>45411</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6167,7 +6147,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6204,14 +6184,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 22750-2025</t>
+          <t>A 11809-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45789.61164351852</v>
+        <v>45727.89780092592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6224,7 +6204,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6261,14 +6241,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 8953-2025</t>
+          <t>A 37492-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45713.46289351852</v>
+        <v>44398</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6281,7 +6261,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6318,14 +6298,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14896-2025</t>
+          <t>A 42769-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45743.47895833333</v>
+        <v>44832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6337,13 +6317,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6380,14 +6355,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8954-2025</t>
+          <t>A 488-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45713.46517361111</v>
+        <v>45664.45827546297</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6400,7 +6375,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6437,14 +6412,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10388-2025</t>
+          <t>A 29167-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45720.59267361111</v>
+        <v>45821</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6457,7 +6432,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6494,14 +6469,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 10389-2025</t>
+          <t>A 28886-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45720.59847222222</v>
+        <v>45820.62944444444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6514,7 +6489,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6551,14 +6526,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 11818-2025</t>
+          <t>A 29177-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45728.31863425926</v>
+        <v>45821</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6571,7 +6546,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6608,14 +6583,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10638-2025</t>
+          <t>A 28933-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45721</v>
+        <v>45820.68407407407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6628,7 +6603,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>11.8</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6665,14 +6640,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10393-2025</t>
+          <t>A 28934-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45720.60332175926</v>
+        <v>45820.68806712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6685,7 +6660,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6722,14 +6697,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13719-2025</t>
+          <t>A 28932-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45737.36446759259</v>
+        <v>45820.68037037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6742,7 +6717,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6779,14 +6754,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35888-2024</t>
+          <t>A 49920-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45533.36006944445</v>
+        <v>45597.57233796296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6799,7 +6774,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6836,14 +6811,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50035-2025</t>
+          <t>A 4290-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45943.3944675926</v>
+        <v>44953.60280092592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6856,7 +6831,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6893,14 +6868,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50736-2025</t>
+          <t>A 30001-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45946.36873842592</v>
+        <v>45826.52243055555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6912,8 +6887,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6950,14 +6930,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49922-2024</t>
+          <t>A 29813-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45597.57326388889</v>
+        <v>45825.78273148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6970,7 +6950,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7007,14 +6987,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13346-2025</t>
+          <t>A 39753-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45735.6306712963</v>
+        <v>45891.41855324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7027,7 +7007,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7064,14 +7044,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51076-2025</t>
+          <t>A 29815-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45947.46234953704</v>
+        <v>45825.81784722222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7084,7 +7064,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7121,14 +7101,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 51176-2025</t>
+          <t>A 59373-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45947</v>
+        <v>45253.74621527778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7141,7 +7121,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7178,14 +7158,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 59373-2023</t>
+          <t>A 23019-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45253.74621527778</v>
+        <v>45790</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7198,7 +7178,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7235,14 +7215,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 51179-2025</t>
+          <t>A 35429-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45947</v>
+        <v>45146.62659722222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7255,7 +7235,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7292,14 +7272,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 51141-2025</t>
+          <t>A 40535-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45947.56348379629</v>
+        <v>45896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7312,7 +7292,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7349,14 +7329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 51065-2025</t>
+          <t>A 40648-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45947.45203703704</v>
+        <v>45896</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7369,7 +7349,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7406,14 +7386,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 59204-2022</t>
+          <t>A 63039-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44897</v>
+        <v>45272</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7426,7 +7406,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7463,14 +7443,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 40530-2024</t>
+          <t>A 20662-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45555.60775462963</v>
+        <v>45776</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7483,7 +7463,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.5</v>
+        <v>10.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7520,14 +7500,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 5951-2025</t>
+          <t>A 59965-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45695</v>
+        <v>45257.74469907407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7540,7 +7520,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7577,14 +7557,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 24274-2025</t>
+          <t>A 43775-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45797.44193287037</v>
+        <v>45912.50739583333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7597,7 +7577,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7634,14 +7614,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 43105-2024</t>
+          <t>A 64722-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45567</v>
+        <v>45281</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7654,7 +7634,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7691,14 +7671,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39887-2022</t>
+          <t>A 44363-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44819.64585648148</v>
+        <v>45915</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7711,7 +7691,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7748,14 +7728,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 25374-2025</t>
+          <t>A 45056-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45800.63570601852</v>
+        <v>44439.34355324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7767,13 +7747,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7810,14 +7785,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 20662-2025</t>
+          <t>A 46480-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45776</v>
+        <v>44847</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7830,7 +7805,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>10.3</v>
+        <v>4.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7867,14 +7842,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 43775-2025</t>
+          <t>A 44643-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45912.50739583333</v>
+        <v>44437.70806712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7887,7 +7862,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7924,14 +7899,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 25601-2025</t>
+          <t>A 49893-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45803.54850694445</v>
+        <v>44864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7943,13 +7918,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>8.1</v>
+        <v>5.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7986,14 +7956,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44363-2025</t>
+          <t>A 44718-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8006,7 +7976,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8043,14 +8013,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 53360-2022</t>
+          <t>A 44720-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44879.38193287037</v>
+        <v>45917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8063,7 +8033,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8100,14 +8070,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44718-2025</t>
+          <t>A 3313-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45917</v>
+        <v>45317.4846412037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8120,7 +8090,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8157,14 +8127,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44720-2025</t>
+          <t>A 11805-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45917</v>
+        <v>45727.88486111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8177,7 +8147,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8214,14 +8184,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 36894-2024</t>
+          <t>A 11820-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45538</v>
+        <v>45728.32152777778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8234,7 +8204,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8271,14 +8241,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46122-2025</t>
+          <t>A 45059-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45924.58452546296</v>
+        <v>44439.34944444444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8291,7 +8261,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8328,14 +8298,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 64350-2023</t>
+          <t>A 44644-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45280</v>
+        <v>44437.71910879629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8348,7 +8318,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8385,14 +8355,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 63039-2023</t>
+          <t>A 10416-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45272</v>
+        <v>45365</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8405,7 +8375,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8442,14 +8412,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 27374-2025</t>
+          <t>A 6360-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45812</v>
+        <v>44965</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8462,7 +8432,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8499,14 +8469,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 27379-2025</t>
+          <t>A 6374-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45812</v>
+        <v>44965.62028935185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8519,7 +8489,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8556,14 +8526,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 488-2025</t>
+          <t>A 8001-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45664.45827546297</v>
+        <v>45707.52650462963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8575,8 +8545,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>9.699999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8613,14 +8588,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47189-2025</t>
+          <t>A 50587-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45930</v>
+        <v>44861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8633,7 +8608,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8670,14 +8645,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47451-2025</t>
+          <t>A 46122-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45930</v>
+        <v>45924.58452546296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8690,7 +8665,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8727,14 +8702,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 47365-2025</t>
+          <t>A 36581-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8747,7 +8722,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8784,14 +8759,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47358-2025</t>
+          <t>A 39887-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45930</v>
+        <v>44819.64585648148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8804,7 +8779,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8841,14 +8816,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 28933-2025</t>
+          <t>A 36573-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45820.68407407407</v>
+        <v>45869</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8861,7 +8836,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8898,14 +8873,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 28934-2025</t>
+          <t>A 45101-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45820.68806712963</v>
+        <v>44439.40950231482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8918,7 +8893,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8955,14 +8930,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28886-2025</t>
+          <t>A 56479-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45820.62944444444</v>
+        <v>45624</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8975,7 +8950,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9012,14 +8987,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 28932-2025</t>
+          <t>A 12215-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45820.68037037037</v>
+        <v>45729.5352662037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9032,7 +9007,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9069,14 +9044,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 29167-2025</t>
+          <t>A 58878-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45821</v>
+        <v>45252.47113425926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9089,7 +9064,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9126,14 +9101,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 29177-2025</t>
+          <t>A 15147-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45821</v>
+        <v>45744.45267361111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9146,7 +9121,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.5</v>
+        <v>9.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9183,14 +9158,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 29813-2025</t>
+          <t>A 47365-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45825.78273148148</v>
+        <v>45930</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9203,7 +9178,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9240,14 +9215,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 30001-2025</t>
+          <t>A 47189-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45826.52243055555</v>
+        <v>45930</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9259,13 +9234,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9302,14 +9272,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29815-2025</t>
+          <t>A 59191-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45825.81784722222</v>
+        <v>45251</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9292,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9359,14 +9329,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8926-2022</t>
+          <t>A 59231-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44614</v>
+        <v>45253</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9378,13 +9348,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9421,14 +9386,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16710-2025</t>
+          <t>A 37219-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45754</v>
+        <v>45875</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9441,7 +9406,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9478,14 +9443,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 58832-2023</t>
+          <t>A 47358-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45247</v>
+        <v>45930</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9498,7 +9463,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9535,14 +9500,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 49118-2024</t>
+          <t>A 47451-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45594.66445601852</v>
+        <v>45930</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9555,7 +9520,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9592,14 +9557,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 20545-2024</t>
+          <t>A 37218-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45436</v>
+        <v>45875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9612,7 +9577,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9649,14 +9614,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 49920-2024</t>
+          <t>A 47516-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45597.57233796296</v>
+        <v>45931.26936342593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9668,8 +9633,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9706,14 +9676,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 41256-2024</t>
+          <t>A 47360-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45559</v>
+        <v>45930</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9726,7 +9696,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9763,14 +9733,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 43564-2024</t>
+          <t>A 650-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45569</v>
+        <v>45299</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9783,7 +9753,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9820,14 +9790,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 44643-2021</t>
+          <t>A 48324-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44437.70806712963</v>
+        <v>45933.62864583333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9810,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9877,14 +9847,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45056-2021</t>
+          <t>A 3645-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44439.34355324074</v>
+        <v>45321</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9867,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9934,14 +9904,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 11820-2025</t>
+          <t>A 37920-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45728.32152777778</v>
+        <v>45881.57488425926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9924,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9991,14 +9961,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 29176-2025</t>
+          <t>A 10419-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45821</v>
+        <v>45365</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +9981,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>7.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10048,14 +10018,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 11805-2025</t>
+          <t>A 37925-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45727.88486111111</v>
+        <v>45881.57799768518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10038,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10105,14 +10075,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 44644-2021</t>
+          <t>A 59864-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44437.71910879629</v>
+        <v>45639</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10095,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10162,14 +10132,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 45059-2021</t>
+          <t>A 29809-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44439.34944444444</v>
+        <v>45825.75673611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10152,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10219,14 +10189,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16910-2024</t>
+          <t>A 17388-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45411</v>
+        <v>45035</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10209,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10276,14 +10246,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 63206-2023</t>
+          <t>A 9486-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45273</v>
+        <v>44977</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10266,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10333,14 +10303,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 9486-2023</t>
+          <t>A 32564-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44977</v>
+        <v>45111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10323,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10390,14 +10360,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 43097-2024</t>
+          <t>A 12476-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45567.54149305556</v>
+        <v>44999.64097222222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10410,7 +10380,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10447,14 +10417,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 2314-2026</t>
+          <t>A 50035-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46034</v>
+        <v>45943.3944675926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10467,7 +10437,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10504,14 +10474,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 2315-2026</t>
+          <t>A 14267-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46034</v>
+        <v>45393.57178240741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,8 +10493,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10561,14 +10536,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35435-2023</t>
+          <t>A 8792-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45146.63164351852</v>
+        <v>44978.59072916667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10581,7 +10556,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10618,14 +10593,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 36573-2025</t>
+          <t>A 57289-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45869</v>
+        <v>45629.58579861111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10638,7 +10613,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10675,14 +10650,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 15147-2025</t>
+          <t>A 31989-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45744.45267361111</v>
+        <v>44778.30577546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10695,7 +10670,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>9.4</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10732,14 +10707,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2470-2026</t>
+          <t>A 51141-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46037.36991898148</v>
+        <v>45947.56348379629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10752,7 +10727,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10789,14 +10764,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 36581-2025</t>
+          <t>A 51179-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45869</v>
+        <v>45947</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10809,7 +10784,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10846,14 +10821,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 12215-2025</t>
+          <t>A 51076-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45729.5352662037</v>
+        <v>45947.46234953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10866,7 +10841,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10903,14 +10878,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 57289-2024</t>
+          <t>A 51176-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45629.58579861111</v>
+        <v>45947</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10923,7 +10898,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10960,14 +10935,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 45101-2021</t>
+          <t>A 51065-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44439.40950231482</v>
+        <v>45947.45203703704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10980,7 +10955,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11017,14 +10992,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 39311-2023</t>
+          <t>A 50736-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45162</v>
+        <v>45946.36873842592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11037,7 +11012,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11074,14 +11049,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 56479-2024</t>
+          <t>A 3334-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45624</v>
+        <v>45679.71046296296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11094,7 +11069,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11131,14 +11106,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 37219-2025</t>
+          <t>A 39311-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45875</v>
+        <v>45162</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11151,7 +11126,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11188,14 +11163,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 37218-2025</t>
+          <t>A 16709-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45875</v>
+        <v>45754.47859953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11245,14 +11220,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59193-2024</t>
+          <t>A 32624-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45636</v>
+        <v>45111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11265,7 +11240,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11302,14 +11277,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56526-2024</t>
+          <t>A 8926-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45625</v>
+        <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11321,8 +11296,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11359,14 +11339,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 3336-2025</t>
+          <t>A 7323-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45679.71759259259</v>
+        <v>45702</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11379,7 +11359,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11416,14 +11396,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 17388-2023</t>
+          <t>A 8794-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45035</v>
+        <v>44978.59206018518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11436,7 +11416,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11473,14 +11453,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 37920-2025</t>
+          <t>A 44396-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45881.57488425926</v>
+        <v>45573</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11493,7 +11473,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11530,14 +11510,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 29809-2025</t>
+          <t>A 7640-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45825.75673611111</v>
+        <v>45705.77997685185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11550,7 +11530,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11587,14 +11567,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11809-2025</t>
+          <t>A 6232-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45727.89780092592</v>
+        <v>45337</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11607,7 +11587,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11644,14 +11624,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 59864-2024</t>
+          <t>A 29176-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45639</v>
+        <v>45821</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11664,7 +11644,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11701,14 +11681,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 37925-2025</t>
+          <t>A 1196-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45881.57799768518</v>
+        <v>45666</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11721,7 +11701,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>9.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11758,14 +11738,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 57287-2024</t>
+          <t>A 7596-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45629.58438657408</v>
+        <v>45705.65067129629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11778,7 +11758,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11815,14 +11795,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 61356-2025</t>
+          <t>A 2470-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46000</v>
+        <v>46037.36991898148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11835,7 +11815,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11872,14 +11852,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 61358-2025</t>
+          <t>A 2314-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46000</v>
+        <v>46034</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11892,7 +11872,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11929,14 +11909,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 61803-2025</t>
+          <t>A 23665-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46002</v>
+        <v>44334</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11949,7 +11929,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11986,14 +11966,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 44707-2021</t>
+          <t>A 14821-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44438.36449074074</v>
+        <v>45398.18991898148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12006,7 +11986,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12043,14 +12023,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 61802-2025</t>
+          <t>A 2315-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46002</v>
+        <v>46034</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12063,7 +12043,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12100,14 +12080,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 61807-2025</t>
+          <t>A 59200-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46002</v>
+        <v>45636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12120,7 +12100,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12157,14 +12137,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 56512-2024</t>
+          <t>A 10732-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45625</v>
+        <v>45369</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12177,7 +12157,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12214,14 +12194,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 61818-2025</t>
+          <t>A 61356-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46003.32189814815</v>
+        <v>46000</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12234,7 +12214,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12271,14 +12251,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 37492-2021</t>
+          <t>A 61358-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44398</v>
+        <v>46000</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12291,7 +12271,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12328,14 +12308,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 6232-2024</t>
+          <t>A 14354-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45337</v>
+        <v>45741.36516203704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12347,8 +12327,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12385,14 +12370,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 37700-2021</t>
+          <t>A 61818-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44400</v>
+        <v>46003.32189814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12442,14 +12427,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 31833-2024</t>
+          <t>A 6233-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45509.64240740741</v>
+        <v>45337</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12462,7 +12447,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12499,14 +12484,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 63556-2025</t>
+          <t>A 1218-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46013.61539351852</v>
+        <v>45302</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12519,7 +12504,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12556,14 +12541,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 20542-2024</t>
+          <t>A 61802-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45436</v>
+        <v>46002</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12576,7 +12561,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12613,14 +12598,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 63406-2025</t>
+          <t>A 61807-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46012</v>
+        <v>46002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12633,7 +12618,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12670,14 +12655,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 63407-2025</t>
+          <t>A 61803-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46012</v>
+        <v>46002</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12690,7 +12675,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12727,14 +12712,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 16342-2025</t>
+          <t>A 23166-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45751.37185185185</v>
+        <v>45075</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12746,13 +12731,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12789,14 +12769,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 23665-2021</t>
+          <t>A 39144-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44334</v>
+        <v>45548.6153587963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12809,7 +12789,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12846,14 +12826,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 39144-2024</t>
+          <t>A 63556-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45548.6153587963</v>
+        <v>46013.61539351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12866,7 +12846,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12903,14 +12883,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7396-2026</t>
+          <t>A 41256-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46059.37376157408</v>
+        <v>45559</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12923,7 +12903,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12960,14 +12940,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 3334-2025</t>
+          <t>A 63406-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45679.71046296296</v>
+        <v>46012</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12980,7 +12960,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13017,14 +12997,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6374-2023</t>
+          <t>A 63407-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44965.62028935185</v>
+        <v>46012</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13037,7 +13017,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13074,14 +13054,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 9226-2026</t>
+          <t>A 56711-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46070.45303240741</v>
+        <v>44893.84237268518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13131,14 +13111,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 5823-2024</t>
+          <t>A 56526-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45335.55476851852</v>
+        <v>45625</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13151,7 +13131,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13188,14 +13168,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 22634-2024</t>
+          <t>A 3336-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45447.67667824074</v>
+        <v>45679.71759259259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13208,7 +13188,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>8.199999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13245,14 +13225,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 9221-2026</t>
+          <t>A 7396-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46070.44648148148</v>
+        <v>46059.37376157408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13265,7 +13245,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13302,14 +13282,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 40505-2023</t>
+          <t>A 31833-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45170.40601851852</v>
+        <v>45509.64240740741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13322,7 +13302,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13359,14 +13339,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 64725-2023</t>
+          <t>A 37700-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45281</v>
+        <v>44400</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13379,7 +13359,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13416,14 +13396,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 32564-2023</t>
+          <t>A 16444-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45111</v>
+        <v>45751.50175925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13435,8 +13415,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13473,14 +13458,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 7818-2026</t>
+          <t>A 18685-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46062</v>
+        <v>45763.61067129629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13493,7 +13478,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13530,14 +13515,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 9742-2026</t>
+          <t>A 18722-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46072.51445601852</v>
+        <v>45763.66126157407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13549,13 +13534,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13592,14 +13572,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 31989-2022</t>
+          <t>A 53823-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44778.30577546296</v>
+        <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13612,7 +13592,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13649,14 +13629,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 35429-2023</t>
+          <t>A 455-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45146.62659722222</v>
+        <v>45296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13669,7 +13649,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13706,14 +13686,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 35186-2024</t>
+          <t>A 9221-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45530.45280092592</v>
+        <v>46070.44648148148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13726,7 +13706,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13763,14 +13743,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 35433-2023</t>
+          <t>A 9226-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45146.62883101852</v>
+        <v>46070.45303240741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13783,7 +13763,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13820,14 +13800,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 23166-2023</t>
+          <t>A 9742-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45075</v>
+        <v>46072.51445601852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13839,8 +13819,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>8.800000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13877,14 +13862,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 14821-2024</t>
+          <t>A 7818-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45398.18991898148</v>
+        <v>46062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13897,7 +13882,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13934,14 +13919,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 56517-2024</t>
+          <t>A 35186-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45625</v>
+        <v>45530.45280092592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13954,7 +13939,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13991,14 +13976,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 56531-2024</t>
+          <t>A 35366-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45625</v>
+        <v>45531</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14011,7 +13996,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.9</v>
+        <v>14</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14048,14 +14033,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 6233-2024</t>
+          <t>A 20542-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45337</v>
+        <v>45436</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14068,7 +14053,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14105,14 +14090,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 2633-2022</t>
+          <t>A 14325-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44580</v>
+        <v>45393.69880787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14124,8 +14109,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>3.5</v>
+        <v>7.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14162,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 1196-2025</t>
+          <t>A 44707-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45666</v>
+        <v>44438.36449074074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14182,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>9.1</v>
+        <v>1.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14219,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 40508-2023</t>
+          <t>A 18772-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45170.40796296296</v>
+        <v>45763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14239,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14276,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 8001-2025</t>
+          <t>A 55163-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45707.52650462963</v>
+        <v>45237</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14295,13 +14285,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14338,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7323-2025</t>
+          <t>A 25554-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45702</v>
+        <v>45082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14358,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14395,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 18685-2025</t>
+          <t>A 16710-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45763.61067129629</v>
+        <v>45754</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14415,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14452,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 18722-2025</t>
+          <t>A 9243-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45763.66126157407</v>
+        <v>45714.56596064815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14472,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14509,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 59231-2023</t>
+          <t>A 12889-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45253</v>
+        <v>45001</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14529,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14566,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 16709-2025</t>
+          <t>A 49118-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45754.47859953704</v>
+        <v>45594.66445601852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14586,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14623,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 59191-2023</t>
+          <t>A 64725-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45251</v>
+        <v>45281</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14643,7 +14628,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14680,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 28097-2022</t>
+          <t>A 50456-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44746.47129629629</v>
+        <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14700,7 +14685,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14737,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 9243-2025</t>
+          <t>A 56512-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45714.56596064815</v>
+        <v>45625</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14757,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14794,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 49893-2022</t>
+          <t>A 9481-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44864</v>
+        <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14814,7 +14799,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14851,14 +14836,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 1218-2024</t>
+          <t>A 9483-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45302</v>
+        <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14871,7 +14856,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14908,14 +14893,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 26441-2022</t>
+          <t>A 40508-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44738</v>
+        <v>45170.40796296296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14928,7 +14913,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14965,14 +14950,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 11827-2025</t>
+          <t>A 32548-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45728.33512731481</v>
+        <v>45513</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14985,7 +14970,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.7</v>
+        <v>10.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15022,14 +15007,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 650-2024</t>
+          <t>A 35426-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45299</v>
+        <v>45146.62553240741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15042,7 +15027,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15079,14 +15064,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 50587-2022</t>
+          <t>A 35433-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44861</v>
+        <v>45146.62883101852</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15099,7 +15084,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15136,14 +15121,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 16444-2025</t>
+          <t>A 27260-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45751.50175925926</v>
+        <v>45471</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15155,13 +15140,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15198,14 +15178,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 35366-2024</t>
+          <t>A 55145-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45531</v>
+        <v>45621</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15218,7 +15198,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15255,14 +15235,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 455-2024</t>
+          <t>A 43097-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45296</v>
+        <v>45567.54149305556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15275,7 +15255,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15312,14 +15292,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 46480-2022</t>
+          <t>A 37197-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44847</v>
+        <v>45155.66857638889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15332,7 +15312,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15369,14 +15349,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 22925-2024</t>
+          <t>A 53360-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45448</v>
+        <v>44879.38193287037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15389,7 +15369,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15426,14 +15406,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 4290-2023</t>
+          <t>A 22925-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44953.60280092592</v>
+        <v>45448</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15446,7 +15426,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15483,14 +15463,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 8792-2023</t>
+          <t>A 35435-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44978.59072916667</v>
+        <v>45146.63164351852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15503,7 +15483,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15540,14 +15520,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 37197-2023</t>
+          <t>A 14309-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45155.66857638889</v>
+        <v>45393.66581018519</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15559,8 +15539,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15597,14 +15582,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 7640-2025</t>
+          <t>A 40505-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45705.77997685185</v>
+        <v>45170.40601851852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15617,7 +15602,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15654,14 +15639,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 9481-2023</t>
+          <t>A 11827-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44977</v>
+        <v>45728.33512731481</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15674,7 +15659,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15711,14 +15696,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 9483-2023</t>
+          <t>A 45002-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44977</v>
+        <v>45575.48587962963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15731,7 +15716,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15775,7 +15760,7 @@
         <v>44746</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15825,14 +15810,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 32548-2024</t>
+          <t>A 43564-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45513</v>
+        <v>45569</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15845,7 +15830,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>10.2</v>
+        <v>3.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15882,14 +15867,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 55163-2023</t>
+          <t>A 22634-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45237</v>
+        <v>45447.67667824074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15902,7 +15887,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15939,14 +15924,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 4982-2025</t>
+          <t>A 20545-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45689</v>
+        <v>45436</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15959,7 +15944,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15996,14 +15981,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 8794-2023</t>
+          <t>A 10928-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44978.59206018518</v>
+        <v>45722.90581018518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16016,7 +16001,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16053,14 +16038,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 18772-2025</t>
+          <t>A 21159-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45763</v>
+        <v>45779.3799074074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16073,7 +16058,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16110,14 +16095,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 12476-2023</t>
+          <t>A 22750-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44999.64097222222</v>
+        <v>45789.61164351852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16130,7 +16115,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16167,14 +16152,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 44396-2024</t>
+          <t>A 10388-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45573</v>
+        <v>45720.59267361111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16187,7 +16172,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16224,14 +16209,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 64722-2023</t>
+          <t>A 10389-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45281</v>
+        <v>45720.59847222222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16244,7 +16229,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16281,14 +16266,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 12889-2023</t>
+          <t>A 10638-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45001</v>
+        <v>45721</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16301,7 +16286,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>8.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16338,14 +16323,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 32624-2023</t>
+          <t>A 10393-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45111</v>
+        <v>45720.60332175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16358,7 +16343,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16395,14 +16380,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 10416-2024</t>
+          <t>A 14896-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45365</v>
+        <v>45743.47895833333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16414,8 +16399,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16452,14 +16442,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 10419-2024</t>
+          <t>A 8953-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45365</v>
+        <v>45713.46289351852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16472,7 +16462,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>7.7</v>
+        <v>0.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16509,14 +16499,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 35426-2023</t>
+          <t>A 8954-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45146.62553240741</v>
+        <v>45713.46517361111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16529,7 +16519,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16566,14 +16556,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 25554-2023</t>
+          <t>A 11818-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45082</v>
+        <v>45728.31863425926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16586,7 +16576,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16623,14 +16613,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 59965-2023</t>
+          <t>A 35888-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45257.74469907407</v>
+        <v>45533.36006944445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16643,7 +16633,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16680,14 +16670,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 15335-2021</t>
+          <t>A 13346-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44284</v>
+        <v>45735.6306712963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16700,7 +16690,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16737,14 +16727,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 58878-2023</t>
+          <t>A 24274-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45252.47113425926</v>
+        <v>45797.44193287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16757,7 +16747,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16794,14 +16784,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 10732-2024</t>
+          <t>A 13719-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45369</v>
+        <v>45737.36446759259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16814,7 +16804,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16851,14 +16841,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 27260-2024</t>
+          <t>A 40530-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45471</v>
+        <v>45555.60775462963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16871,7 +16861,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16908,14 +16898,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 42769-2022</t>
+          <t>A 5951-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44832</v>
+        <v>45695</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16928,7 +16918,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16965,14 +16955,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 6360-2023</t>
+          <t>A 43105-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44965</v>
+        <v>45567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16985,7 +16975,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17022,14 +17012,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 60091-2023</t>
+          <t>A 59204-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45258.44322916667</v>
+        <v>44897</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17042,7 +17032,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17079,14 +17069,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 61289-2023</t>
+          <t>A 25374-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45260</v>
+        <v>45800.63570601852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17098,8 +17088,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17136,14 +17131,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 3645-2024</t>
+          <t>A 25601-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45321</v>
+        <v>45803.54850694445</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17155,8 +17150,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G284" t="n">
-        <v>2.1</v>
+        <v>8.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17193,14 +17193,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 29203-2023</t>
+          <t>A 27374-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45097</v>
+        <v>45812</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17250,14 +17250,14 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 59200-2024</t>
+          <t>A 27379-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45636</v>
+        <v>45812</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45159</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44342</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45733.47122685185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44341.61608796296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44341.62946759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44421</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44447.30079861111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44846</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44460</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44265</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44746.57121527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44883</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44439.35600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44746.47565972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>44321</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>44454.59979166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44265</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>44382.57646990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>45751.37185185185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>45625</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>45625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45335.55476851852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>44797</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>45247</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>45280</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>45097</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>44293</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>44284</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>45538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>45636</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>45689</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>45629.58438657408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44746.47129629629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>45597.57326388889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>45260</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45258.44322916667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44738</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>45273</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>45411</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45727.89780092592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>44398</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>44832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>45664.45827546297</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45821</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45820.62944444444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45821</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>45820.68407407407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45820.68806712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45820.68037037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45597.57233796296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44953.60280092592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45826.52243055555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45825.78273148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>45891.41855324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45825.81784722222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45253.74621527778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45790</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45146.62659722222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45896</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45272</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45776</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45257.74469907407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45912.50739583333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45281</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45915</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44439.34355324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44847</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44437.70806712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45317.4846412037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45727.88486111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45728.32152777778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44439.34944444444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44437.71910879629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45365</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44965</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44965.62028935185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45707.52650462963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>45924.58452546296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>45869</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44819.64585648148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45869</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44439.40950231482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>45624</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>45729.5352662037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>45252.47113425926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>45744.45267361111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45930</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>45930</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>45251</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>45253</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>45875</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>45930</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>45930</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>45875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>45931.26936342593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>45930</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45299</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45933.62864583333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45321</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45881.57488425926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45365</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45881.57799768518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>45639</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45825.75673611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>45035</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44977</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>45111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44999.64097222222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45943.3944675926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>45393.57178240741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44978.59072916667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45629.58579861111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>44778.30577546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45947.56348379629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45947</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45947.46234953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45947</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45947.45203703704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>45946.36873842592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45679.71046296296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45162</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>45754.47859953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>45111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>45702</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44978.59206018518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45573</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45705.77997685185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45337</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45821</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45666</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45705.65067129629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>46037.36991898148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>46034</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44334</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45398.18991898148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>46034</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45369</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>46000</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>46000</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>45741.36516203704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>46003.32189814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45337</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45302</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>46002</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>46002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>46002</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>45075</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>45548.6153587963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>46013.61539351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45559</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>46012</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>46012</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44893.84237268518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45625</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45679.71759259259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>46059.37376157408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>45509.64240740741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44400</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>45751.50175925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45763.61067129629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45763.66126157407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>46070.44648148148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>46070.45303240741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>46072.51445601852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>46062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>45530.45280092592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45531</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45436</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45393.69880787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44438.36449074074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45237</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45754</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45714.56596064815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45001</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45594.66445601852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45281</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45625</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45170.40796296296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>45513</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>45146.62553240741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>45146.62883101852</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>45471</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>45621</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>45567.54149305556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45155.66857638889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>44879.38193287037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45448</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45146.63164351852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45393.66581018519</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45170.40601851852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45728.33512731481</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45575.48587962963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44746</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45569</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45447.67667824074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45436</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45722.90581018518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45779.3799074074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45789.61164351852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45720.59267361111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45720.59847222222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45721</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45720.60332175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45743.47895833333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45713.46289351852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45713.46517361111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45728.31863425926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>45533.36006944445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>45735.6306712963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>45797.44193287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>45737.36446759259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>45555.60775462963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>45695</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44897</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>45800.63570601852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>45803.54850694445</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>45812</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45812</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>45551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44580</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45159</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44342</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44342</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>46012</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45733.47122685185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44250</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44341.61608796296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44341.62946759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44421</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44447.30079861111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44292</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44453</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44379.49144675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44846</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44460</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44686.63799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44278</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44519.47723379629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44265</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44342</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44379</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>44746.57121527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44377</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44434</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>44322.96021990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44447.0432175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44855</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44579</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>44386</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44439.41456018519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44496.65423611111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44580</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44466</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44278.27473379629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44421</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44735</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44883</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>44439.35600694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44746.47565972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44538</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44652</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44621</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44525</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>44321</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44795.36982638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>44454.59979166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>44265</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>44382.57646990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>45751.37185185185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>45625</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>45625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45335.55476851852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>44797</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>45247</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>45280</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45002</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>45097</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>44293</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>44284</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>45538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>45636</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>45689</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>45629.58438657408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44746.47129629629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>45597.57326388889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>45260</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45258.44322916667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44738</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>45273</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>45411</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45727.89780092592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>44398</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>44832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>45664.45827546297</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45821</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>45820.62944444444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>45821</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>45820.68407407407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45820.68806712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45820.68037037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45597.57233796296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>44953.60280092592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45826.52243055555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45825.78273148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>45891.41855324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45825.81784722222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45253.74621527778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45790</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45146.62659722222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45896</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45896</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45272</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45776</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45257.74469907407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45912.50739583333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45281</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45915</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44439.34355324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44847</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44437.70806712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45317.4846412037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45727.88486111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45728.32152777778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44439.34944444444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44437.71910879629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45365</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44965</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44965.62028935185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45707.52650462963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>45924.58452546296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>45869</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44819.64585648148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45869</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44439.40950231482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>45624</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         <v>45729.5352662037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,7 +9051,7 @@
         <v>45252.47113425926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9108,7 +9108,7 @@
         <v>45744.45267361111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>45930</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>45930</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>45251</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>45253</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>45875</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>45930</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>45930</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>45875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>45931.26936342593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>45930</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45299</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45933.62864583333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45321</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45881.57488425926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45365</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45881.57799768518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>45639</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45825.75673611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>45035</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44977</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>45111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44999.64097222222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45943.3944675926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>45393.57178240741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44978.59072916667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45629.58579861111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>44778.30577546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45947.56348379629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45947</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45947.46234953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45947</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45947.45203703704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>45946.36873842592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45679.71046296296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45162</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>45754.47859953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>45111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>45702</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44978.59206018518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45573</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45705.77997685185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45337</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45821</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45666</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45705.65067129629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>46037.36991898148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>46034</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44334</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45398.18991898148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>46034</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45369</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>46000</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>46000</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>45741.36516203704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>46003.32189814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45337</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45302</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>46002</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>46002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>46002</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>45075</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>45548.6153587963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>46013.61539351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45559</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>46012</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>46012</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44893.84237268518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>45625</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45679.71759259259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>46059.37376157408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>45509.64240740741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44400</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>45751.50175925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45763.61067129629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>45763.66126157407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>44880</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>46070.44648148148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>46070.45303240741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>46072.51445601852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>46062</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>45530.45280092592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45531</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>45436</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45393.69880787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44438.36449074074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45237</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45754</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45714.56596064815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45001</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45594.66445601852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45281</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44861</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45625</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>44977</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44977</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45170.40796296296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>45513</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>45146.62553240741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>45146.62883101852</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>45471</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>45621</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>45567.54149305556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45155.66857638889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>44879.38193287037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45448</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>45146.63164351852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45393.66581018519</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45170.40601851852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45728.33512731481</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45575.48587962963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44746</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45569</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45447.67667824074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45436</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45722.90581018518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45779.3799074074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45789.61164351852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45720.59267361111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45720.59847222222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45721</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45720.60332175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45743.47895833333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>45713.46289351852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>45713.46517361111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45728.31863425926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>45533.36006944445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>45735.6306712963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>45797.44193287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>45737.36446759259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>45555.60775462963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>45695</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45567</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>44897</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         <v>45800.63570601852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
         <v>45803.54850694445</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>45812</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45812</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z286"/>
+  <dimension ref="A1:Z285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 8924-2022</t>
+          <t>A 39553-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44614</v>
+        <v>45551</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,13 +779,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -794,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -809,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -818,128 +813,133 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Ärtsångare
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 8924-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44614</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Åkergroda
 Vanlig groda
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 39553-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Ärtsångare
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 39553-2024 artfynd.xlsx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 39553-2024 karta.png", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 39553-2024 FSC-klagomål.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 39553-2024 FSC-klagomål mail.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 39553-2024 tillsynsbegäran.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 39553-2024 tillsynsbegäran mail.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/fåglar/A 39553-2024 prioriterade fågelarter.docx", "A 39553-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44396</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45763</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,14 +1115,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2637-2022</t>
+          <t>A 25432-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44580</v>
+        <v>44342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1162,215 +1162,215 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Åkerrödtoppa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 2637-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 2637-2022 artfynd.xlsx", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 2637-2022 karta.png", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 2637-2022 karta knärot.png", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 2637-2022 FSC-klagomål.docx", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 2637-2022 FSC-klagomål mail.docx", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 2637-2022 tillsynsbegäran.docx", "A 2637-2022")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 2637-2022 tillsynsbegäran mail.docx", "A 2637-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 37767-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>21.1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Sotlav</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 37767-2023 artfynd.xlsx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 37767-2023 karta.png", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 37767-2023 FSC-klagomål.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 37767-2023 FSC-klagomål mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 37767-2023 tillsynsbegäran.docx", "A 37767-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 37767-2023 tillsynsbegäran mail.docx", "A 37767-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 25432-2021</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Åkerrödtoppa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 25432-2021 artfynd.xlsx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 25432-2021 karta.png", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 25432-2021 FSC-klagomål.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 25432-2021 FSC-klagomål mail.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 25432-2021 tillsynsbegäran.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 25432-2021 tillsynsbegäran mail.docx", "A 25432-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44342</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,14 +1459,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 63405-2025</t>
+          <t>A 56535-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46012</v>
+        <v>45625</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1506,215 +1506,215 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Koppartaggsvamp</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 56535-2024 artfynd.xlsx", "A 56535-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 56535-2024 karta.png", "A 56535-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 56535-2024 FSC-klagomål.docx", "A 56535-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 56535-2024 FSC-klagomål mail.docx", "A 56535-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 56535-2024 tillsynsbegäran.docx", "A 56535-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 56535-2024 tillsynsbegäran mail.docx", "A 56535-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 12709-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45733.47122685185</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 63405-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>46012</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GULLSPÅNG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Gropticka</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 63405-2025 artfynd.xlsx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 63405-2025 karta.png", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 63405-2025 FSC-klagomål.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 63405-2025 FSC-klagomål mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 63405-2025 tillsynsbegäran.docx", "A 63405-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 63405-2025 tillsynsbegäran mail.docx", "A 63405-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 56535-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45625</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Koppartaggsvamp</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 56535-2024 artfynd.xlsx", "A 56535-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 56535-2024 karta.png", "A 56535-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 56535-2024 FSC-klagomål.docx", "A 56535-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 56535-2024 FSC-klagomål mail.docx", "A 56535-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 56535-2024 tillsynsbegäran.docx", "A 56535-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 56535-2024 tillsynsbegäran mail.docx", "A 56535-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 12709-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45733.47122685185</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 12709-2025 artfynd.xlsx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 12709-2025 karta.png", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/knärot/A 12709-2025 karta knärot.png", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 12709-2025 FSC-klagomål.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 12709-2025 FSC-klagomål mail.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 12709-2025 tillsynsbegäran.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 12709-2025 tillsynsbegäran mail.docx", "A 12709-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44881</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>44300</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44278</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1946,14 +1946,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9186-2021</t>
+          <t>A 25063-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44250</v>
+        <v>44341.61608796296</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 25063-2021</t>
+          <t>A 25066-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44341.61608796296</v>
+        <v>44341.62946759259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2060,14 +2060,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 25066-2021</t>
+          <t>A 40982-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44341.62946759259</v>
+        <v>44421</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2117,14 +2117,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 40982-2021</t>
+          <t>A 47181-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44421</v>
+        <v>44447.30079861111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2174,14 +2174,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47181-2021</t>
+          <t>A 16284-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44447.30079861111</v>
+        <v>44292</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16284-2021</t>
+          <t>A 46431-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44292</v>
+        <v>44846</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2288,14 +2288,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 14274-2021</t>
+          <t>A 18500-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44278</v>
+        <v>44686.63799768518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2345,14 +2345,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 49026-2021</t>
+          <t>A 14274-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44453</v>
+        <v>44278</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2402,14 +2402,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 34168-2021</t>
+          <t>A 49026-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44379.49144675926</v>
+        <v>44453</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2459,14 +2459,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 46431-2022</t>
+          <t>A 34168-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44846</v>
+        <v>44379.49144675926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2516,14 +2516,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 51196-2021</t>
+          <t>A 25428-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44460</v>
+        <v>44342</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2573,14 +2573,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 18500-2022</t>
+          <t>A 51196-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44686.63799768518</v>
+        <v>44460</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2630,14 +2630,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14250-2021</t>
+          <t>A 44055-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44278</v>
+        <v>44434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 66603-2021</t>
+          <t>A 28167-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44519.47723379629</v>
+        <v>44746.57121527778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 11719-2021</t>
+          <t>A 44072-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44265</v>
+        <v>44434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2801,14 +2801,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25428-2021</t>
+          <t>A 34179-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44342</v>
+        <v>44379</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2858,14 +2858,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34179-2021</t>
+          <t>A 33513-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44379</v>
+        <v>44377</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2915,14 +2915,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 28167-2022</t>
+          <t>A 48636-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44746.57121527778</v>
+        <v>44855</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33513-2021</t>
+          <t>A 2569-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44377</v>
+        <v>44579</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3029,14 +3029,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44072-2021</t>
+          <t>A 21947-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44434</v>
+        <v>44322.96021990741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21947-2021</t>
+          <t>A 47173-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44322.96021990741</v>
+        <v>44447.0432175926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 47173-2021</t>
+          <t>A 11719-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44447.0432175926</v>
+        <v>44265</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3200,14 +3200,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 44055-2021</t>
+          <t>A 35673-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44434</v>
+        <v>44386</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3257,14 +3257,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 48636-2022</t>
+          <t>A 14250-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44855</v>
+        <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2569-2022</t>
+          <t>A 60681-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44579</v>
+        <v>44496.65423611111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 35673-2021</t>
+          <t>A 45103-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44386</v>
+        <v>44439.41456018519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 45103-2021</t>
+          <t>A 66603-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44439.41456018519</v>
+        <v>44519.47723379629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60681-2021</t>
+          <t>A 2640-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44496.65423611111</v>
+        <v>44580</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2640-2022</t>
+          <t>A 43749-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44580</v>
+        <v>44433</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 43749-2021</t>
+          <t>A 52568-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44433</v>
+        <v>44466</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 52568-2021</t>
+          <t>A 52572-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>44466</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 52572-2021</t>
+          <t>A 14093-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44466</v>
+        <v>44278.27473379629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>44386</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3827,14 +3827,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14093-2021</t>
+          <t>A 40935-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44278.27473379629</v>
+        <v>44421</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40935-2021</t>
+          <t>A 45062-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44421</v>
+        <v>44439.35600694444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 26333-2022</t>
+          <t>A 55624-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44735</v>
+        <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 73609-2021</t>
+          <t>A 26333-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44552</v>
+        <v>44735</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55624-2022</t>
+          <t>A 73609-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44883</v>
+        <v>44552</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45062-2021</t>
+          <t>A 8910-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44439.35600694444</v>
+        <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4131,8 +4131,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>9.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4169,14 +4174,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8910-2022</t>
+          <t>A 14406-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44614</v>
+        <v>44652</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4188,13 +4193,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>9.9</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4231,14 +4231,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28101-2022</t>
+          <t>A 10056-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44746.47565972222</v>
+        <v>44621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4288,14 +4288,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 71009-2021</t>
+          <t>A 68517-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44538</v>
+        <v>44525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4307,13 +4307,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4350,14 +4345,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14406-2022</t>
+          <t>A 28101-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44652</v>
+        <v>44746.47565972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4370,7 +4365,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4407,14 +4402,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10056-2022</t>
+          <t>A 21770-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44621</v>
+        <v>44321</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4427,7 +4422,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4464,14 +4459,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 68517-2021</t>
+          <t>A 71009-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44525</v>
+        <v>44538</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4483,8 +4478,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>44616</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4583,14 +4583,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 21770-2021</t>
+          <t>A 34589-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44321</v>
+        <v>44795.36982638889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4640,14 +4640,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34589-2022</t>
+          <t>A 49365-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44795.36982638889</v>
+        <v>44454.59979166667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4697,14 +4697,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49365-2021</t>
+          <t>A 11805-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44454.59979166667</v>
+        <v>44265</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4754,14 +4754,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11805-2021</t>
+          <t>A 34659-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44265</v>
+        <v>44382.57646990741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4811,14 +4811,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34659-2021</t>
+          <t>A 16511-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44382.57646990741</v>
+        <v>44293</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4868,14 +4868,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16342-2025</t>
+          <t>A 14267-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45751.37185185185</v>
+        <v>45393.57178240741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4889,11 +4889,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4930,14 +4930,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56517-2024</t>
+          <t>A 14309-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45625</v>
+        <v>45393.66581018519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,8 +4949,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4987,14 +4992,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56531-2024</t>
+          <t>A 35435-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45625</v>
+        <v>45146.63164351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5007,7 +5012,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5044,14 +5049,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 5823-2024</t>
+          <t>A 488-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45335.55476851852</v>
+        <v>45664.45827546297</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5064,7 +5069,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5101,14 +5106,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35149-2022</t>
+          <t>A 57289-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44797</v>
+        <v>45629.58579861111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5121,7 +5126,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5158,14 +5163,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58832-2023</t>
+          <t>A 39311-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45247</v>
+        <v>45162</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5178,7 +5183,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5215,14 +5220,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 64350-2023</t>
+          <t>A 50456-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45280</v>
+        <v>44861</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5235,7 +5240,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5272,14 +5277,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13049-2023</t>
+          <t>A 56711-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45002</v>
+        <v>44893.84237268518</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5292,7 +5297,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5329,14 +5334,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29203-2023</t>
+          <t>A 35149-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45097</v>
+        <v>44797</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5349,7 +5354,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5386,14 +5391,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 16511-2021</t>
+          <t>A 59193-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44293</v>
+        <v>45636</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5406,7 +5411,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5443,14 +5448,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 15335-2021</t>
+          <t>A 56526-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44284</v>
+        <v>45625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5463,7 +5468,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5500,14 +5505,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 36894-2024</t>
+          <t>A 8926-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45538</v>
+        <v>44614</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5519,8 +5524,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5557,14 +5567,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2633-2022</t>
+          <t>A 3336-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44580</v>
+        <v>45679.71759259259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5577,7 +5587,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5614,14 +5624,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59193-2024</t>
+          <t>A 16710-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45636</v>
+        <v>45754</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5634,7 +5644,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5671,14 +5681,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4982-2025</t>
+          <t>A 17388-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45689</v>
+        <v>45035</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5691,7 +5701,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5728,14 +5738,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 57287-2024</t>
+          <t>A 11809-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45629.58438657408</v>
+        <v>45727.89780092592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5748,7 +5758,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5785,14 +5795,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28097-2022</t>
+          <t>A 3313-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44746.47129629629</v>
+        <v>45317.4846412037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5805,7 +5815,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>6.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5842,14 +5852,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49922-2024</t>
+          <t>A 58832-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45597.57326388889</v>
+        <v>45247</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5862,7 +5872,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5899,14 +5909,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61289-2023</t>
+          <t>A 57287-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45260</v>
+        <v>45629.58438657408</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5919,7 +5929,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5956,14 +5966,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60091-2023</t>
+          <t>A 49118-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45258.44322916667</v>
+        <v>45594.66445601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5976,7 +5986,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6013,14 +6023,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26441-2022</t>
+          <t>A 20545-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44738</v>
+        <v>45436</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6033,7 +6043,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6070,14 +6080,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 63206-2023</t>
+          <t>A 31833-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45273</v>
+        <v>45509.64240740741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6127,14 +6137,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 16910-2024</t>
+          <t>A 49920-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45411</v>
+        <v>45597.57233796296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6147,7 +6157,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6184,14 +6194,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 11809-2025</t>
+          <t>A 41256-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45727.89780092592</v>
+        <v>45559</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6204,7 +6214,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6241,14 +6251,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 37492-2021</t>
+          <t>A 44707-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44398</v>
+        <v>44438.36449074074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6261,7 +6271,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6298,14 +6308,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42769-2022</t>
+          <t>A 56512-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44832</v>
+        <v>45625</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6318,7 +6328,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6355,14 +6365,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 488-2025</t>
+          <t>A 53823-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45664.45827546297</v>
+        <v>44880</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6385,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6412,14 +6422,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29167-2025</t>
+          <t>A 43564-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45821</v>
+        <v>45569</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6432,7 +6442,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6469,14 +6479,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28886-2025</t>
+          <t>A 37492-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45820.62944444444</v>
+        <v>44398</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6489,7 +6499,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6526,14 +6536,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29177-2025</t>
+          <t>A 20542-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45821</v>
+        <v>45436</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6556,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6583,14 +6593,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 28933-2025</t>
+          <t>A 6232-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45820.68407407407</v>
+        <v>45337</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6613,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6640,14 +6650,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28934-2025</t>
+          <t>A 37700-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45820.68806712963</v>
+        <v>44400</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6670,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6697,14 +6707,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28932-2025</t>
+          <t>A 16342-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45820.68037037037</v>
+        <v>45751.37185185185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6716,8 +6726,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6754,14 +6769,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49920-2024</t>
+          <t>A 64725-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45597.57233796296</v>
+        <v>45281</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6789,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6811,14 +6826,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 4290-2023</t>
+          <t>A 32564-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44953.60280092592</v>
+        <v>45111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6846,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6868,14 +6883,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 30001-2025</t>
+          <t>A 23665-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45826.52243055555</v>
+        <v>44334</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6887,13 +6902,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6930,14 +6940,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29813-2025</t>
+          <t>A 16910-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45825.78273148148</v>
+        <v>45411</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6950,7 +6960,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6987,14 +6997,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 39753-2025</t>
+          <t>A 63206-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45891.41855324074</v>
+        <v>45273</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7007,7 +7017,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7044,14 +7054,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 29815-2025</t>
+          <t>A 39144-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45825.81784722222</v>
+        <v>45548.6153587963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7064,7 +7074,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7101,14 +7111,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59373-2023</t>
+          <t>A 31989-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45253.74621527778</v>
+        <v>44778.30577546296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7121,7 +7131,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7158,14 +7168,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 23019-2025</t>
+          <t>A 9486-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45790</v>
+        <v>44977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7188,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7215,14 +7225,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35429-2023</t>
+          <t>A 3334-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45146.62659722222</v>
+        <v>45679.71046296296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7245,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7272,14 +7282,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40535-2025</t>
+          <t>A 43097-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45896</v>
+        <v>45567.54149305556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7292,7 +7302,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7329,14 +7339,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40648-2025</t>
+          <t>A 59231-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45896</v>
+        <v>45253</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7359,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7386,14 +7396,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 63039-2023</t>
+          <t>A 35429-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45272</v>
+        <v>45146.62659722222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7416,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7443,14 +7453,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 20662-2025</t>
+          <t>A 35186-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45776</v>
+        <v>45530.45280092592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7473,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>10.3</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7500,14 +7510,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 59965-2023</t>
+          <t>A 6374-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45257.74469907407</v>
+        <v>44965.62028935185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7520,7 +7530,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7557,14 +7567,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43775-2025</t>
+          <t>A 35433-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45912.50739583333</v>
+        <v>45146.62883101852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7577,7 +7587,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7614,14 +7624,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 64722-2023</t>
+          <t>A 16709-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45281</v>
+        <v>45754.47859953704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7634,7 +7644,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7671,14 +7681,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44363-2025</t>
+          <t>A 59191-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45915</v>
+        <v>45251</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7691,7 +7701,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7728,14 +7738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 45056-2021</t>
+          <t>A 28097-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44439.34355324074</v>
+        <v>44746.47129629629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7748,7 +7758,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7785,14 +7795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46480-2022</t>
+          <t>A 23166-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44847</v>
+        <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7805,7 +7815,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7842,14 +7852,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44643-2021</t>
+          <t>A 9243-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44437.70806712963</v>
+        <v>45714.56596064815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7862,7 +7872,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7899,14 +7909,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 49893-2022</t>
+          <t>A 49922-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44864</v>
+        <v>45597.57326388889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7919,7 +7929,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7956,14 +7966,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44718-2025</t>
+          <t>A 5823-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45917</v>
+        <v>45335.55476851852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7976,7 +7986,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8013,14 +8023,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44720-2025</t>
+          <t>A 49893-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45917</v>
+        <v>44864</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8033,7 +8043,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8070,14 +8080,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 3313-2024</t>
+          <t>A 14821-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45317.4846412037</v>
+        <v>45398.18991898148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8090,7 +8100,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8127,14 +8137,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 11805-2025</t>
+          <t>A 56517-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45727.88486111111</v>
+        <v>45625</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8147,7 +8157,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8184,14 +8194,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11820-2025</t>
+          <t>A 56531-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45728.32152777778</v>
+        <v>45625</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8204,7 +8214,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8241,14 +8251,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45059-2021</t>
+          <t>A 1218-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44439.34944444444</v>
+        <v>45302</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8261,7 +8271,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8298,14 +8308,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44644-2021</t>
+          <t>A 26441-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44437.71910879629</v>
+        <v>44738</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8318,7 +8328,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8355,14 +8365,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 10416-2024</t>
+          <t>A 6233-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45365</v>
+        <v>45337</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8375,7 +8385,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8412,14 +8422,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 6360-2023</t>
+          <t>A 22634-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44965</v>
+        <v>45447.67667824074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8442,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8469,14 +8479,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 6374-2023</t>
+          <t>A 11827-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44965.62028935185</v>
+        <v>45728.33512731481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8499,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8526,14 +8536,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8001-2025</t>
+          <t>A 40505-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45707.52650462963</v>
+        <v>45170.40601851852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8545,13 +8555,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8588,14 +8593,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 50587-2022</t>
+          <t>A 2633-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44861</v>
+        <v>44580</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8613,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8645,14 +8650,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 46122-2025</t>
+          <t>A 59373-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45924.58452546296</v>
+        <v>45253.74621527778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8665,7 +8670,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8702,14 +8707,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 36581-2025</t>
+          <t>A 650-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45869</v>
+        <v>45299</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8722,7 +8727,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8759,14 +8764,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 39887-2022</t>
+          <t>A 1196-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44819.64585648148</v>
+        <v>45666</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8779,7 +8784,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.3</v>
+        <v>9.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8816,14 +8821,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 36573-2025</t>
+          <t>A 40508-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45869</v>
+        <v>45170.40796296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8836,7 +8841,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8873,14 +8878,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45101-2021</t>
+          <t>A 50587-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44439.40950231482</v>
+        <v>44861</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8893,7 +8898,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8930,14 +8935,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 56479-2024</t>
+          <t>A 39887-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45624</v>
+        <v>44819.64585648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8950,7 +8955,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8987,14 +8992,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12215-2025</t>
+          <t>A 16444-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45729.5352662037</v>
+        <v>45751.50175925926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9006,8 +9011,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9044,14 +9054,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58878-2023</t>
+          <t>A 35366-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45252.47113425926</v>
+        <v>45531</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9064,7 +9074,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>14</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9101,14 +9111,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 15147-2025</t>
+          <t>A 8001-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45744.45267361111</v>
+        <v>45707.52650462963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9120,8 +9130,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9158,14 +9173,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47365-2025</t>
+          <t>A 53360-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45930</v>
+        <v>44879.38193287037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9178,7 +9193,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9215,14 +9230,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47189-2025</t>
+          <t>A 455-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45930</v>
+        <v>45296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9235,7 +9250,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9272,14 +9287,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 59191-2023</t>
+          <t>A 46480-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45251</v>
+        <v>44847</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9292,7 +9307,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9329,14 +9344,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59231-2023</t>
+          <t>A 7323-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45253</v>
+        <v>45702</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9349,7 +9364,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9386,14 +9401,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 37219-2025</t>
+          <t>A 39753-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45875</v>
+        <v>45891.41855324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9406,7 +9421,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9443,14 +9458,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 47358-2025</t>
+          <t>A 22925-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45930</v>
+        <v>45448</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9463,7 +9478,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9500,14 +9515,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 47451-2025</t>
+          <t>A 23019-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45930</v>
+        <v>45790</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9520,7 +9535,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9557,14 +9572,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37218-2025</t>
+          <t>A 40535-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45875</v>
+        <v>45896</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9577,7 +9592,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9614,14 +9629,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47516-2025</t>
+          <t>A 18685-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45931.26936342593</v>
+        <v>45763.61067129629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9633,13 +9648,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9676,14 +9686,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47360-2025</t>
+          <t>A 18722-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45930</v>
+        <v>45763.66126157407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9696,7 +9706,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9733,14 +9743,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 650-2024</t>
+          <t>A 40648-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45299</v>
+        <v>45896</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9753,7 +9763,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9790,14 +9800,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48324-2025</t>
+          <t>A 36894-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45933.62864583333</v>
+        <v>45538</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9810,7 +9820,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9847,14 +9857,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3645-2024</t>
+          <t>A 4290-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45321</v>
+        <v>44953.60280092592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9867,7 +9877,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9904,14 +9914,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37920-2025</t>
+          <t>A 64350-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45881.57488425926</v>
+        <v>45280</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9924,7 +9934,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9961,14 +9971,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10419-2024</t>
+          <t>A 63039-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45365</v>
+        <v>45272</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9981,7 +9991,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>7.7</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10018,14 +10028,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 37925-2025</t>
+          <t>A 8792-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45881.57799768518</v>
+        <v>44978.59072916667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10038,7 +10048,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10075,14 +10085,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 59864-2024</t>
+          <t>A 37197-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45639</v>
+        <v>45155.66857638889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10095,7 +10105,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10132,14 +10142,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 29809-2025</t>
+          <t>A 7640-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45825.75673611111</v>
+        <v>45705.77997685185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10152,7 +10162,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10189,14 +10199,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 17388-2023</t>
+          <t>A 20662-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45035</v>
+        <v>45776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10209,7 +10219,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>10.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10246,14 +10256,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 9486-2023</t>
+          <t>A 43775-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44977</v>
+        <v>45912.50739583333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10266,7 +10276,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10303,14 +10313,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32564-2023</t>
+          <t>A 9481-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45111</v>
+        <v>44977</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10323,7 +10333,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10360,14 +10370,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 12476-2023</t>
+          <t>A 9483-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44999.64097222222</v>
+        <v>44977</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10380,7 +10390,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10417,14 +10427,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 50035-2025</t>
+          <t>A 28200-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45943.3944675926</v>
+        <v>44746</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10437,7 +10447,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10474,14 +10484,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 14267-2024</t>
+          <t>A 44363-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45393.57178240741</v>
+        <v>45915</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10493,13 +10503,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10536,14 +10541,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 8792-2023</t>
+          <t>A 44718-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44978.59072916667</v>
+        <v>45917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10593,14 +10598,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 57289-2024</t>
+          <t>A 44720-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45629.58579861111</v>
+        <v>45917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10613,7 +10618,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10650,14 +10655,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 31989-2022</t>
+          <t>A 46122-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44778.30577546296</v>
+        <v>45924.58452546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10670,7 +10675,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10707,14 +10712,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51141-2025</t>
+          <t>A 32548-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45947.56348379629</v>
+        <v>45513</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10727,7 +10732,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.1</v>
+        <v>10.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10764,14 +10769,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51179-2025</t>
+          <t>A 55163-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45947</v>
+        <v>45237</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10784,7 +10789,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10821,14 +10826,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 51076-2025</t>
+          <t>A 4982-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45947.46234953704</v>
+        <v>45689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10841,7 +10846,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10878,14 +10883,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 51176-2025</t>
+          <t>A 8794-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45947</v>
+        <v>44978.59206018518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10898,7 +10903,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10935,14 +10940,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51065-2025</t>
+          <t>A 47189-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45947.45203703704</v>
+        <v>45930</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10955,7 +10960,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10992,14 +10997,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 50736-2025</t>
+          <t>A 47451-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45946.36873842592</v>
+        <v>45930</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11012,7 +11017,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11049,14 +11054,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3334-2025</t>
+          <t>A 47365-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45679.71046296296</v>
+        <v>45930</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11074,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11106,14 +11111,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 39311-2023</t>
+          <t>A 47358-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45162</v>
+        <v>45930</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11126,7 +11131,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11163,14 +11168,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 16709-2025</t>
+          <t>A 47516-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45754.47859953704</v>
+        <v>45931.26936342593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11182,8 +11187,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11220,14 +11230,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 32624-2023</t>
+          <t>A 48324-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45111</v>
+        <v>45933.62864583333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11240,7 +11250,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11277,14 +11287,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 8926-2022</t>
+          <t>A 18772-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44614</v>
+        <v>45763</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11296,13 +11306,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11339,14 +11344,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 7323-2025</t>
+          <t>A 12476-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45702</v>
+        <v>44999.64097222222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11364,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11396,14 +11401,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 8794-2023</t>
+          <t>A 44396-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44978.59206018518</v>
+        <v>45573</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11421,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11453,14 +11458,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 44396-2024</t>
+          <t>A 47360-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45573</v>
+        <v>45930</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11478,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11510,14 +11515,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 7640-2025</t>
+          <t>A 64722-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45705.77997685185</v>
+        <v>45281</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11535,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11567,14 +11572,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6232-2024</t>
+          <t>A 12889-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45337</v>
+        <v>45001</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11592,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11624,14 +11629,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 29176-2025</t>
+          <t>A 32624-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45821</v>
+        <v>45111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11649,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11681,14 +11686,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 1196-2025</t>
+          <t>A 10416-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45666</v>
+        <v>45365</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11706,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>9.1</v>
+        <v>4.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11738,14 +11743,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 7596-2025</t>
+          <t>A 10419-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45705.65067129629</v>
+        <v>45365</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11763,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>7.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11795,14 +11800,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2470-2026</t>
+          <t>A 50035-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46037.36991898148</v>
+        <v>45943.3944675926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11820,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11852,14 +11857,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2314-2026</t>
+          <t>A 50736-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46034</v>
+        <v>45946.36873842592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11877,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11909,14 +11914,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 23665-2021</t>
+          <t>A 51076-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44334</v>
+        <v>45947.46234953704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11934,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11966,14 +11971,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14821-2024</t>
+          <t>A 51176-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45398.18991898148</v>
+        <v>45947</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11991,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12023,14 +12028,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 2315-2026</t>
+          <t>A 51179-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46034</v>
+        <v>45947</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12048,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12080,14 +12085,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 59200-2024</t>
+          <t>A 51141-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45636</v>
+        <v>45947.56348379629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12105,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12137,14 +12142,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 10732-2024</t>
+          <t>A 51065-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45369</v>
+        <v>45947.45203703704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12162,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12194,14 +12199,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 61356-2025</t>
+          <t>A 35426-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46000</v>
+        <v>45146.62553240741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12219,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12251,14 +12256,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 61358-2025</t>
+          <t>A 25554-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46000</v>
+        <v>45082</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12276,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12308,14 +12313,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 14354-2025</t>
+          <t>A 59965-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45741.36516203704</v>
+        <v>45257.74469907407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12327,13 +12332,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12370,14 +12370,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 61818-2025</t>
+          <t>A 15335-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46003.32189814815</v>
+        <v>44284</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12427,14 +12427,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 6233-2024</t>
+          <t>A 58878-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45337</v>
+        <v>45252.47113425926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12484,14 +12484,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 1218-2024</t>
+          <t>A 10732-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45302</v>
+        <v>45369</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12541,14 +12541,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61802-2025</t>
+          <t>A 27260-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46002</v>
+        <v>45471</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12598,14 +12598,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 61807-2025</t>
+          <t>A 42769-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46002</v>
+        <v>44832</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12655,14 +12655,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61803-2025</t>
+          <t>A 6360-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46002</v>
+        <v>44965</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12712,14 +12712,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 23166-2023</t>
+          <t>A 60091-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45075</v>
+        <v>45258.44322916667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12769,14 +12769,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 39144-2024</t>
+          <t>A 61289-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45548.6153587963</v>
+        <v>45260</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12826,14 +12826,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 63556-2025</t>
+          <t>A 3645-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46013.61539351852</v>
+        <v>45321</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12883,14 +12883,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 41256-2024</t>
+          <t>A 29203-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45559</v>
+        <v>45097</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12940,14 +12940,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 63406-2025</t>
+          <t>A 59200-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46012</v>
+        <v>45636</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12997,14 +12997,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 63407-2025</t>
+          <t>A 55145-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46012</v>
+        <v>45621</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13054,14 +13054,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 56711-2022</t>
+          <t>A 45002-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44893.84237268518</v>
+        <v>45575.48587962963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13111,14 +13111,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56526-2024</t>
+          <t>A 7596-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45625</v>
+        <v>45705.65067129629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13168,14 +13168,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 3336-2025</t>
+          <t>A 13049-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45679.71759259259</v>
+        <v>45002</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13225,14 +13225,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 7396-2026</t>
+          <t>A 14354-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46059.37376157408</v>
+        <v>45741.36516203704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13244,8 +13244,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13282,14 +13287,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 31833-2024</t>
+          <t>A 14325-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45509.64240740741</v>
+        <v>45393.69880787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13301,8 +13306,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13339,14 +13349,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 37700-2021</t>
+          <t>A 10928-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44400</v>
+        <v>45722.90581018518</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13359,7 +13369,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13396,14 +13406,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 16444-2025</t>
+          <t>A 21159-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45751.50175925926</v>
+        <v>45779.3799074074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13415,13 +13425,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13458,14 +13463,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 18685-2025</t>
+          <t>A 29176-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45763.61067129629</v>
+        <v>45821</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13478,7 +13483,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13515,14 +13520,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 18722-2025</t>
+          <t>A 2470-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45763.66126157407</v>
+        <v>46037.36991898148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13535,7 +13540,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13572,14 +13577,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 53823-2022</t>
+          <t>A 22750-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44880</v>
+        <v>45789.61164351852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13592,7 +13597,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13629,14 +13634,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 455-2024</t>
+          <t>A 8953-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45296</v>
+        <v>45713.46289351852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13649,7 +13654,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13686,14 +13691,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 9221-2026</t>
+          <t>A 14896-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46070.44648148148</v>
+        <v>45743.47895833333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13705,8 +13710,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13743,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 9226-2026</t>
+          <t>A 8954-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46070.45303240741</v>
+        <v>45713.46517361111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13763,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13800,14 +13810,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 9742-2026</t>
+          <t>A 10388-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46072.51445601852</v>
+        <v>45720.59267361111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13819,13 +13829,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13862,14 +13867,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 7818-2026</t>
+          <t>A 10389-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46062</v>
+        <v>45720.59847222222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13882,7 +13887,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13919,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 35186-2024</t>
+          <t>A 11818-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45530.45280092592</v>
+        <v>45728.31863425926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13939,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13976,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 35366-2024</t>
+          <t>A 10638-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45531</v>
+        <v>45721</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13996,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>14</v>
+        <v>11.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14033,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 20542-2024</t>
+          <t>A 10393-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45436</v>
+        <v>45720.60332175926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14053,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14090,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 14325-2024</t>
+          <t>A 13719-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45393.69880787037</v>
+        <v>45737.36446759259</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14109,13 +14114,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 44707-2021</t>
+          <t>A 61356-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44438.36449074074</v>
+        <v>46000</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 18772-2025</t>
+          <t>A 61358-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45763</v>
+        <v>46000</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 55163-2023</t>
+          <t>A 35888-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45237</v>
+        <v>45533.36006944445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 25554-2023</t>
+          <t>A 13346-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45082</v>
+        <v>45735.6306712963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 16710-2025</t>
+          <t>A 61803-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45754</v>
+        <v>46002</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14437,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 9243-2025</t>
+          <t>A 59204-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45714.56596064815</v>
+        <v>44897</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 12889-2023</t>
+          <t>A 40530-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45001</v>
+        <v>45555.60775462963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>8.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14551,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 49118-2024</t>
+          <t>A 61802-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45594.66445601852</v>
+        <v>46002</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14608,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 64725-2023</t>
+          <t>A 61807-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45281</v>
+        <v>46002</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14665,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 50456-2022</t>
+          <t>A 5951-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44861</v>
+        <v>45695</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14722,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 56512-2024</t>
+          <t>A 24274-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45625</v>
+        <v>45797.44193287037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14779,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 9481-2023</t>
+          <t>A 43105-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44977</v>
+        <v>45567</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14836,14 +14836,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 9483-2023</t>
+          <t>A 61818-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44977</v>
+        <v>46003.32189814815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14893,14 +14893,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 40508-2023</t>
+          <t>A 25374-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45170.40796296296</v>
+        <v>45800.63570601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14912,8 +14912,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14950,14 +14955,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 32548-2024</t>
+          <t>A 25601-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45513</v>
+        <v>45803.54850694445</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14969,8 +14974,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>10.2</v>
+        <v>8.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15007,14 +15017,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 35426-2023</t>
+          <t>A 63556-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45146.62553240741</v>
+        <v>46013.61539351852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15027,7 +15037,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15064,14 +15074,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 35433-2023</t>
+          <t>A 27374-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45146.62883101852</v>
+        <v>45812</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15084,7 +15094,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15121,14 +15131,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 27260-2024</t>
+          <t>A 27379-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45471</v>
+        <v>45812</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15141,7 +15151,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15178,14 +15188,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 55145-2024</t>
+          <t>A 63406-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45621</v>
+        <v>46012</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15198,7 +15208,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15235,14 +15245,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 43097-2024</t>
+          <t>A 63407-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45567.54149305556</v>
+        <v>46012</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15255,7 +15265,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15292,14 +15302,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 37197-2023</t>
+          <t>A 28933-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45155.66857638889</v>
+        <v>45820.68407407407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15312,7 +15322,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15349,14 +15359,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 53360-2022</t>
+          <t>A 28934-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44879.38193287037</v>
+        <v>45820.68806712963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15369,7 +15379,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15406,14 +15416,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 22925-2024</t>
+          <t>A 28886-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45448</v>
+        <v>45820.62944444444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15426,7 +15436,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15463,14 +15473,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 35435-2023</t>
+          <t>A 28932-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45146.63164351852</v>
+        <v>45820.68037037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15483,7 +15493,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15520,14 +15530,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 14309-2024</t>
+          <t>A 29167-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45393.66581018519</v>
+        <v>45821</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15539,13 +15549,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15582,14 +15587,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 40505-2023</t>
+          <t>A 7396-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45170.40601851852</v>
+        <v>46059.37376157408</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15602,7 +15607,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15639,14 +15644,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 11827-2025</t>
+          <t>A 29177-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45728.33512731481</v>
+        <v>45821</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15659,7 +15664,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15696,14 +15701,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 45002-2024</t>
+          <t>A 29813-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45575.48587962963</v>
+        <v>45825.78273148148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15716,7 +15721,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15753,14 +15758,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 28200-2022</t>
+          <t>A 30001-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44746</v>
+        <v>45826.52243055555</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15772,8 +15777,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15810,14 +15820,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 43564-2024</t>
+          <t>A 29815-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45569</v>
+        <v>45825.81784722222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15830,7 +15840,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15867,14 +15877,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 22634-2024</t>
+          <t>A 9226-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45447.67667824074</v>
+        <v>46070.45303240741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15887,7 +15897,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>8.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15924,14 +15934,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 20545-2024</t>
+          <t>A 9221-2026</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45436</v>
+        <v>46070.44648148148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15944,7 +15954,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15981,14 +15991,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 10928-2025</t>
+          <t>A 7818-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45722.90581018518</v>
+        <v>46062</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16001,7 +16011,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>9.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16038,14 +16048,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 21159-2025</t>
+          <t>A 9742-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45779.3799074074</v>
+        <v>46072.51445601852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16057,8 +16067,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16095,14 +16110,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 22750-2025</t>
+          <t>A 2314-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45789.61164351852</v>
+        <v>46034</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16115,7 +16130,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16152,14 +16167,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 10388-2025</t>
+          <t>A 2315-2026</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45720.59267361111</v>
+        <v>46034</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16172,7 +16187,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16209,14 +16224,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 10389-2025</t>
+          <t>A 44643-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45720.59847222222</v>
+        <v>44437.70806712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16229,7 +16244,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.3</v>
+        <v>4.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16266,14 +16281,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 10638-2025</t>
+          <t>A 45056-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45721</v>
+        <v>44439.34355324074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16286,7 +16301,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>11.8</v>
+        <v>1.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16323,14 +16338,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 10393-2025</t>
+          <t>A 11820-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45720.60332175926</v>
+        <v>45728.32152777778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16380,14 +16395,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 14896-2025</t>
+          <t>A 11805-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45743.47895833333</v>
+        <v>45727.88486111111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16399,13 +16414,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16442,14 +16452,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 8953-2025</t>
+          <t>A 44644-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45713.46289351852</v>
+        <v>44437.71910879629</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16462,7 +16472,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16499,14 +16509,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 8954-2025</t>
+          <t>A 45059-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45713.46517361111</v>
+        <v>44439.34944444444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16519,7 +16529,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16556,14 +16566,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 11818-2025</t>
+          <t>A 36573-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45728.31863425926</v>
+        <v>45869</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16576,7 +16586,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16613,14 +16623,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 35888-2024</t>
+          <t>A 15147-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45533.36006944445</v>
+        <v>45744.45267361111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16633,7 +16643,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>4.3</v>
+        <v>9.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16670,14 +16680,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 13346-2025</t>
+          <t>A 36581-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45735.6306712963</v>
+        <v>45869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16690,7 +16700,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16727,14 +16737,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 24274-2025</t>
+          <t>A 12215-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45797.44193287037</v>
+        <v>45729.5352662037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16747,7 +16757,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16784,14 +16794,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 13719-2025</t>
+          <t>A 45101-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45737.36446759259</v>
+        <v>44439.40950231482</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16804,7 +16814,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16841,14 +16851,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 40530-2024</t>
+          <t>A 56479-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45555.60775462963</v>
+        <v>45624</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16861,7 +16871,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16898,14 +16908,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 5951-2025</t>
+          <t>A 37219-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45695</v>
+        <v>45875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16918,7 +16928,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16955,14 +16965,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 43105-2024</t>
+          <t>A 37218-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45567</v>
+        <v>45875</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16975,7 +16985,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17012,14 +17022,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 59204-2022</t>
+          <t>A 37920-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44897</v>
+        <v>45881.57488425926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17032,7 +17042,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17069,14 +17079,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 25374-2025</t>
+          <t>A 29809-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45800.63570601852</v>
+        <v>45825.75673611111</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17088,13 +17098,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17131,14 +17136,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 25601-2025</t>
+          <t>A 59864-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45803.54850694445</v>
+        <v>45639</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17150,13 +17155,8 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G284" t="n">
-        <v>8.1</v>
+        <v>1.6</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17190,17 +17190,17 @@
       </c>
       <c r="R284" s="2" t="inlineStr"/>
     </row>
-    <row r="285" ht="15" customHeight="1">
+    <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 27374-2025</t>
+          <t>A 37925-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45812</v>
+        <v>45881.57799768518</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17246,63 +17246,6 @@
         <v>0</v>
       </c>
       <c r="R285" s="2" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>A 27379-2025</t>
-        </is>
-      </c>
-      <c r="B286" s="1" t="n">
-        <v>45812</v>
-      </c>
-      <c r="C286" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>GULLSPÅNG</t>
-        </is>
-      </c>
-      <c r="G286" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="n">
-        <v>0</v>
-      </c>
-      <c r="K286" t="n">
-        <v>0</v>
-      </c>
-      <c r="L286" t="n">
-        <v>0</v>
-      </c>
-      <c r="M286" t="n">
-        <v>0</v>
-      </c>
-      <c r="N286" t="n">
-        <v>0</v>
-      </c>
-      <c r="O286" t="n">
-        <v>0</v>
-      </c>
-      <c r="P286" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q286" t="n">
-        <v>0</v>
-      </c>
-      <c r="R286" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GULLSPÅNG.xlsx
+++ b/Översikt GULLSPÅNG.xlsx
@@ -575,7 +575,7 @@
         <v>44923</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45821</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39553-2024</t>
+          <t>A 8924-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45551</v>
+        <v>44614</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,8 +779,13 @@
           <t>GULLSPÅNG</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>11.5</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -789,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -804,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -813,133 +818,128 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Åkergroda
+Vanlig groda
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/artfynd/A 8924-2022 artfynd.xlsx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/kartor/A 8924-2022 karta.png", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomål/A 8924-2022 FSC-klagomål.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/klagomålsmail/A 8924-2022 FSC-klagomål mail.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsyn/A 8924-2022 tillsynsbegäran.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1447/tillsynsmail/A 8924-2022 tillsynsbegäran mail.docx", "A 8924-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 39553-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+     